--- a/BackTest/2019-10-11 BackTest LINK.xlsx
+++ b/BackTest/2019-10-11 BackTest LINK.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>34</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>51.51515151515152</v>
+      </c>
       <c r="L12" t="n">
         <v>3006.7</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>36</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>54.28571428571428</v>
+      </c>
       <c r="L13" t="n">
         <v>3008.6</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>36</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>52.94117647058824</v>
+      </c>
       <c r="L14" t="n">
         <v>3010.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>61</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>78.94736842105263</v>
+      </c>
       <c r="L15" t="n">
         <v>3014.8</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>68</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>61.90476190476191</v>
+      </c>
       <c r="L16" t="n">
         <v>3018.6</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>70</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>62.5</v>
+      </c>
       <c r="L17" t="n">
         <v>3022.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>73</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>58.62068965517241</v>
+      </c>
       <c r="L18" t="n">
         <v>3027</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>88</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>18.18181818181818</v>
+      </c>
       <c r="L19" t="n">
         <v>3028.9</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>95</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>35.29411764705883</v>
+      </c>
       <c r="L20" t="n">
         <v>3030.8</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>102</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>14.70588235294118</v>
+      </c>
       <c r="L21" t="n">
         <v>3032.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>117</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>28.39506172839506</v>
+      </c>
       <c r="L22" t="n">
         <v>3035</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>123</v>
       </c>
       <c r="K23" t="n">
-        <v>39.34426229508197</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>3037.9</v>
@@ -1466,7 +1488,7 @@
         <v>123</v>
       </c>
       <c r="K24" t="n">
-        <v>39.34426229508197</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="L24" t="n">
         <v>3040.8</v>
@@ -1515,7 +1537,7 @@
         <v>127</v>
       </c>
       <c r="K25" t="n">
-        <v>34.4</v>
+        <v>11.86440677966102</v>
       </c>
       <c r="L25" t="n">
         <v>3040.8</v>
@@ -1564,7 +1586,7 @@
         <v>140</v>
       </c>
       <c r="K26" t="n">
-        <v>42.64705882352941</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L26" t="n">
         <v>3042.8</v>
@@ -1613,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="K27" t="n">
-        <v>34.72222222222222</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="L27" t="n">
         <v>3043.7</v>
@@ -1662,7 +1684,7 @@
         <v>161</v>
       </c>
       <c r="K28" t="n">
-        <v>23.87096774193548</v>
+        <v>12.32876712328767</v>
       </c>
       <c r="L28" t="n">
         <v>3043.1</v>
@@ -1711,7 +1733,7 @@
         <v>169</v>
       </c>
       <c r="K29" t="n">
-        <v>23.37662337662337</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L29" t="n">
         <v>3044.8</v>
@@ -1760,7 +1782,7 @@
         <v>176</v>
       </c>
       <c r="K30" t="n">
-        <v>23.37662337662337</v>
+        <v>32.43243243243244</v>
       </c>
       <c r="L30" t="n">
         <v>3046.5</v>
@@ -1809,7 +1831,7 @@
         <v>187</v>
       </c>
       <c r="K31" t="n">
-        <v>18.75</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L31" t="n">
         <v>3047.8</v>
@@ -1860,7 +1882,7 @@
         <v>196</v>
       </c>
       <c r="K32" t="n">
-        <v>19.75308641975309</v>
+        <v>1.36986301369863</v>
       </c>
       <c r="L32" t="n">
         <v>3048.5</v>
@@ -1911,7 +1933,7 @@
         <v>196</v>
       </c>
       <c r="K33" t="n">
-        <v>18.75</v>
+        <v>1.36986301369863</v>
       </c>
       <c r="L33" t="n">
         <v>3048.6</v>
@@ -1962,7 +1984,7 @@
         <v>207</v>
       </c>
       <c r="K34" t="n">
-        <v>23.9766081871345</v>
+        <v>20</v>
       </c>
       <c r="L34" t="n">
         <v>3049.8</v>
@@ -2013,7 +2035,7 @@
         <v>220</v>
       </c>
       <c r="K35" t="n">
-        <v>18.23899371069182</v>
+        <v>20</v>
       </c>
       <c r="L35" t="n">
         <v>3052.7</v>
@@ -2064,7 +2086,7 @@
         <v>227</v>
       </c>
       <c r="K36" t="n">
-        <v>27.0440251572327</v>
+        <v>41.02564102564102</v>
       </c>
       <c r="L36" t="n">
         <v>3055</v>
@@ -2115,7 +2137,7 @@
         <v>228</v>
       </c>
       <c r="K37" t="n">
-        <v>26.58227848101265</v>
+        <v>67.16417910447761</v>
       </c>
       <c r="L37" t="n">
         <v>3058.3</v>
@@ -2166,7 +2188,7 @@
         <v>229</v>
       </c>
       <c r="K38" t="n">
-        <v>24.35897435897436</v>
+        <v>60</v>
       </c>
       <c r="L38" t="n">
         <v>3062.7</v>
@@ -2217,7 +2239,7 @@
         <v>241</v>
       </c>
       <c r="K39" t="n">
-        <v>26.79738562091503</v>
+        <v>26.15384615384616</v>
       </c>
       <c r="L39" t="n">
         <v>3065.1</v>
@@ -2268,7 +2290,7 @@
         <v>244</v>
       </c>
       <c r="K40" t="n">
-        <v>20.80536912751678</v>
+        <v>43.85964912280701</v>
       </c>
       <c r="L40" t="n">
         <v>3066.5</v>
@@ -2319,7 +2341,7 @@
         <v>247</v>
       </c>
       <c r="K41" t="n">
-        <v>24.13793103448276</v>
+        <v>25.49019607843137</v>
       </c>
       <c r="L41" t="n">
         <v>3068.7</v>
@@ -2370,7 +2392,7 @@
         <v>250</v>
       </c>
       <c r="K42" t="n">
-        <v>17.29323308270677</v>
+        <v>29.62962962962963</v>
       </c>
       <c r="L42" t="n">
         <v>3070.3</v>
@@ -2421,7 +2443,7 @@
         <v>268</v>
       </c>
       <c r="K43" t="n">
-        <v>24.13793103448276</v>
+        <v>37.70491803278689</v>
       </c>
       <c r="L43" t="n">
         <v>3073.7</v>
@@ -2472,7 +2494,7 @@
         <v>268</v>
       </c>
       <c r="K44" t="n">
-        <v>24.13793103448276</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="L44" t="n">
         <v>3076</v>
@@ -2523,7 +2545,7 @@
         <v>269</v>
       </c>
       <c r="K45" t="n">
-        <v>26.76056338028169</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L45" t="n">
         <v>3076.9</v>
@@ -2574,7 +2596,7 @@
         <v>276</v>
       </c>
       <c r="K46" t="n">
-        <v>23.52941176470588</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L46" t="n">
         <v>3077.8</v>
@@ -2625,7 +2647,7 @@
         <v>283</v>
       </c>
       <c r="K47" t="n">
-        <v>25.37313432835821</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L47" t="n">
         <v>3077.9</v>
@@ -2676,7 +2698,7 @@
         <v>284</v>
       </c>
       <c r="K48" t="n">
-        <v>36.58536585365854</v>
+        <v>30.23255813953488</v>
       </c>
       <c r="L48" t="n">
         <v>3078</v>
@@ -2727,7 +2749,7 @@
         <v>289</v>
       </c>
       <c r="K49" t="n">
-        <v>26.66666666666667</v>
+        <v>24.44444444444444</v>
       </c>
       <c r="L49" t="n">
         <v>3078.8</v>
@@ -2778,7 +2800,7 @@
         <v>295</v>
       </c>
       <c r="K50" t="n">
-        <v>26.05042016806723</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L50" t="n">
         <v>3080.5</v>
@@ -2829,7 +2851,7 @@
         <v>306</v>
       </c>
       <c r="K51" t="n">
-        <v>44.53781512605043</v>
+        <v>50</v>
       </c>
       <c r="L51" t="n">
         <v>3083.6</v>
@@ -2880,7 +2902,7 @@
         <v>311</v>
       </c>
       <c r="K52" t="n">
-        <v>42.60869565217391</v>
+        <v>34.88372093023256</v>
       </c>
       <c r="L52" t="n">
         <v>3086.9</v>
@@ -2931,7 +2953,7 @@
         <v>322</v>
       </c>
       <c r="K53" t="n">
-        <v>30.15873015873016</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L53" t="n">
         <v>3087.3</v>
@@ -2982,7 +3004,7 @@
         <v>325</v>
       </c>
       <c r="K54" t="n">
-        <v>25.42372881355932</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L54" t="n">
         <v>3088</v>
@@ -3033,7 +3055,7 @@
         <v>326</v>
       </c>
       <c r="K55" t="n">
-        <v>15.09433962264151</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>3088.7</v>
@@ -3084,7 +3106,7 @@
         <v>358</v>
       </c>
       <c r="K56" t="n">
-        <v>31.29770992366413</v>
+        <v>52</v>
       </c>
       <c r="L56" t="n">
         <v>3091.9</v>
@@ -3135,7 +3157,7 @@
         <v>359</v>
       </c>
       <c r="K57" t="n">
-        <v>31.29770992366413</v>
+        <v>54.66666666666666</v>
       </c>
       <c r="L57" t="n">
         <v>3095.9</v>
@@ -3186,7 +3208,7 @@
         <v>359</v>
       </c>
       <c r="K58" t="n">
-        <v>32.30769230769231</v>
+        <v>65.71428571428571</v>
       </c>
       <c r="L58" t="n">
         <v>3100</v>
@@ -3237,7 +3259,7 @@
         <v>385</v>
       </c>
       <c r="K59" t="n">
-        <v>55.55555555555556</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>3107.2</v>
@@ -3288,7 +3310,7 @@
         <v>400</v>
       </c>
       <c r="K60" t="n">
-        <v>62.82051282051282</v>
+        <v>74.46808510638297</v>
       </c>
       <c r="L60" t="n">
         <v>3115.3</v>
@@ -3339,7 +3361,7 @@
         <v>415</v>
       </c>
       <c r="K61" t="n">
-        <v>69.04761904761905</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="L61" t="n">
         <v>3123.8</v>
@@ -3390,7 +3412,7 @@
         <v>431</v>
       </c>
       <c r="K62" t="n">
-        <v>71.27071823204419</v>
+        <v>98.1651376146789</v>
       </c>
       <c r="L62" t="n">
         <v>3133.4</v>
@@ -3441,7 +3463,7 @@
         <v>457</v>
       </c>
       <c r="K63" t="n">
-        <v>72.48677248677249</v>
+        <v>98.48484848484848</v>
       </c>
       <c r="L63" t="n">
         <v>3146.7</v>
@@ -3492,7 +3514,7 @@
         <v>470</v>
       </c>
       <c r="K64" t="n">
-        <v>61.38613861386138</v>
+        <v>81.94444444444444</v>
       </c>
       <c r="L64" t="n">
         <v>3158.4</v>
@@ -3543,7 +3565,7 @@
         <v>479</v>
       </c>
       <c r="K65" t="n">
-        <v>63.8095238095238</v>
+        <v>78.51239669421489</v>
       </c>
       <c r="L65" t="n">
         <v>3171.1</v>
@@ -3594,7 +3616,7 @@
         <v>519</v>
       </c>
       <c r="K66" t="n">
-        <v>68.72427983539094</v>
+        <v>83.75</v>
       </c>
       <c r="L66" t="n">
         <v>3184.6</v>
@@ -3645,7 +3667,7 @@
         <v>535</v>
       </c>
       <c r="K67" t="n">
-        <v>62.6984126984127</v>
+        <v>67.04545454545455</v>
       </c>
       <c r="L67" t="n">
         <v>3196.4</v>
@@ -3696,7 +3718,7 @@
         <v>554</v>
       </c>
       <c r="K68" t="n">
-        <v>51.85185185185185</v>
+        <v>43.19526627218935</v>
       </c>
       <c r="L68" t="n">
         <v>3206.3</v>
@@ -3747,7 +3769,7 @@
         <v>575</v>
       </c>
       <c r="K69" t="n">
-        <v>58.04195804195804</v>
+        <v>45.14285714285714</v>
       </c>
       <c r="L69" t="n">
         <v>3215.7</v>
@@ -3798,7 +3820,7 @@
         <v>606</v>
       </c>
       <c r="K70" t="n">
-        <v>41.47909967845659</v>
+        <v>17.27748691099476</v>
       </c>
       <c r="L70" t="n">
         <v>3220.5</v>
@@ -3849,7 +3871,7 @@
         <v>619</v>
       </c>
       <c r="K71" t="n">
-        <v>33.54632587859425</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L71" t="n">
         <v>3222.5</v>
@@ -3900,7 +3922,7 @@
         <v>627</v>
       </c>
       <c r="K72" t="n">
-        <v>34.17721518987342</v>
+        <v>-8.235294117647058</v>
       </c>
       <c r="L72" t="n">
         <v>3223.7</v>
@@ -3951,7 +3973,7 @@
         <v>637</v>
       </c>
       <c r="K73" t="n">
-        <v>40.95238095238095</v>
+        <v>5.389221556886228</v>
       </c>
       <c r="L73" t="n">
         <v>3223.3</v>
@@ -4002,7 +4024,7 @@
         <v>637</v>
       </c>
       <c r="K74" t="n">
-        <v>40.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>3224.2</v>
@@ -4053,7 +4075,7 @@
         <v>642</v>
       </c>
       <c r="K75" t="n">
-        <v>38.60759493670886</v>
+        <v>-36.58536585365854</v>
       </c>
       <c r="L75" t="n">
         <v>3223.7</v>
@@ -4104,7 +4126,7 @@
         <v>647</v>
       </c>
       <c r="K76" t="n">
-        <v>29.41176470588236</v>
+        <v>-30.35714285714285</v>
       </c>
       <c r="L76" t="n">
         <v>3218.7</v>
@@ -4155,7 +4177,7 @@
         <v>670</v>
       </c>
       <c r="K77" t="n">
-        <v>19.61414790996785</v>
+        <v>-32.75862068965517</v>
       </c>
       <c r="L77" t="n">
         <v>3213</v>
@@ -4206,7 +4228,7 @@
         <v>695</v>
       </c>
       <c r="K78" t="n">
-        <v>25.59523809523809</v>
+        <v>-28.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>3211.7</v>
@@ -4257,7 +4279,7 @@
         <v>699</v>
       </c>
       <c r="K79" t="n">
-        <v>20.38216560509554</v>
+        <v>1.075268817204301</v>
       </c>
       <c r="L79" t="n">
         <v>3208.7</v>
@@ -4308,7 +4330,7 @@
         <v>719</v>
       </c>
       <c r="K80" t="n">
-        <v>9.090909090909092</v>
+        <v>-6</v>
       </c>
       <c r="L80" t="n">
         <v>3206.8</v>
@@ -4359,7 +4381,7 @@
         <v>723</v>
       </c>
       <c r="K81" t="n">
-        <v>3.246753246753246</v>
+        <v>-18.75</v>
       </c>
       <c r="L81" t="n">
         <v>3205.8</v>
@@ -4410,7 +4432,7 @@
         <v>736</v>
       </c>
       <c r="K82" t="n">
-        <v>2.295081967213115</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L82" t="n">
         <v>3205.3</v>
@@ -4461,7 +4483,7 @@
         <v>740</v>
       </c>
       <c r="K83" t="n">
-        <v>-8.12720848056537</v>
+        <v>-18.44660194174757</v>
       </c>
       <c r="L83" t="n">
         <v>3203.4</v>
@@ -4512,7 +4534,7 @@
         <v>759</v>
       </c>
       <c r="K84" t="n">
-        <v>-10.03460207612457</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L84" t="n">
         <v>3199.6</v>
@@ -4563,7 +4585,7 @@
         <v>762</v>
       </c>
       <c r="K85" t="n">
-        <v>-12.36749116607774</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L85" t="n">
         <v>3196.6</v>
@@ -4614,7 +4636,7 @@
         <v>778</v>
       </c>
       <c r="K86" t="n">
-        <v>-35.13513513513514</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L86" t="n">
         <v>3192.5</v>
@@ -4665,7 +4687,7 @@
         <v>785</v>
       </c>
       <c r="K87" t="n">
-        <v>-27.2</v>
+        <v>-40</v>
       </c>
       <c r="L87" t="n">
         <v>3191.4</v>
@@ -4716,7 +4738,7 @@
         <v>795</v>
       </c>
       <c r="K88" t="n">
-        <v>-24.48132780082987</v>
+        <v>-52.08333333333334</v>
       </c>
       <c r="L88" t="n">
         <v>3186.8</v>
@@ -4767,7 +4789,7 @@
         <v>799</v>
       </c>
       <c r="K89" t="n">
-        <v>-33.92857142857143</v>
+        <v>-32.5</v>
       </c>
       <c r="L89" t="n">
         <v>3182.2</v>
@@ -4818,7 +4840,7 @@
         <v>806</v>
       </c>
       <c r="K90" t="n">
-        <v>-19</v>
+        <v>-18.07228915662651</v>
       </c>
       <c r="L90" t="n">
         <v>3180.3</v>
@@ -4869,7 +4891,7 @@
         <v>814</v>
       </c>
       <c r="K91" t="n">
-        <v>-16.92307692307692</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L91" t="n">
         <v>3178</v>
@@ -4920,7 +4942,7 @@
         <v>832</v>
       </c>
       <c r="K92" t="n">
-        <v>-11.21951219512195</v>
+        <v>-15.21739130434783</v>
       </c>
       <c r="L92" t="n">
         <v>3176.2</v>
@@ -4971,7 +4993,7 @@
         <v>846</v>
       </c>
       <c r="K93" t="n">
-        <v>-22.48803827751196</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L93" t="n">
         <v>3173.4</v>
@@ -5022,7 +5044,7 @@
         <v>860</v>
       </c>
       <c r="K94" t="n">
-        <v>-14.79820627802691</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="L94" t="n">
         <v>3173.9</v>
@@ -5073,7 +5095,7 @@
         <v>860</v>
       </c>
       <c r="K95" t="n">
-        <v>-12.84403669724771</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="L95" t="n">
         <v>3174.1</v>
@@ -5124,7 +5146,7 @@
         <v>866</v>
       </c>
       <c r="K96" t="n">
-        <v>-7.76255707762557</v>
+        <v>20.98765432098765</v>
       </c>
       <c r="L96" t="n">
         <v>3176.5</v>
@@ -5175,7 +5197,7 @@
         <v>868</v>
       </c>
       <c r="K97" t="n">
-        <v>2.02020202020202</v>
+        <v>34.24657534246575</v>
       </c>
       <c r="L97" t="n">
         <v>3178</v>
@@ -5226,7 +5248,7 @@
         <v>869</v>
       </c>
       <c r="K98" t="n">
-        <v>-11.49425287356322</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L98" t="n">
         <v>3180.6</v>
@@ -5277,7 +5299,7 @@
         <v>876</v>
       </c>
       <c r="K99" t="n">
-        <v>-9.604519774011299</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L99" t="n">
         <v>3183.5</v>
@@ -5328,7 +5350,7 @@
         <v>881</v>
       </c>
       <c r="K100" t="n">
-        <v>4.938271604938271</v>
+        <v>52.23880597014925</v>
       </c>
       <c r="L100" t="n">
         <v>3186.2</v>
@@ -5379,7 +5401,7 @@
         <v>895</v>
       </c>
       <c r="K101" t="n">
-        <v>15.11627906976744</v>
+        <v>49.2063492063492</v>
       </c>
       <c r="L101" t="n">
         <v>3191.1</v>
@@ -5430,7 +5452,7 @@
         <v>901</v>
       </c>
       <c r="K102" t="n">
-        <v>11.51515151515152</v>
+        <v>92.72727272727272</v>
       </c>
       <c r="L102" t="n">
         <v>3194.8</v>
@@ -5481,7 +5503,7 @@
         <v>919</v>
       </c>
       <c r="K103" t="n">
-        <v>2.793296089385475</v>
+        <v>32.20338983050847</v>
       </c>
       <c r="L103" t="n">
         <v>3198.1</v>
@@ -5532,7 +5554,7 @@
         <v>921</v>
       </c>
       <c r="K104" t="n">
-        <v>13.58024691358025</v>
+        <v>27.86885245901639</v>
       </c>
       <c r="L104" t="n">
         <v>3199.8</v>
@@ -5583,7 +5605,7 @@
         <v>922</v>
       </c>
       <c r="K105" t="n">
-        <v>12.5</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L105" t="n">
         <v>3201.6</v>
@@ -5634,7 +5656,7 @@
         <v>935</v>
       </c>
       <c r="K106" t="n">
-        <v>14.64968152866242</v>
+        <v>1.492537313432836</v>
       </c>
       <c r="L106" t="n">
         <v>3201.5</v>
@@ -5685,7 +5707,7 @@
         <v>936</v>
       </c>
       <c r="K107" t="n">
-        <v>9.933774834437086</v>
+        <v>-1.492537313432836</v>
       </c>
       <c r="L107" t="n">
         <v>3201.5</v>
@@ -5736,7 +5758,7 @@
         <v>943</v>
       </c>
       <c r="K108" t="n">
-        <v>12.16216216216216</v>
+        <v>-22.38805970149254</v>
       </c>
       <c r="L108" t="n">
         <v>3200.7</v>
@@ -5787,7 +5809,7 @@
         <v>943</v>
       </c>
       <c r="K109" t="n">
-        <v>9.722222222222223</v>
+        <v>-32.25806451612903</v>
       </c>
       <c r="L109" t="n">
         <v>3199.2</v>
@@ -5838,7 +5860,7 @@
         <v>948</v>
       </c>
       <c r="K110" t="n">
-        <v>1.408450704225352</v>
+        <v>-73.58490566037736</v>
       </c>
       <c r="L110" t="n">
         <v>3196.7</v>
@@ -5889,7 +5911,7 @@
         <v>948</v>
       </c>
       <c r="K111" t="n">
-        <v>7.462686567164178</v>
+        <v>-95.74468085106383</v>
       </c>
       <c r="L111" t="n">
         <v>3192.8</v>
@@ -5940,7 +5962,7 @@
         <v>955</v>
       </c>
       <c r="K112" t="n">
-        <v>-12.19512195121951</v>
+        <v>-94.44444444444444</v>
       </c>
       <c r="L112" t="n">
         <v>3187.6</v>
@@ -5991,7 +6013,7 @@
         <v>964</v>
       </c>
       <c r="K113" t="n">
-        <v>6.779661016949152</v>
+        <v>-53.48837209302325</v>
       </c>
       <c r="L113" t="n">
         <v>3185.1</v>
@@ -6042,7 +6064,7 @@
         <v>969</v>
       </c>
       <c r="K114" t="n">
-        <v>-0.9174311926605505</v>
+        <v>-40.42553191489361</v>
       </c>
       <c r="L114" t="n">
         <v>3183.3</v>
@@ -6093,7 +6115,7 @@
         <v>970</v>
       </c>
       <c r="K115" t="n">
-        <v>-1.818181818181818</v>
+        <v>-20</v>
       </c>
       <c r="L115" t="n">
         <v>3181.3</v>
@@ -6144,7 +6166,7 @@
         <v>974</v>
       </c>
       <c r="K116" t="n">
-        <v>-3.703703703703703</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L116" t="n">
         <v>3181</v>
@@ -6195,7 +6217,7 @@
         <v>979</v>
       </c>
       <c r="K117" t="n">
-        <v>2.702702702702703</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L117" t="n">
         <v>3181.3</v>
@@ -6246,7 +6268,7 @@
         <v>979</v>
       </c>
       <c r="K118" t="n">
-        <v>1.818181818181818</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L118" t="n">
         <v>3182.3</v>
@@ -6297,7 +6319,7 @@
         <v>984</v>
       </c>
       <c r="K119" t="n">
-        <v>-9.25925925925926</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L119" t="n">
         <v>3182.8</v>
@@ -6348,7 +6370,7 @@
         <v>984</v>
       </c>
       <c r="K120" t="n">
-        <v>-14.5631067961165</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L120" t="n">
         <v>3183.8</v>
@@ -6399,7 +6421,7 @@
         <v>994</v>
       </c>
       <c r="K121" t="n">
-        <v>-19.19191919191919</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L121" t="n">
         <v>3185.8</v>
@@ -6450,7 +6472,7 @@
         <v>1008</v>
       </c>
       <c r="K122" t="n">
-        <v>-10.2803738317757</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L122" t="n">
         <v>3189.9</v>
@@ -6501,7 +6523,7 @@
         <v>1017</v>
       </c>
       <c r="K123" t="n">
-        <v>16.3265306122449</v>
+        <v>75</v>
       </c>
       <c r="L123" t="n">
         <v>3194</v>
@@ -6552,7 +6574,7 @@
         <v>1018</v>
       </c>
       <c r="K124" t="n">
-        <v>17.52577319587629</v>
+        <v>75</v>
       </c>
       <c r="L124" t="n">
         <v>3197.5</v>
@@ -6603,7 +6625,7 @@
         <v>1037</v>
       </c>
       <c r="K125" t="n">
-        <v>-2.608695652173913</v>
+        <v>20.63492063492063</v>
       </c>
       <c r="L125" t="n">
         <v>3199.2</v>
@@ -6654,7 +6676,7 @@
         <v>1042</v>
       </c>
       <c r="K126" t="n">
-        <v>14.01869158878505</v>
+        <v>20.63492063492063</v>
       </c>
       <c r="L126" t="n">
         <v>3201</v>
@@ -6705,7 +6727,7 @@
         <v>1047</v>
       </c>
       <c r="K127" t="n">
-        <v>18.91891891891892</v>
+        <v>26.47058823529412</v>
       </c>
       <c r="L127" t="n">
         <v>3202.8</v>
@@ -6756,7 +6778,7 @@
         <v>1047</v>
       </c>
       <c r="K128" t="n">
-        <v>26.92307692307692</v>
+        <v>36.50793650793651</v>
       </c>
       <c r="L128" t="n">
         <v>3204.6</v>
@@ -6807,7 +6829,7 @@
         <v>1054</v>
       </c>
       <c r="K129" t="n">
-        <v>31.53153153153153</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L129" t="n">
         <v>3207.6</v>
@@ -6858,7 +6880,7 @@
         <v>1055</v>
       </c>
       <c r="K130" t="n">
-        <v>38.31775700934579</v>
+        <v>34.42622950819672</v>
       </c>
       <c r="L130" t="n">
         <v>3210.7</v>
@@ -6909,7 +6931,7 @@
         <v>1056</v>
       </c>
       <c r="K131" t="n">
-        <v>37.03703703703704</v>
+        <v>12.5</v>
       </c>
       <c r="L131" t="n">
         <v>3212.7</v>
@@ -6960,7 +6982,7 @@
         <v>1062</v>
       </c>
       <c r="K132" t="n">
-        <v>38.31775700934579</v>
+        <v>-20</v>
       </c>
       <c r="L132" t="n">
         <v>3212.7</v>
@@ -7011,7 +7033,7 @@
         <v>1062</v>
       </c>
       <c r="K133" t="n">
-        <v>32.6530612244898</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L133" t="n">
         <v>3211.8</v>
@@ -7062,7 +7084,7 @@
         <v>1073</v>
       </c>
       <c r="K134" t="n">
-        <v>15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>3209.9</v>
@@ -7113,7 +7135,7 @@
         <v>1080</v>
       </c>
       <c r="K135" t="n">
-        <v>9.090909090909092</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L135" t="n">
         <v>3209.2</v>
@@ -7164,7 +7186,7 @@
         <v>1081</v>
       </c>
       <c r="K136" t="n">
-        <v>4.672897196261682</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L136" t="n">
         <v>3207.9</v>
@@ -7215,7 +7237,7 @@
         <v>1091</v>
       </c>
       <c r="K137" t="n">
-        <v>-8.928571428571429</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L137" t="n">
         <v>3205.1</v>
@@ -7266,7 +7288,7 @@
         <v>1101</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>-53.19148936170212</v>
       </c>
       <c r="L138" t="n">
         <v>3203.3</v>
@@ -7317,7 +7339,7 @@
         <v>1110</v>
       </c>
       <c r="K139" t="n">
-        <v>11.11111111111111</v>
+        <v>-30.90909090909091</v>
       </c>
       <c r="L139" t="n">
         <v>3201.7</v>
@@ -7368,7 +7390,7 @@
         <v>1117</v>
       </c>
       <c r="K140" t="n">
-        <v>15.78947368421053</v>
+        <v>-14.75409836065574</v>
       </c>
       <c r="L140" t="n">
         <v>3200.7</v>
@@ -7419,7 +7441,7 @@
         <v>1117</v>
       </c>
       <c r="K141" t="n">
-        <v>8.943089430894309</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L141" t="n">
         <v>3199.8</v>
@@ -7470,7 +7492,7 @@
         <v>1117</v>
       </c>
       <c r="K142" t="n">
-        <v>-2.752293577981652</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L142" t="n">
         <v>3199.5</v>
@@ -7521,7 +7543,7 @@
         <v>1143</v>
       </c>
       <c r="K143" t="n">
-        <v>-30.15873015873016</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L143" t="n">
         <v>3196.6</v>
@@ -7572,7 +7594,7 @@
         <v>1146</v>
       </c>
       <c r="K144" t="n">
-        <v>-31.25</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L144" t="n">
         <v>3194.5</v>
@@ -7623,7 +7645,7 @@
         <v>1153</v>
       </c>
       <c r="K145" t="n">
-        <v>-24.13793103448276</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L145" t="n">
         <v>3192.4</v>
@@ -7674,7 +7696,7 @@
         <v>1163</v>
       </c>
       <c r="K146" t="n">
-        <v>-19.00826446280992</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>3191.4</v>
@@ -7725,7 +7747,7 @@
         <v>1169</v>
       </c>
       <c r="K147" t="n">
-        <v>-18.0327868852459</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L147" t="n">
         <v>3192</v>
@@ -7776,7 +7798,7 @@
         <v>1177</v>
       </c>
       <c r="K148" t="n">
-        <v>-23.07692307692308</v>
+        <v>-31.34328358208955</v>
       </c>
       <c r="L148" t="n">
         <v>3190.8</v>
@@ -7827,7 +7849,7 @@
         <v>1202</v>
       </c>
       <c r="K149" t="n">
-        <v>-41.89189189189189</v>
+        <v>-62.35294117647059</v>
       </c>
       <c r="L149" t="n">
         <v>3186.2</v>
@@ -7878,7 +7900,7 @@
         <v>1206</v>
       </c>
       <c r="K150" t="n">
-        <v>-44.37086092715231</v>
+        <v>-64.04494382022472</v>
       </c>
       <c r="L150" t="n">
         <v>3180.5</v>
@@ -7929,7 +7951,7 @@
         <v>1220</v>
       </c>
       <c r="K151" t="n">
-        <v>-48.78048780487805</v>
+        <v>-68.93203883495146</v>
       </c>
       <c r="L151" t="n">
         <v>3173.4</v>
@@ -7980,7 +8002,7 @@
         <v>1223</v>
       </c>
       <c r="K152" t="n">
-        <v>-44.09937888198758</v>
+        <v>-52.5</v>
       </c>
       <c r="L152" t="n">
         <v>3166.6</v>
@@ -8031,7 +8053,7 @@
         <v>1238</v>
       </c>
       <c r="K153" t="n">
-        <v>-31.81818181818182</v>
+        <v>-26.08695652173913</v>
       </c>
       <c r="L153" t="n">
         <v>3163.9</v>
@@ -8082,7 +8104,7 @@
         <v>1243</v>
       </c>
       <c r="K154" t="n">
-        <v>-29.41176470588236</v>
+        <v>-24.44444444444444</v>
       </c>
       <c r="L154" t="n">
         <v>3161</v>
@@ -8133,7 +8155,7 @@
         <v>1253</v>
       </c>
       <c r="K155" t="n">
-        <v>-30.63583815028902</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L155" t="n">
         <v>3157.8</v>
@@ -8184,7 +8206,7 @@
         <v>1253</v>
       </c>
       <c r="K156" t="n">
-        <v>-30.23255813953488</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L156" t="n">
         <v>3153.6</v>
@@ -8235,7 +8257,7 @@
         <v>1254</v>
       </c>
       <c r="K157" t="n">
-        <v>-25.15337423312883</v>
+        <v>-50.64935064935064</v>
       </c>
       <c r="L157" t="n">
         <v>3148.9</v>
@@ -8286,7 +8308,7 @@
         <v>1254</v>
       </c>
       <c r="K158" t="n">
-        <v>-33.33333333333333</v>
+        <v>-26.92307692307692</v>
       </c>
       <c r="L158" t="n">
         <v>3145</v>
@@ -8337,7 +8359,7 @@
         <v>1263</v>
       </c>
       <c r="K159" t="n">
-        <v>-33.33333333333333</v>
+        <v>-1.754385964912281</v>
       </c>
       <c r="L159" t="n">
         <v>3144.5</v>
@@ -8388,7 +8410,7 @@
         <v>1263</v>
       </c>
       <c r="K160" t="n">
-        <v>-39.72602739726027</v>
+        <v>30.23255813953488</v>
       </c>
       <c r="L160" t="n">
         <v>3144.4</v>
@@ -8439,7 +8461,7 @@
         <v>1263</v>
       </c>
       <c r="K161" t="n">
-        <v>-39.72602739726027</v>
+        <v>25</v>
       </c>
       <c r="L161" t="n">
         <v>3145.7</v>
@@ -8490,7 +8512,7 @@
         <v>1264</v>
       </c>
       <c r="K162" t="n">
-        <v>-38.77551020408163</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L162" t="n">
         <v>3146.8</v>
@@ -8541,7 +8563,7 @@
         <v>1265</v>
       </c>
       <c r="K163" t="n">
-        <v>-26.22950819672131</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>3146.3</v>
@@ -8592,7 +8614,7 @@
         <v>1272</v>
       </c>
       <c r="K164" t="n">
-        <v>-28.57142857142857</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L164" t="n">
         <v>3145.6</v>
@@ -8643,7 +8665,7 @@
         <v>1272</v>
       </c>
       <c r="K165" t="n">
-        <v>-24.36974789915966</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L165" t="n">
         <v>3145.9</v>
@@ -8694,7 +8716,7 @@
         <v>1276</v>
       </c>
       <c r="K166" t="n">
-        <v>-38.05309734513274</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L166" t="n">
         <v>3145.8</v>
@@ -8745,7 +8767,7 @@
         <v>1292</v>
       </c>
       <c r="K167" t="n">
-        <v>-52.84552845528455</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L167" t="n">
         <v>3144</v>
@@ -8796,7 +8818,7 @@
         <v>1297</v>
       </c>
       <c r="K168" t="n">
-        <v>-51.66666666666667</v>
+        <v>-94.11764705882352</v>
       </c>
       <c r="L168" t="n">
         <v>3141.7</v>
@@ -8847,7 +8869,7 @@
         <v>1297</v>
       </c>
       <c r="K169" t="n">
-        <v>-38.94736842105263</v>
+        <v>-94.11764705882352</v>
       </c>
       <c r="L169" t="n">
         <v>3138.5</v>
@@ -8898,7 +8920,7 @@
         <v>1308</v>
       </c>
       <c r="K170" t="n">
-        <v>-21.56862745098039</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L170" t="n">
         <v>3136.4</v>
@@ -8949,7 +8971,7 @@
         <v>1321</v>
       </c>
       <c r="K171" t="n">
-        <v>4.95049504950495</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L171" t="n">
         <v>3135.6</v>
@@ -9000,7 +9022,7 @@
         <v>1322</v>
       </c>
       <c r="K172" t="n">
-        <v>1.01010101010101</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L172" t="n">
         <v>3134.6</v>
@@ -9051,7 +9073,7 @@
         <v>1326</v>
       </c>
       <c r="K173" t="n">
-        <v>-11.36363636363636</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L173" t="n">
         <v>3134.1</v>
@@ -9102,7 +9124,7 @@
         <v>1330</v>
       </c>
       <c r="K174" t="n">
-        <v>-1.149425287356322</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L174" t="n">
         <v>3134.7</v>
@@ -9153,7 +9175,7 @@
         <v>1334</v>
       </c>
       <c r="K175" t="n">
-        <v>6.172839506172839</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L175" t="n">
         <v>3134.9</v>
@@ -9204,7 +9226,7 @@
         <v>1336</v>
       </c>
       <c r="K176" t="n">
-        <v>3.614457831325301</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L176" t="n">
         <v>3135.3</v>
@@ -9255,7 +9277,7 @@
         <v>1340</v>
       </c>
       <c r="K177" t="n">
-        <v>6.976744186046512</v>
+        <v>67.44186046511628</v>
       </c>
       <c r="L177" t="n">
         <v>3137.7</v>
@@ -9306,7 +9328,7 @@
         <v>1340</v>
       </c>
       <c r="K178" t="n">
-        <v>6.976744186046512</v>
+        <v>67.44186046511628</v>
       </c>
       <c r="L178" t="n">
         <v>3140.6</v>
@@ -9357,7 +9379,7 @@
         <v>1344</v>
       </c>
       <c r="K179" t="n">
-        <v>-8.641975308641975</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L179" t="n">
         <v>3143.1</v>
@@ -9408,7 +9430,7 @@
         <v>1358</v>
       </c>
       <c r="K180" t="n">
-        <v>-22.10526315789474</v>
+        <v>-35.13513513513514</v>
       </c>
       <c r="L180" t="n">
         <v>3143.1</v>
@@ -9459,7 +9481,7 @@
         <v>1358</v>
       </c>
       <c r="K181" t="n">
-        <v>-22.10526315789474</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>3141.8</v>
@@ -9510,7 +9532,7 @@
         <v>1368</v>
       </c>
       <c r="K182" t="n">
-        <v>-30.76923076923077</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L182" t="n">
         <v>3139.6</v>
@@ -9561,7 +9583,7 @@
         <v>1369</v>
       </c>
       <c r="K183" t="n">
-        <v>-30.76923076923077</v>
+        <v>-79.48717948717949</v>
       </c>
       <c r="L183" t="n">
         <v>3136.9</v>
@@ -9612,7 +9634,7 @@
         <v>1387</v>
       </c>
       <c r="K184" t="n">
-        <v>-37.39130434782609</v>
+        <v>-84.90566037735849</v>
       </c>
       <c r="L184" t="n">
         <v>3132</v>
@@ -9663,7 +9685,7 @@
         <v>1387</v>
       </c>
       <c r="K185" t="n">
-        <v>-37.39130434782609</v>
+        <v>-84.31372549019608</v>
       </c>
       <c r="L185" t="n">
         <v>3127.5</v>
@@ -9714,7 +9736,7 @@
         <v>1388</v>
       </c>
       <c r="K186" t="n">
-        <v>-33.92857142857143</v>
+        <v>-95.83333333333334</v>
       </c>
       <c r="L186" t="n">
         <v>3123.3</v>
@@ -9765,7 +9787,7 @@
         <v>1392</v>
       </c>
       <c r="K187" t="n">
-        <v>-18</v>
+        <v>-80.76923076923077</v>
       </c>
       <c r="L187" t="n">
         <v>3119.1</v>
@@ -9816,7 +9838,7 @@
         <v>1393</v>
       </c>
       <c r="K188" t="n">
-        <v>-12.5</v>
+        <v>-75.51020408163265</v>
       </c>
       <c r="L188" t="n">
         <v>3115</v>
@@ -9867,7 +9889,7 @@
         <v>1398</v>
       </c>
       <c r="K189" t="n">
-        <v>-16.83168316831683</v>
+        <v>-70</v>
       </c>
       <c r="L189" t="n">
         <v>3110.8</v>
@@ -9918,7 +9940,7 @@
         <v>1399</v>
       </c>
       <c r="K190" t="n">
-        <v>-31.86813186813187</v>
+        <v>-70.73170731707317</v>
       </c>
       <c r="L190" t="n">
         <v>3107.9</v>
@@ -9969,7 +9991,7 @@
         <v>1403</v>
       </c>
       <c r="K191" t="n">
-        <v>-56.09756097560976</v>
+        <v>-65.71428571428571</v>
       </c>
       <c r="L191" t="n">
         <v>3104.6</v>
@@ -10020,7 +10042,7 @@
         <v>1406</v>
       </c>
       <c r="K192" t="n">
-        <v>-50</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="L192" t="n">
         <v>3102.6</v>
@@ -10071,7 +10093,7 @@
         <v>1407</v>
       </c>
       <c r="K193" t="n">
-        <v>-55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>3100.8</v>
@@ -10122,7 +10144,7 @@
         <v>1415</v>
       </c>
       <c r="K194" t="n">
-        <v>-48.23529411764706</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L194" t="n">
         <v>3101.6</v>
@@ -10173,7 +10195,7 @@
         <v>1423</v>
       </c>
       <c r="K195" t="n">
-        <v>-50.56179775280899</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L195" t="n">
         <v>3101.6</v>
@@ -10224,7 +10246,7 @@
         <v>1423</v>
       </c>
       <c r="K196" t="n">
-        <v>-49.42528735632184</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L196" t="n">
         <v>3101.5</v>
@@ -10275,7 +10297,7 @@
         <v>1423</v>
       </c>
       <c r="K197" t="n">
-        <v>-56.62650602409639</v>
+        <v>-20</v>
       </c>
       <c r="L197" t="n">
         <v>3101</v>
@@ -10326,7 +10348,7 @@
         <v>1429</v>
       </c>
       <c r="K198" t="n">
-        <v>-59.55056179775281</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L198" t="n">
         <v>3099.8</v>
@@ -10377,7 +10399,7 @@
         <v>1429</v>
       </c>
       <c r="K199" t="n">
-        <v>-57.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L199" t="n">
         <v>3099.1</v>
@@ -10428,7 +10450,7 @@
         <v>1435</v>
       </c>
       <c r="K200" t="n">
-        <v>-37.66233766233766</v>
+        <v>12.5</v>
       </c>
       <c r="L200" t="n">
         <v>3099.1</v>
@@ -10479,7 +10501,7 @@
         <v>1451</v>
       </c>
       <c r="K201" t="n">
-        <v>-13.97849462365591</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="L201" t="n">
         <v>3101.1</v>
@@ -10530,7 +10552,7 @@
         <v>1454</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>40.42553191489361</v>
       </c>
       <c r="L202" t="n">
         <v>3103.1</v>
@@ -10581,7 +10603,7 @@
         <v>1455</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L203" t="n">
         <v>3104.9</v>
@@ -10632,7 +10654,7 @@
         <v>1472</v>
       </c>
       <c r="K204" t="n">
-        <v>41.17647058823529</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L204" t="n">
         <v>3107.6</v>
@@ -10683,7 +10705,7 @@
         <v>1472</v>
       </c>
       <c r="K205" t="n">
-        <v>41.17647058823529</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L205" t="n">
         <v>3111.1</v>
@@ -10734,7 +10756,7 @@
         <v>1472</v>
       </c>
       <c r="K206" t="n">
-        <v>40.47619047619047</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L206" t="n">
         <v>3114.6</v>
@@ -10785,7 +10807,7 @@
         <v>1490</v>
       </c>
       <c r="K207" t="n">
-        <v>12.24489795918367</v>
+        <v>37.70491803278689</v>
       </c>
       <c r="L207" t="n">
         <v>3116.3</v>
@@ -10836,7 +10858,7 @@
         <v>1498</v>
       </c>
       <c r="K208" t="n">
-        <v>2.857142857142857</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L208" t="n">
         <v>3117.8</v>
@@ -10887,7 +10909,7 @@
         <v>1498</v>
       </c>
       <c r="K209" t="n">
-        <v>8</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L209" t="n">
         <v>3119.3</v>
@@ -10938,7 +10960,7 @@
         <v>1506</v>
       </c>
       <c r="K210" t="n">
-        <v>15.88785046728972</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="L210" t="n">
         <v>3121</v>
@@ -10989,7 +11011,7 @@
         <v>1510</v>
       </c>
       <c r="K211" t="n">
-        <v>23.36448598130841</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="L211" t="n">
         <v>3121.5</v>
@@ -11040,7 +11062,7 @@
         <v>1527</v>
       </c>
       <c r="K212" t="n">
-        <v>4.132231404958678</v>
+        <v>-19.44444444444445</v>
       </c>
       <c r="L212" t="n">
         <v>3120</v>
@@ -11091,7 +11113,7 @@
         <v>1527</v>
       </c>
       <c r="K213" t="n">
-        <v>3.333333333333333</v>
+        <v>-56.36363636363636</v>
       </c>
       <c r="L213" t="n">
         <v>3118.6</v>
@@ -11142,7 +11164,7 @@
         <v>1527</v>
       </c>
       <c r="K214" t="n">
-        <v>-3.571428571428571</v>
+        <v>-56.36363636363636</v>
       </c>
       <c r="L214" t="n">
         <v>3115.5</v>
@@ -11193,7 +11215,7 @@
         <v>1527</v>
       </c>
       <c r="K215" t="n">
-        <v>3.846153846153846</v>
+        <v>-56.36363636363636</v>
       </c>
       <c r="L215" t="n">
         <v>3112.4</v>
@@ -11244,7 +11266,7 @@
         <v>1529</v>
       </c>
       <c r="K216" t="n">
-        <v>5.660377358490567</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L216" t="n">
         <v>3109.5</v>
@@ -11295,7 +11317,7 @@
         <v>1529</v>
       </c>
       <c r="K217" t="n">
-        <v>5.660377358490567</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L217" t="n">
         <v>3108.4</v>
@@ -11346,7 +11368,7 @@
         <v>1547</v>
       </c>
       <c r="K218" t="n">
-        <v>25.42372881355932</v>
+        <v>30.61224489795918</v>
       </c>
       <c r="L218" t="n">
         <v>3109.9</v>
@@ -11397,7 +11419,7 @@
         <v>1554</v>
       </c>
       <c r="K219" t="n">
-        <v>29.6</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="L219" t="n">
         <v>3112.1</v>
@@ -11448,7 +11470,7 @@
         <v>1555</v>
       </c>
       <c r="K220" t="n">
-        <v>26.66666666666667</v>
+        <v>24.44444444444444</v>
       </c>
       <c r="L220" t="n">
         <v>3113.6</v>
@@ -11499,7 +11521,7 @@
         <v>1572</v>
       </c>
       <c r="K221" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L221" t="n">
         <v>3116.4</v>
@@ -11550,7 +11572,7 @@
         <v>1575</v>
       </c>
       <c r="K222" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L222" t="n">
         <v>3121.2</v>
@@ -11601,7 +11623,7 @@
         <v>1578</v>
       </c>
       <c r="K223" t="n">
-        <v>25.20325203252033</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L223" t="n">
         <v>3125.7</v>
@@ -11652,7 +11674,7 @@
         <v>1585</v>
       </c>
       <c r="K224" t="n">
-        <v>6.194690265486726</v>
+        <v>65.51724137931035</v>
       </c>
       <c r="L224" t="n">
         <v>3129.5</v>
@@ -11703,7 +11725,7 @@
         <v>1589</v>
       </c>
       <c r="K225" t="n">
-        <v>2.564102564102564</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L225" t="n">
         <v>3132.9</v>
@@ -11754,7 +11776,7 @@
         <v>1590</v>
       </c>
       <c r="K226" t="n">
-        <v>3.389830508474576</v>
+        <v>54.09836065573771</v>
       </c>
       <c r="L226" t="n">
         <v>3136.2</v>
@@ -11805,7 +11827,7 @@
         <v>1598</v>
       </c>
       <c r="K227" t="n">
-        <v>12.96296296296296</v>
+        <v>13.72549019607843</v>
       </c>
       <c r="L227" t="n">
         <v>3138.7</v>
@@ -11856,7 +11878,7 @@
         <v>1598</v>
       </c>
       <c r="K228" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>3139.4</v>
@@ -11907,7 +11929,7 @@
         <v>1601</v>
       </c>
       <c r="K229" t="n">
-        <v>18.44660194174757</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L229" t="n">
         <v>3139.1</v>
@@ -11958,7 +11980,7 @@
         <v>1608</v>
       </c>
       <c r="K230" t="n">
-        <v>17.64705882352941</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L230" t="n">
         <v>3139.4</v>
@@ -12009,7 +12031,7 @@
         <v>1613</v>
       </c>
       <c r="K231" t="n">
-        <v>18.44660194174757</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L231" t="n">
         <v>3138.5</v>
@@ -12060,7 +12082,7 @@
         <v>1613</v>
       </c>
       <c r="K232" t="n">
-        <v>41.86046511627907</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L232" t="n">
         <v>3137.3</v>
@@ -12111,7 +12133,7 @@
         <v>1618</v>
       </c>
       <c r="K233" t="n">
-        <v>45.05494505494506</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L233" t="n">
         <v>3136.9</v>
@@ -12162,7 +12184,7 @@
         <v>1622</v>
       </c>
       <c r="K234" t="n">
-        <v>47.36842105263158</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L234" t="n">
         <v>3137.6</v>
@@ -12213,7 +12235,7 @@
         <v>1623</v>
       </c>
       <c r="K235" t="n">
-        <v>47.91666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L235" t="n">
         <v>3138.8</v>
@@ -12264,7 +12286,7 @@
         <v>1627</v>
       </c>
       <c r="K236" t="n">
-        <v>40.81632653061224</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L236" t="n">
         <v>3139.5</v>
@@ -12315,7 +12337,7 @@
         <v>1635</v>
       </c>
       <c r="K237" t="n">
-        <v>45.28301886792453</v>
+        <v>62.16216216216216</v>
       </c>
       <c r="L237" t="n">
         <v>3141.8</v>
@@ -12366,7 +12388,7 @@
         <v>1646</v>
       </c>
       <c r="K238" t="n">
-        <v>41.41414141414141</v>
+        <v>82.22222222222221</v>
       </c>
       <c r="L238" t="n">
         <v>3145.2</v>
@@ -12417,7 +12439,7 @@
         <v>1651</v>
       </c>
       <c r="K239" t="n">
-        <v>29.89690721649485</v>
+        <v>58.13953488372093</v>
       </c>
       <c r="L239" t="n">
         <v>3148.4</v>
@@ -12468,7 +12490,7 @@
         <v>1660</v>
       </c>
       <c r="K240" t="n">
-        <v>35.23809523809524</v>
+        <v>61.70212765957447</v>
       </c>
       <c r="L240" t="n">
         <v>3151.8</v>
@@ -12519,7 +12541,7 @@
         <v>1660</v>
       </c>
       <c r="K241" t="n">
-        <v>22.72727272727273</v>
+        <v>61.70212765957447</v>
       </c>
       <c r="L241" t="n">
         <v>3154.7</v>
@@ -12570,7 +12592,7 @@
         <v>1665</v>
       </c>
       <c r="K242" t="n">
-        <v>24.44444444444444</v>
+        <v>61.70212765957447</v>
       </c>
       <c r="L242" t="n">
         <v>3158.1</v>
@@ -12621,7 +12643,7 @@
         <v>1666</v>
       </c>
       <c r="K243" t="n">
-        <v>29.54545454545455</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="L243" t="n">
         <v>3161.1</v>
@@ -12672,7 +12694,7 @@
         <v>1672</v>
       </c>
       <c r="K244" t="n">
-        <v>31.03448275862069</v>
+        <v>38.77551020408163</v>
       </c>
       <c r="L244" t="n">
         <v>3163.1</v>
@@ -12723,7 +12745,7 @@
         <v>1679</v>
       </c>
       <c r="K245" t="n">
-        <v>42.22222222222222</v>
+        <v>57.69230769230769</v>
       </c>
       <c r="L245" t="n">
         <v>3165.7</v>
@@ -12774,7 +12796,7 @@
         <v>1684</v>
       </c>
       <c r="K246" t="n">
-        <v>44.68085106382978</v>
+        <v>55.10204081632652</v>
       </c>
       <c r="L246" t="n">
         <v>3169.2</v>
@@ -12825,7 +12847,7 @@
         <v>1703</v>
       </c>
       <c r="K247" t="n">
-        <v>65.71428571428571</v>
+        <v>61.40350877192983</v>
       </c>
       <c r="L247" t="n">
         <v>3173.8</v>
@@ -12876,7 +12898,7 @@
         <v>1703</v>
       </c>
       <c r="K248" t="n">
-        <v>65.71428571428571</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="L248" t="n">
         <v>3177.3</v>
@@ -12927,7 +12949,7 @@
         <v>1715</v>
       </c>
       <c r="K249" t="n">
-        <v>73.68421052631578</v>
+        <v>78.18181818181819</v>
       </c>
       <c r="L249" t="n">
         <v>3182.5</v>
@@ -12978,7 +13000,7 @@
         <v>1722</v>
       </c>
       <c r="K250" t="n">
-        <v>61.40350877192983</v>
+        <v>58.06451612903226</v>
       </c>
       <c r="L250" t="n">
         <v>3186.1</v>
@@ -13029,7 +13051,7 @@
         <v>1727</v>
       </c>
       <c r="K251" t="n">
-        <v>52.63157894736842</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L251" t="n">
         <v>3189.2</v>
@@ -13080,7 +13102,7 @@
         <v>1728</v>
       </c>
       <c r="K252" t="n">
-        <v>51.30434782608696</v>
+        <v>38.70967741935484</v>
       </c>
       <c r="L252" t="n">
         <v>3191.7</v>
@@ -13131,7 +13153,7 @@
         <v>1729</v>
       </c>
       <c r="K253" t="n">
-        <v>47.74774774774775</v>
+        <v>50.87719298245614</v>
       </c>
       <c r="L253" t="n">
         <v>3194</v>
@@ -13182,7 +13204,7 @@
         <v>1729</v>
       </c>
       <c r="K254" t="n">
-        <v>45.79439252336449</v>
+        <v>44</v>
       </c>
       <c r="L254" t="n">
         <v>3196.9</v>
@@ -13233,7 +13255,7 @@
         <v>1735</v>
       </c>
       <c r="K255" t="n">
-        <v>37.5</v>
+        <v>21.56862745098039</v>
       </c>
       <c r="L255" t="n">
         <v>3198.5</v>
@@ -13284,7 +13306,7 @@
         <v>1751</v>
       </c>
       <c r="K256" t="n">
-        <v>24.19354838709678</v>
+        <v>-50</v>
       </c>
       <c r="L256" t="n">
         <v>3198</v>
@@ -13335,7 +13357,7 @@
         <v>1751</v>
       </c>
       <c r="K257" t="n">
-        <v>18.96551724137931</v>
+        <v>-50</v>
       </c>
       <c r="L257" t="n">
         <v>3195.6</v>
@@ -13386,7 +13408,7 @@
         <v>1754</v>
       </c>
       <c r="K258" t="n">
-        <v>7.407407407407407</v>
+        <v>-100</v>
       </c>
       <c r="L258" t="n">
         <v>3192.9</v>
@@ -13437,7 +13459,7 @@
         <v>1755</v>
       </c>
       <c r="K259" t="n">
-        <v>11.53846153846154</v>
+        <v>-100</v>
       </c>
       <c r="L259" t="n">
         <v>3188.9</v>
@@ -13488,7 +13510,7 @@
         <v>1757</v>
       </c>
       <c r="K260" t="n">
-        <v>1.030927835051546</v>
+        <v>-100</v>
       </c>
       <c r="L260" t="n">
         <v>3185.4</v>
@@ -13539,7 +13561,7 @@
         <v>1758</v>
       </c>
       <c r="K261" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L261" t="n">
         <v>3182.3</v>
@@ -13590,7 +13612,7 @@
         <v>1764</v>
       </c>
       <c r="K262" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L262" t="n">
         <v>3178.7</v>
@@ -13641,7 +13663,7 @@
         <v>1770</v>
       </c>
       <c r="K263" t="n">
-        <v>-5.769230769230769</v>
+        <v>-70.73170731707317</v>
       </c>
       <c r="L263" t="n">
         <v>3175.8</v>
@@ -13692,7 +13714,7 @@
         <v>1774</v>
       </c>
       <c r="K264" t="n">
-        <v>-3.92156862745098</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L264" t="n">
         <v>3172.5</v>
@@ -13743,7 +13765,7 @@
         <v>1774</v>
       </c>
       <c r="K265" t="n">
-        <v>-11.57894736842105</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L265" t="n">
         <v>3169.8</v>
@@ -13794,7 +13816,7 @@
         <v>1774</v>
       </c>
       <c r="K266" t="n">
-        <v>-17.77777777777778</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L266" t="n">
         <v>3168.7</v>
@@ -13845,7 +13867,7 @@
         <v>1775</v>
       </c>
       <c r="K267" t="n">
-        <v>-47.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L267" t="n">
         <v>3167.7</v>
@@ -13896,7 +13918,7 @@
         <v>1779</v>
       </c>
       <c r="K268" t="n">
-        <v>-39.47368421052632</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L268" t="n">
         <v>3167.4</v>
@@ -13947,7 +13969,7 @@
         <v>1784</v>
       </c>
       <c r="K269" t="n">
-        <v>-53.62318840579711</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L269" t="n">
         <v>3167.7</v>
@@ -13998,7 +14020,7 @@
         <v>1793</v>
       </c>
       <c r="K270" t="n">
-        <v>-54.92957746478874</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L270" t="n">
         <v>3167.3</v>
@@ -14049,7 +14071,7 @@
         <v>1798</v>
       </c>
       <c r="K271" t="n">
-        <v>-54.92957746478874</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L271" t="n">
         <v>3166.5</v>
@@ -14100,7 +14122,7 @@
         <v>1799</v>
       </c>
       <c r="K272" t="n">
-        <v>-54.92957746478874</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L272" t="n">
         <v>3166.2</v>
@@ -14151,7 +14173,7 @@
         <v>1799</v>
       </c>
       <c r="K273" t="n">
-        <v>-54.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L273" t="n">
         <v>3165.3</v>
@@ -14202,7 +14224,7 @@
         <v>1806</v>
       </c>
       <c r="K274" t="n">
-        <v>-40.25974025974026</v>
+        <v>6.25</v>
       </c>
       <c r="L274" t="n">
         <v>3165.5</v>
@@ -14253,7 +14275,7 @@
         <v>1814</v>
       </c>
       <c r="K275" t="n">
-        <v>-21.51898734177215</v>
+        <v>25</v>
       </c>
       <c r="L275" t="n">
         <v>3166.5</v>
@@ -14304,7 +14326,7 @@
         <v>1829</v>
       </c>
       <c r="K276" t="n">
-        <v>17.94871794871795</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L276" t="n">
         <v>3169</v>
@@ -14355,7 +14377,7 @@
         <v>1834</v>
       </c>
       <c r="K277" t="n">
-        <v>10.8433734939759</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L277" t="n">
         <v>3170.9</v>
@@ -14406,7 +14428,7 @@
         <v>1839</v>
       </c>
       <c r="K278" t="n">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L278" t="n">
         <v>3172.9</v>
@@ -14457,7 +14479,7 @@
         <v>1850</v>
       </c>
       <c r="K279" t="n">
-        <v>30.52631578947368</v>
+        <v>61.40350877192983</v>
       </c>
       <c r="L279" t="n">
         <v>3175.5</v>
@@ -14508,7 +14530,7 @@
         <v>1854</v>
       </c>
       <c r="K280" t="n">
-        <v>36.08247422680412</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="L280" t="n">
         <v>3179.4</v>
@@ -14559,7 +14581,7 @@
         <v>1854</v>
       </c>
       <c r="K281" t="n">
-        <v>37.5</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L281" t="n">
         <v>3183.8</v>
@@ -14610,7 +14632,7 @@
         <v>1864</v>
       </c>
       <c r="K282" t="n">
-        <v>32</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L282" t="n">
         <v>3187.3</v>
@@ -14661,7 +14683,7 @@
         <v>1885</v>
       </c>
       <c r="K283" t="n">
-        <v>4.347826086956522</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="L283" t="n">
         <v>3188.7</v>
@@ -14712,7 +14734,7 @@
         <v>1886</v>
       </c>
       <c r="K284" t="n">
-        <v>8.928571428571429</v>
+        <v>0</v>
       </c>
       <c r="L284" t="n">
         <v>3189.5</v>
@@ -14763,7 +14785,7 @@
         <v>1898</v>
       </c>
       <c r="K285" t="n">
-        <v>-1.612903225806452</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L285" t="n">
         <v>3188.3</v>
@@ -14814,7 +14836,7 @@
         <v>1898</v>
       </c>
       <c r="K286" t="n">
-        <v>-1.612903225806452</v>
+        <v>-34.375</v>
       </c>
       <c r="L286" t="n">
         <v>3185.6</v>
@@ -14865,7 +14887,7 @@
         <v>1914</v>
       </c>
       <c r="K287" t="n">
-        <v>-13.66906474820144</v>
+        <v>-57.33333333333334</v>
       </c>
       <c r="L287" t="n">
         <v>3181.8</v>
@@ -14916,7 +14938,7 @@
         <v>1936</v>
       </c>
       <c r="K288" t="n">
-        <v>-0.6369426751592357</v>
+        <v>-37.2093023255814</v>
       </c>
       <c r="L288" t="n">
         <v>3179.7</v>
@@ -14967,7 +14989,7 @@
         <v>1940</v>
       </c>
       <c r="K289" t="n">
-        <v>-6.41025641025641</v>
+        <v>-46.51162790697674</v>
       </c>
       <c r="L289" t="n">
         <v>3176.1</v>
@@ -15018,7 +15040,7 @@
         <v>1940</v>
       </c>
       <c r="K290" t="n">
-        <v>-0.6802721088435374</v>
+        <v>-46.51162790697674</v>
       </c>
       <c r="L290" t="n">
         <v>3172.1</v>
@@ -15069,7 +15091,7 @@
         <v>1945</v>
       </c>
       <c r="K291" t="n">
-        <v>6.122448979591836</v>
+        <v>-30.8641975308642</v>
       </c>
       <c r="L291" t="n">
         <v>3168.6</v>
@@ -15120,7 +15142,7 @@
         <v>1946</v>
       </c>
       <c r="K292" t="n">
-        <v>7.482993197278912</v>
+        <v>-4.918032786885246</v>
       </c>
       <c r="L292" t="n">
         <v>3166.2</v>
@@ -15171,7 +15193,7 @@
         <v>1947</v>
       </c>
       <c r="K293" t="n">
-        <v>6.756756756756757</v>
+        <v>-8.196721311475409</v>
       </c>
       <c r="L293" t="n">
         <v>3165.8</v>
@@ -15222,7 +15244,7 @@
         <v>1947</v>
       </c>
       <c r="K294" t="n">
-        <v>2.127659574468085</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L294" t="n">
         <v>3165.3</v>
@@ -15273,7 +15295,7 @@
         <v>1951</v>
       </c>
       <c r="K295" t="n">
-        <v>-6.569343065693431</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="L295" t="n">
         <v>3165.6</v>
@@ -15324,7 +15346,7 @@
         <v>1957</v>
       </c>
       <c r="K296" t="n">
-        <v>-14.0625</v>
+        <v>58.13953488372093</v>
       </c>
       <c r="L296" t="n">
         <v>3166.5</v>
@@ -15375,7 +15397,7 @@
         <v>1957</v>
       </c>
       <c r="K297" t="n">
-        <v>-10.56910569105691</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L297" t="n">
         <v>3169</v>
@@ -15426,7 +15448,7 @@
         <v>1967</v>
       </c>
       <c r="K298" t="n">
-        <v>-21.875</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L298" t="n">
         <v>3168.3</v>
@@ -15477,7 +15499,7 @@
         <v>1970</v>
       </c>
       <c r="K299" t="n">
-        <v>-35</v>
+        <v>-20</v>
       </c>
       <c r="L299" t="n">
         <v>3167.7</v>
@@ -15528,7 +15550,7 @@
         <v>1974</v>
       </c>
       <c r="K300" t="n">
-        <v>-35</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L300" t="n">
         <v>3167.5</v>
@@ -15579,7 +15601,7 @@
         <v>1977</v>
       </c>
       <c r="K301" t="n">
-        <v>-36.58536585365854</v>
+        <v>-35.48387096774194</v>
       </c>
       <c r="L301" t="n">
         <v>3166.5</v>
@@ -15630,7 +15652,7 @@
         <v>1986</v>
       </c>
       <c r="K302" t="n">
-        <v>-36.0655737704918</v>
+        <v>-48.71794871794872</v>
       </c>
       <c r="L302" t="n">
         <v>3164.5</v>
@@ -15681,7 +15703,7 @@
         <v>1987</v>
       </c>
       <c r="K303" t="n">
-        <v>-23.52941176470588</v>
+        <v>-50</v>
       </c>
       <c r="L303" t="n">
         <v>3162.5</v>
@@ -15732,7 +15754,7 @@
         <v>1997</v>
       </c>
       <c r="K304" t="n">
-        <v>-31.53153153153153</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L304" t="n">
         <v>3159.5</v>
@@ -15783,7 +15805,7 @@
         <v>2009</v>
       </c>
       <c r="K305" t="n">
-        <v>-31.53153153153153</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L305" t="n">
         <v>3155.7</v>
@@ -15834,7 +15856,7 @@
         <v>2011</v>
       </c>
       <c r="K306" t="n">
-        <v>-29.20353982300885</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L306" t="n">
         <v>3151.5</v>
@@ -15885,7 +15907,7 @@
         <v>2022</v>
       </c>
       <c r="K307" t="n">
-        <v>-5.555555555555555</v>
+        <v>-38.18181818181819</v>
       </c>
       <c r="L307" t="n">
         <v>3148.4</v>
@@ -15936,7 +15958,7 @@
         <v>2025</v>
       </c>
       <c r="K308" t="n">
-        <v>-28.08988764044944</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L308" t="n">
         <v>3146.6</v>
@@ -15987,7 +16009,7 @@
         <v>2039</v>
       </c>
       <c r="K309" t="n">
-        <v>-35.35353535353536</v>
+        <v>-50.76923076923077</v>
       </c>
       <c r="L309" t="n">
         <v>3143.7</v>
@@ -16038,7 +16060,7 @@
         <v>2041</v>
       </c>
       <c r="K310" t="n">
-        <v>-32.67326732673268</v>
+        <v>-43.75</v>
       </c>
       <c r="L310" t="n">
         <v>3140.6</v>
@@ -16089,7 +16111,7 @@
         <v>2045</v>
       </c>
       <c r="K311" t="n">
-        <v>-34</v>
+        <v>-25.42372881355932</v>
       </c>
       <c r="L311" t="n">
         <v>3138.2</v>
@@ -16140,7 +16162,7 @@
         <v>2046</v>
       </c>
       <c r="K312" t="n">
-        <v>-34</v>
+        <v>-22.03389830508474</v>
       </c>
       <c r="L312" t="n">
         <v>3136.8</v>
@@ -16191,7 +16213,7 @@
         <v>2057</v>
       </c>
       <c r="K313" t="n">
-        <v>-20</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L313" t="n">
         <v>3136.6</v>
@@ -16242,7 +16264,7 @@
         <v>2059</v>
       </c>
       <c r="K314" t="n">
-        <v>-17.85714285714286</v>
+        <v>44</v>
       </c>
       <c r="L314" t="n">
         <v>3137.6</v>
@@ -16293,7 +16315,7 @@
         <v>2081</v>
       </c>
       <c r="K315" t="n">
-        <v>4.615384615384616</v>
+        <v>60</v>
       </c>
       <c r="L315" t="n">
         <v>3142</v>
@@ -16344,7 +16366,7 @@
         <v>2083</v>
       </c>
       <c r="K316" t="n">
-        <v>1.587301587301587</v>
+        <v>54.09836065573771</v>
       </c>
       <c r="L316" t="n">
         <v>3146.4</v>
@@ -16395,7 +16417,7 @@
         <v>2090</v>
       </c>
       <c r="K317" t="n">
-        <v>-3.759398496240602</v>
+        <v>35.38461538461539</v>
       </c>
       <c r="L317" t="n">
         <v>3149</v>
@@ -16446,7 +16468,7 @@
         <v>2097</v>
       </c>
       <c r="K318" t="n">
-        <v>9.230769230769232</v>
+        <v>75.86206896551724</v>
       </c>
       <c r="L318" t="n">
         <v>3152</v>
@@ -16497,7 +16519,7 @@
         <v>2104</v>
       </c>
       <c r="K319" t="n">
-        <v>5.970149253731343</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L319" t="n">
         <v>3155.7</v>
@@ -16548,7 +16570,7 @@
         <v>2113</v>
       </c>
       <c r="K320" t="n">
-        <v>-3.597122302158273</v>
+        <v>32.35294117647059</v>
       </c>
       <c r="L320" t="n">
         <v>3158.3</v>
@@ -16599,7 +16621,7 @@
         <v>2121</v>
       </c>
       <c r="K321" t="n">
-        <v>-6.944444444444445</v>
+        <v>17.33333333333334</v>
       </c>
       <c r="L321" t="n">
         <v>3159.7</v>
@@ -16650,7 +16672,7 @@
         <v>2122</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>4.615384615384616</v>
       </c>
       <c r="L322" t="n">
         <v>3161.1</v>
@@ -16752,7 +16774,7 @@
         <v>2124</v>
       </c>
       <c r="K324" t="n">
-        <v>7.086614173228346</v>
+        <v>-53.48837209302325</v>
       </c>
       <c r="L324" t="n">
         <v>3161.2</v>
@@ -16803,7 +16825,7 @@
         <v>2124</v>
       </c>
       <c r="K325" t="n">
-        <v>18.26086956521739</v>
+        <v>-60.97560975609756</v>
       </c>
       <c r="L325" t="n">
         <v>3158.9</v>
@@ -16854,7 +16876,7 @@
         <v>2130</v>
       </c>
       <c r="K326" t="n">
-        <v>21.00840336134454</v>
+        <v>-30</v>
       </c>
       <c r="L326" t="n">
         <v>3157</v>
@@ -16905,7 +16927,7 @@
         <v>2133</v>
       </c>
       <c r="K327" t="n">
-        <v>15.31531531531531</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L327" t="n">
         <v>3156.1</v>
@@ -16956,7 +16978,7 @@
         <v>2135</v>
       </c>
       <c r="K328" t="n">
-        <v>14.54545454545454</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L328" t="n">
         <v>3154.7</v>
@@ -17007,7 +17029,7 @@
         <v>2139</v>
       </c>
       <c r="K329" t="n">
-        <v>26</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L329" t="n">
         <v>3153.6</v>
@@ -17058,7 +17080,7 @@
         <v>2157</v>
       </c>
       <c r="K330" t="n">
-        <v>36.20689655172414</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L330" t="n">
         <v>3155.2</v>
@@ -17109,7 +17131,7 @@
         <v>2158</v>
       </c>
       <c r="K331" t="n">
-        <v>32.74336283185841</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="L331" t="n">
         <v>3157.5</v>
@@ -17160,7 +17182,7 @@
         <v>2163</v>
       </c>
       <c r="K332" t="n">
-        <v>26.4957264957265</v>
+        <v>45</v>
       </c>
       <c r="L332" t="n">
         <v>3159.2</v>
@@ -17211,7 +17233,7 @@
         <v>2166</v>
       </c>
       <c r="K333" t="n">
-        <v>21.10091743119266</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L333" t="n">
         <v>3161.3</v>
@@ -17262,7 +17284,7 @@
         <v>2169</v>
       </c>
       <c r="K334" t="n">
-        <v>21.81818181818182</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L334" t="n">
         <v>3163.8</v>
@@ -17313,7 +17335,7 @@
         <v>2175</v>
       </c>
       <c r="K335" t="n">
-        <v>8.51063829787234</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L335" t="n">
         <v>3166.9</v>
@@ -17364,7 +17386,7 @@
         <v>2176</v>
       </c>
       <c r="K336" t="n">
-        <v>5.376344086021505</v>
+        <v>48.83720930232558</v>
       </c>
       <c r="L336" t="n">
         <v>3169.3</v>
@@ -17415,7 +17437,7 @@
         <v>2188</v>
       </c>
       <c r="K337" t="n">
-        <v>24.48979591836735</v>
+        <v>58.49056603773585</v>
       </c>
       <c r="L337" t="n">
         <v>3172.6</v>
@@ -17466,7 +17488,7 @@
         <v>2188</v>
       </c>
       <c r="K338" t="n">
-        <v>18.68131868131868</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L338" t="n">
         <v>3175.7</v>
@@ -17517,7 +17539,7 @@
         <v>2189</v>
       </c>
       <c r="K339" t="n">
-        <v>29.41176470588236</v>
+        <v>56.25</v>
       </c>
       <c r="L339" t="n">
         <v>3179.3</v>
@@ -17568,7 +17590,7 @@
         <v>2193</v>
       </c>
       <c r="K340" t="n">
-        <v>47.5</v>
+        <v>65.71428571428571</v>
       </c>
       <c r="L340" t="n">
         <v>3181.5</v>
@@ -17619,7 +17641,7 @@
         <v>2197</v>
       </c>
       <c r="K341" t="n">
-        <v>65.78947368421053</v>
+        <v>94.11764705882352</v>
       </c>
       <c r="L341" t="n">
         <v>3184.2</v>
@@ -17670,7 +17692,7 @@
         <v>2197</v>
       </c>
       <c r="K342" t="n">
-        <v>65.33333333333333</v>
+        <v>93.54838709677419</v>
       </c>
       <c r="L342" t="n">
         <v>3187.4</v>
@@ -17721,7 +17743,7 @@
         <v>2197</v>
       </c>
       <c r="K343" t="n">
-        <v>67.56756756756756</v>
+        <v>92.85714285714286</v>
       </c>
       <c r="L343" t="n">
         <v>3190.3</v>
@@ -17772,7 +17794,7 @@
         <v>2197</v>
       </c>
       <c r="K344" t="n">
-        <v>69.86301369863014</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L344" t="n">
         <v>3192.9</v>
@@ -17823,7 +17845,7 @@
         <v>2197</v>
       </c>
       <c r="K345" t="n">
-        <v>69.86301369863014</v>
+        <v>100</v>
       </c>
       <c r="L345" t="n">
         <v>3194.9</v>
@@ -17874,7 +17896,7 @@
         <v>2200</v>
       </c>
       <c r="K346" t="n">
-        <v>68.57142857142857</v>
+        <v>100</v>
       </c>
       <c r="L346" t="n">
         <v>3197.3</v>
@@ -17925,7 +17947,7 @@
         <v>2213</v>
       </c>
       <c r="K347" t="n">
-        <v>40</v>
+        <v>-4</v>
       </c>
       <c r="L347" t="n">
         <v>3197.2</v>
@@ -17976,7 +17998,7 @@
         <v>2217</v>
       </c>
       <c r="K348" t="n">
-        <v>41.46341463414634</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L348" t="n">
         <v>3197.5</v>
@@ -18027,7 +18049,7 @@
         <v>2217</v>
       </c>
       <c r="K349" t="n">
-        <v>48.71794871794872</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L349" t="n">
         <v>3197.7</v>
@@ -18078,7 +18100,7 @@
         <v>2218</v>
       </c>
       <c r="K350" t="n">
-        <v>31.14754098360656</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L350" t="n">
         <v>3197.4</v>
@@ -18129,7 +18151,7 @@
         <v>2219</v>
       </c>
       <c r="K351" t="n">
-        <v>34.42622950819672</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L351" t="n">
         <v>3196.8</v>
@@ -18180,7 +18202,7 @@
         <v>2228</v>
       </c>
       <c r="K352" t="n">
-        <v>26.15384615384616</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L352" t="n">
         <v>3195.3</v>
@@ -18231,7 +18253,7 @@
         <v>2228</v>
       </c>
       <c r="K353" t="n">
-        <v>22.58064516129032</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L353" t="n">
         <v>3193.8</v>
@@ -18282,7 +18304,7 @@
         <v>2249</v>
       </c>
       <c r="K354" t="n">
-        <v>40</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L354" t="n">
         <v>3194.4</v>
@@ -18333,7 +18355,7 @@
         <v>2252</v>
       </c>
       <c r="K355" t="n">
-        <v>37.66233766233766</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L355" t="n">
         <v>3195.3</v>
@@ -18384,7 +18406,7 @@
         <v>2256</v>
       </c>
       <c r="K356" t="n">
-        <v>32.5</v>
+        <v>34.88372093023256</v>
       </c>
       <c r="L356" t="n">
         <v>3195.5</v>
@@ -18435,7 +18457,7 @@
         <v>2268</v>
       </c>
       <c r="K357" t="n">
-        <v>32.5</v>
+        <v>45.09803921568628</v>
       </c>
       <c r="L357" t="n">
         <v>3198.2</v>
@@ -18486,7 +18508,7 @@
         <v>2277</v>
       </c>
       <c r="K358" t="n">
-        <v>19.10112359550562</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="L358" t="n">
         <v>3199.6</v>
@@ -18537,7 +18559,7 @@
         <v>2280</v>
       </c>
       <c r="K359" t="n">
-        <v>14.28571428571428</v>
+        <v>19.35483870967742</v>
       </c>
       <c r="L359" t="n">
         <v>3200.7</v>
@@ -18588,7 +18610,7 @@
         <v>2290</v>
       </c>
       <c r="K360" t="n">
-        <v>19.58762886597938</v>
+        <v>29.57746478873239</v>
       </c>
       <c r="L360" t="n">
         <v>3202.9</v>
@@ -18639,7 +18661,7 @@
         <v>2295</v>
       </c>
       <c r="K361" t="n">
-        <v>10.20408163265306</v>
+        <v>37.3134328358209</v>
       </c>
       <c r="L361" t="n">
         <v>3204.5</v>
@@ -18690,7 +18712,7 @@
         <v>2309</v>
       </c>
       <c r="K362" t="n">
-        <v>21.42857142857143</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L362" t="n">
         <v>3208.4</v>
@@ -18741,7 +18763,7 @@
         <v>2315</v>
       </c>
       <c r="K363" t="n">
-        <v>25.42372881355932</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L363" t="n">
         <v>3212.9</v>
@@ -18792,7 +18814,7 @@
         <v>2328</v>
       </c>
       <c r="K364" t="n">
-        <v>32.82442748091603</v>
+        <v>44.73684210526316</v>
       </c>
       <c r="L364" t="n">
         <v>3216.6</v>
@@ -18843,7 +18865,7 @@
         <v>2332</v>
       </c>
       <c r="K365" t="n">
-        <v>28.88888888888889</v>
+        <v>44.73684210526316</v>
       </c>
       <c r="L365" t="n">
         <v>3219.6</v>
@@ -18894,7 +18916,7 @@
         <v>2340</v>
       </c>
       <c r="K366" t="n">
-        <v>20</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="L366" t="n">
         <v>3222.2</v>
@@ -18945,7 +18967,7 @@
         <v>2342</v>
       </c>
       <c r="K367" t="n">
-        <v>30.23255813953488</v>
+        <v>32.30769230769231</v>
       </c>
       <c r="L367" t="n">
         <v>3223.4</v>
@@ -18996,7 +19018,7 @@
         <v>2344</v>
       </c>
       <c r="K368" t="n">
-        <v>25.98425196850393</v>
+        <v>34.375</v>
       </c>
       <c r="L368" t="n">
         <v>3225.3</v>
@@ -19047,7 +19069,7 @@
         <v>2344</v>
       </c>
       <c r="K369" t="n">
-        <v>25.98425196850393</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L369" t="n">
         <v>3227.5</v>
@@ -19098,7 +19120,7 @@
         <v>2346</v>
       </c>
       <c r="K370" t="n">
-        <v>28.125</v>
+        <v>37.25490196078432</v>
       </c>
       <c r="L370" t="n">
         <v>3228.9</v>
@@ -19149,7 +19171,7 @@
         <v>2351</v>
       </c>
       <c r="K371" t="n">
-        <v>22.72727272727273</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>3230.3</v>
@@ -19200,7 +19222,7 @@
         <v>2363</v>
       </c>
       <c r="K372" t="n">
-        <v>37.77777777777778</v>
+        <v>12.5</v>
       </c>
       <c r="L372" t="n">
         <v>3231.5</v>
@@ -19251,7 +19273,7 @@
         <v>2386</v>
       </c>
       <c r="K373" t="n">
-        <v>46.83544303797468</v>
+        <v>27.58620689655172</v>
       </c>
       <c r="L373" t="n">
         <v>3234.4</v>
@@ -19302,7 +19324,7 @@
         <v>2387</v>
       </c>
       <c r="K374" t="n">
-        <v>39.1304347826087</v>
+        <v>38.18181818181819</v>
       </c>
       <c r="L374" t="n">
         <v>3236.1</v>
@@ -19353,7 +19375,7 @@
         <v>2393</v>
       </c>
       <c r="K375" t="n">
-        <v>40.42553191489361</v>
+        <v>66.0377358490566</v>
       </c>
       <c r="L375" t="n">
         <v>3238.8</v>
@@ -19404,7 +19426,7 @@
         <v>2399</v>
       </c>
       <c r="K376" t="n">
-        <v>46.85314685314685</v>
+        <v>75.43859649122807</v>
       </c>
       <c r="L376" t="n">
         <v>3242.9</v>
@@ -19455,7 +19477,7 @@
         <v>2406</v>
       </c>
       <c r="K377" t="n">
-        <v>44.92753623188405</v>
+        <v>83.87096774193549</v>
       </c>
       <c r="L377" t="n">
         <v>3247.9</v>
@@ -19506,7 +19528,7 @@
         <v>2415</v>
       </c>
       <c r="K378" t="n">
-        <v>44.92753623188405</v>
+        <v>60.56338028169014</v>
       </c>
       <c r="L378" t="n">
         <v>3252.2</v>
@@ -19557,7 +19579,7 @@
         <v>2415</v>
       </c>
       <c r="K379" t="n">
-        <v>48.14814814814815</v>
+        <v>59.42028985507246</v>
       </c>
       <c r="L379" t="n">
         <v>3256.5</v>
@@ -19608,7 +19630,7 @@
         <v>2420</v>
       </c>
       <c r="K380" t="n">
-        <v>38.46153846153847</v>
+        <v>59.42028985507246</v>
       </c>
       <c r="L380" t="n">
         <v>3260.1</v>
@@ -19659,7 +19681,7 @@
         <v>2443</v>
       </c>
       <c r="K381" t="n">
-        <v>52.70270270270269</v>
+        <v>65</v>
       </c>
       <c r="L381" t="n">
         <v>3266.5</v>
@@ -19710,7 +19732,7 @@
         <v>2455</v>
       </c>
       <c r="K382" t="n">
-        <v>52.05479452054794</v>
+        <v>59.42028985507246</v>
       </c>
       <c r="L382" t="n">
         <v>3272.9</v>
@@ -19761,7 +19783,7 @@
         <v>2464</v>
       </c>
       <c r="K383" t="n">
-        <v>53.02013422818792</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L383" t="n">
         <v>3277.9</v>
@@ -19812,7 +19834,7 @@
         <v>2466</v>
       </c>
       <c r="K384" t="n">
-        <v>46.3768115942029</v>
+        <v>56.16438356164384</v>
       </c>
       <c r="L384" t="n">
         <v>3282.6</v>
@@ -19863,7 +19885,7 @@
         <v>2473</v>
       </c>
       <c r="K385" t="n">
-        <v>43.26241134751773</v>
+        <v>37.83783783783784</v>
       </c>
       <c r="L385" t="n">
         <v>3286</v>
@@ -19914,7 +19936,7 @@
         <v>2483</v>
       </c>
       <c r="K386" t="n">
-        <v>55.24475524475524</v>
+        <v>40.25974025974026</v>
       </c>
       <c r="L386" t="n">
         <v>3289.8</v>
@@ -19965,7 +19987,7 @@
         <v>2486</v>
       </c>
       <c r="K387" t="n">
-        <v>58.33333333333334</v>
+        <v>60.56338028169014</v>
       </c>
       <c r="L387" t="n">
         <v>3293.2</v>
@@ -20016,7 +20038,7 @@
         <v>2506</v>
       </c>
       <c r="K388" t="n">
-        <v>40.74074074074074</v>
+        <v>25.27472527472527</v>
       </c>
       <c r="L388" t="n">
         <v>3295.5</v>
@@ -20067,7 +20089,7 @@
         <v>2525</v>
       </c>
       <c r="K389" t="n">
-        <v>25.96685082872928</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L389" t="n">
         <v>3295.9</v>
@@ -20118,7 +20140,7 @@
         <v>2547</v>
       </c>
       <c r="K390" t="n">
-        <v>33.33333333333333</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L390" t="n">
         <v>3299</v>
@@ -20169,7 +20191,7 @@
         <v>2558</v>
       </c>
       <c r="K391" t="n">
-        <v>29.46859903381642</v>
+        <v>-14.5631067961165</v>
       </c>
       <c r="L391" t="n">
         <v>3298.7</v>
@@ -20220,7 +20242,7 @@
         <v>2563</v>
       </c>
       <c r="K392" t="n">
-        <v>22</v>
+        <v>-29.29292929292929</v>
       </c>
       <c r="L392" t="n">
         <v>3296.7</v>
@@ -20271,7 +20293,7 @@
         <v>2563</v>
       </c>
       <c r="K393" t="n">
-        <v>11.86440677966102</v>
+        <v>-27.83505154639175</v>
       </c>
       <c r="L393" t="n">
         <v>3293.8</v>
@@ -20322,7 +20344,7 @@
         <v>2564</v>
       </c>
       <c r="K394" t="n">
-        <v>11.86440677966102</v>
+        <v>-20.87912087912088</v>
       </c>
       <c r="L394" t="n">
         <v>3291.2</v>
@@ -20373,7 +20395,7 @@
         <v>2565</v>
       </c>
       <c r="K395" t="n">
-        <v>8.13953488372093</v>
+        <v>-36.58536585365854</v>
       </c>
       <c r="L395" t="n">
         <v>3289.2</v>
@@ -20424,7 +20446,7 @@
         <v>2584</v>
       </c>
       <c r="K396" t="n">
-        <v>-5.945945945945946</v>
+        <v>-53.06122448979592</v>
       </c>
       <c r="L396" t="n">
         <v>3284.3</v>
@@ -20475,7 +20497,7 @@
         <v>2611</v>
       </c>
       <c r="K397" t="n">
-        <v>-21.95121951219512</v>
+        <v>-56.19047619047619</v>
       </c>
       <c r="L397" t="n">
         <v>3276.4</v>
@@ -20526,7 +20548,7 @@
         <v>2632</v>
       </c>
       <c r="K398" t="n">
-        <v>-6.912442396313365</v>
+        <v>-17.75700934579439</v>
       </c>
       <c r="L398" t="n">
         <v>3272.6</v>
@@ -20577,7 +20599,7 @@
         <v>2633</v>
       </c>
       <c r="K399" t="n">
-        <v>-7.339449541284404</v>
+        <v>-48.83720930232558</v>
       </c>
       <c r="L399" t="n">
         <v>3270.6</v>
@@ -20628,7 +20650,7 @@
         <v>2637</v>
       </c>
       <c r="K400" t="n">
-        <v>-6.912442396313365</v>
+        <v>-44.30379746835442</v>
       </c>
       <c r="L400" t="n">
         <v>3266</v>
@@ -20679,7 +20701,7 @@
         <v>2641</v>
       </c>
       <c r="K401" t="n">
-        <v>-17.17171717171717</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L401" t="n">
         <v>3262.9</v>
@@ -20730,7 +20752,7 @@
         <v>2641</v>
       </c>
       <c r="K402" t="n">
-        <v>-24.73118279569892</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L402" t="n">
         <v>3260.3</v>
@@ -20781,7 +20803,7 @@
         <v>2645</v>
       </c>
       <c r="K403" t="n">
-        <v>-32.59668508287293</v>
+        <v>-38.2716049382716</v>
       </c>
       <c r="L403" t="n">
         <v>3257.3</v>
@@ -20832,7 +20854,7 @@
         <v>2653</v>
       </c>
       <c r="K404" t="n">
-        <v>-26.20320855614973</v>
+        <v>-25</v>
       </c>
       <c r="L404" t="n">
         <v>3255</v>
@@ -20883,7 +20905,7 @@
         <v>2655</v>
       </c>
       <c r="K405" t="n">
-        <v>-21.97802197802198</v>
+        <v>-1.408450704225352</v>
       </c>
       <c r="L405" t="n">
         <v>3253</v>
@@ -20934,7 +20956,7 @@
         <v>2656</v>
       </c>
       <c r="K406" t="n">
-        <v>-29.47976878612717</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L406" t="n">
         <v>3252.8</v>
@@ -20985,7 +21007,7 @@
         <v>2657</v>
       </c>
       <c r="K407" t="n">
-        <v>-30.99415204678363</v>
+        <v>20</v>
       </c>
       <c r="L407" t="n">
         <v>3255.4</v>
@@ -21036,7 +21058,7 @@
         <v>2665</v>
       </c>
       <c r="K408" t="n">
-        <v>-15.72327044025157</v>
+        <v>43.75</v>
       </c>
       <c r="L408" t="n">
         <v>3256.7</v>
@@ -21087,7 +21109,7 @@
         <v>2673</v>
       </c>
       <c r="K409" t="n">
-        <v>1.351351351351351</v>
+        <v>72.22222222222221</v>
       </c>
       <c r="L409" t="n">
         <v>3258.9</v>
@@ -21138,7 +21160,7 @@
         <v>2677</v>
       </c>
       <c r="K410" t="n">
-        <v>-18.46153846153846</v>
+        <v>50</v>
       </c>
       <c r="L410" t="n">
         <v>3261.1</v>
@@ -21189,7 +21211,7 @@
         <v>2684</v>
       </c>
       <c r="K411" t="n">
-        <v>-4.761904761904762</v>
+        <v>58.13953488372093</v>
       </c>
       <c r="L411" t="n">
         <v>3263.6</v>
@@ -21240,7 +21262,7 @@
         <v>2689</v>
       </c>
       <c r="K412" t="n">
-        <v>-4.761904761904762</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L412" t="n">
         <v>3265.6</v>
@@ -21291,7 +21313,7 @@
         <v>2699</v>
       </c>
       <c r="K413" t="n">
-        <v>-11.76470588235294</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L413" t="n">
         <v>3267</v>
@@ -21342,7 +21364,7 @@
         <v>2699</v>
       </c>
       <c r="K414" t="n">
-        <v>-12.59259259259259</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L414" t="n">
         <v>3267.6</v>
@@ -21393,7 +21415,7 @@
         <v>2706</v>
       </c>
       <c r="K415" t="n">
-        <v>-6.382978723404255</v>
+        <v>24</v>
       </c>
       <c r="L415" t="n">
         <v>3268.7</v>
@@ -21444,7 +21466,7 @@
         <v>2718</v>
       </c>
       <c r="K416" t="n">
-        <v>-1.492537313432836</v>
+        <v>-1.639344262295082</v>
       </c>
       <c r="L416" t="n">
         <v>3268.7</v>
@@ -21495,7 +21517,7 @@
         <v>2734</v>
       </c>
       <c r="K417" t="n">
-        <v>7.317073170731707</v>
+        <v>-36.23188405797102</v>
       </c>
       <c r="L417" t="n">
         <v>3267</v>
@@ -21546,7 +21568,7 @@
         <v>2735</v>
       </c>
       <c r="K418" t="n">
-        <v>-10.67961165048544</v>
+        <v>-51.61290322580645</v>
       </c>
       <c r="L418" t="n">
         <v>3264.6</v>
@@ -21597,7 +21619,7 @@
         <v>2737</v>
       </c>
       <c r="K419" t="n">
-        <v>-7.692307692307693</v>
+        <v>-43.33333333333334</v>
       </c>
       <c r="L419" t="n">
         <v>3261.6</v>
@@ -21648,7 +21670,7 @@
         <v>2747</v>
       </c>
       <c r="K420" t="n">
-        <v>5.454545454545454</v>
+        <v>-36.50793650793651</v>
       </c>
       <c r="L420" t="n">
         <v>3260</v>
@@ -21699,7 +21721,7 @@
         <v>2748</v>
       </c>
       <c r="K421" t="n">
-        <v>0.9345794392523363</v>
+        <v>-32.20338983050847</v>
       </c>
       <c r="L421" t="n">
         <v>3257.6</v>
@@ -21750,7 +21772,7 @@
         <v>2755</v>
       </c>
       <c r="K422" t="n">
-        <v>-5.263157894736842</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L422" t="n">
         <v>3255</v>
@@ -21801,7 +21823,7 @@
         <v>2755</v>
       </c>
       <c r="K423" t="n">
-        <v>-1.818181818181818</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L423" t="n">
         <v>3253.4</v>
@@ -21852,7 +21874,7 @@
         <v>2755</v>
       </c>
       <c r="K424" t="n">
-        <v>-9.803921568627452</v>
+        <v>-46.93877551020408</v>
       </c>
       <c r="L424" t="n">
         <v>3251.8</v>
@@ -21903,7 +21925,7 @@
         <v>2763</v>
       </c>
       <c r="K425" t="n">
-        <v>-18.51851851851852</v>
+        <v>-42.22222222222222</v>
       </c>
       <c r="L425" t="n">
         <v>3248.7</v>
@@ -21954,7 +21976,7 @@
         <v>2782</v>
       </c>
       <c r="K426" t="n">
-        <v>-30.15873015873016</v>
+        <v>-45.83333333333333</v>
       </c>
       <c r="L426" t="n">
         <v>3244.9</v>
@@ -22005,7 +22027,7 @@
         <v>2790</v>
       </c>
       <c r="K427" t="n">
-        <v>-23.30827067669173</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L427" t="n">
         <v>3243.5</v>
@@ -22056,7 +22078,7 @@
         <v>2790</v>
       </c>
       <c r="K428" t="n">
-        <v>-31.2</v>
+        <v>-32.0754716981132</v>
       </c>
       <c r="L428" t="n">
         <v>3242</v>
@@ -22107,7 +22129,7 @@
         <v>2791</v>
       </c>
       <c r="K429" t="n">
-        <v>-38.98305084745763</v>
+        <v>-59.09090909090909</v>
       </c>
       <c r="L429" t="n">
         <v>3240.4</v>
@@ -22158,7 +22180,7 @@
         <v>2797</v>
       </c>
       <c r="K430" t="n">
-        <v>-30</v>
+        <v>-38.77551020408163</v>
       </c>
       <c r="L430" t="n">
         <v>3238.4</v>
@@ -22209,7 +22231,7 @@
         <v>2803</v>
       </c>
       <c r="K431" t="n">
-        <v>-31.09243697478992</v>
+        <v>-12.5</v>
       </c>
       <c r="L431" t="n">
         <v>3237.1</v>
@@ -22260,7 +22282,7 @@
         <v>2806</v>
       </c>
       <c r="K432" t="n">
-        <v>-24.78632478632479</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L432" t="n">
         <v>3236.8</v>
@@ -22311,7 +22333,7 @@
         <v>2806</v>
       </c>
       <c r="K433" t="n">
-        <v>-17.75700934579439</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L433" t="n">
         <v>3236.5</v>
@@ -22362,7 +22384,7 @@
         <v>2807</v>
       </c>
       <c r="K434" t="n">
-        <v>-16.66666666666666</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="L434" t="n">
         <v>3236.3</v>
@@ -22413,7 +22435,7 @@
         <v>2813</v>
       </c>
       <c r="K435" t="n">
-        <v>-17.75700934579439</v>
+        <v>100</v>
       </c>
       <c r="L435" t="n">
         <v>3237.5</v>
@@ -22464,7 +22486,7 @@
         <v>2816</v>
       </c>
       <c r="K436" t="n">
-        <v>-4.081632653061225</v>
+        <v>100</v>
       </c>
       <c r="L436" t="n">
         <v>3240.9</v>
@@ -22515,7 +22537,7 @@
         <v>2817</v>
       </c>
       <c r="K437" t="n">
-        <v>15.66265060240964</v>
+        <v>100</v>
       </c>
       <c r="L437" t="n">
         <v>3243.6</v>
@@ -22566,7 +22588,7 @@
         <v>2819</v>
       </c>
       <c r="K438" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L438" t="n">
         <v>3246.5</v>
@@ -22617,7 +22639,7 @@
         <v>2820</v>
       </c>
       <c r="K439" t="n">
-        <v>13.25301204819277</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="L439" t="n">
         <v>3249.2</v>
@@ -22668,7 +22690,7 @@
         <v>2833</v>
       </c>
       <c r="K440" t="n">
-        <v>-13.95348837209302</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L440" t="n">
         <v>3250</v>
@@ -22719,7 +22741,7 @@
         <v>2841</v>
       </c>
       <c r="K441" t="n">
-        <v>-3.225806451612903</v>
+        <v>20</v>
       </c>
       <c r="L441" t="n">
         <v>3251</v>
@@ -22770,7 +22792,7 @@
         <v>2849</v>
       </c>
       <c r="K442" t="n">
-        <v>-4.25531914893617</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L442" t="n">
         <v>3250.9</v>
@@ -22821,7 +22843,7 @@
         <v>2858</v>
       </c>
       <c r="K443" t="n">
-        <v>-12.62135922330097</v>
+        <v>-21.56862745098039</v>
       </c>
       <c r="L443" t="n">
         <v>3249.9</v>
@@ -22872,7 +22894,7 @@
         <v>2858</v>
       </c>
       <c r="K444" t="n">
-        <v>-12.62135922330097</v>
+        <v>-37.77777777777778</v>
       </c>
       <c r="L444" t="n">
         <v>3248.8</v>
@@ -22923,7 +22945,7 @@
         <v>2869</v>
       </c>
       <c r="K445" t="n">
-        <v>5.660377358490567</v>
+        <v>-16.9811320754717</v>
       </c>
       <c r="L445" t="n">
         <v>3248.2</v>
@@ -22974,7 +22996,7 @@
         <v>2869</v>
       </c>
       <c r="K446" t="n">
-        <v>28.73563218390805</v>
+        <v>-19.23076923076923</v>
       </c>
       <c r="L446" t="n">
         <v>3247.3</v>
@@ -23025,7 +23047,7 @@
         <v>2872</v>
       </c>
       <c r="K447" t="n">
-        <v>24.39024390243902</v>
+        <v>-16.9811320754717</v>
       </c>
       <c r="L447" t="n">
         <v>3246.6</v>
@@ -23076,7 +23098,7 @@
         <v>2872</v>
       </c>
       <c r="K448" t="n">
-        <v>24.39024390243902</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L448" t="n">
         <v>3245.7</v>
@@ -23127,7 +23149,7 @@
         <v>2873</v>
       </c>
       <c r="K449" t="n">
-        <v>21.95121951219512</v>
+        <v>10</v>
       </c>
       <c r="L449" t="n">
         <v>3244.8</v>
@@ -23178,7 +23200,7 @@
         <v>2886</v>
       </c>
       <c r="K450" t="n">
-        <v>-1.123595505617978</v>
+        <v>-37.77777777777778</v>
       </c>
       <c r="L450" t="n">
         <v>3243.9</v>
@@ -23229,7 +23251,7 @@
         <v>2892</v>
       </c>
       <c r="K451" t="n">
-        <v>-14.60674157303371</v>
+        <v>-34.88372093023256</v>
       </c>
       <c r="L451" t="n">
         <v>3241.6</v>
@@ -23280,7 +23302,7 @@
         <v>2903</v>
       </c>
       <c r="K452" t="n">
-        <v>-27.83505154639175</v>
+        <v>-37.77777777777778</v>
       </c>
       <c r="L452" t="n">
         <v>3239</v>
@@ -23331,7 +23353,7 @@
         <v>2911</v>
       </c>
       <c r="K453" t="n">
-        <v>-33.33333333333333</v>
+        <v>-47.16981132075472</v>
       </c>
       <c r="L453" t="n">
         <v>3236.5</v>
@@ -23382,7 +23404,7 @@
         <v>2911</v>
       </c>
       <c r="K454" t="n">
-        <v>-34.61538461538461</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L454" t="n">
         <v>3234</v>
@@ -23433,7 +23455,7 @@
         <v>2915</v>
       </c>
       <c r="K455" t="n">
-        <v>-45.09803921568628</v>
+        <v>-86.95652173913044</v>
       </c>
       <c r="L455" t="n">
         <v>3230</v>
@@ -23484,7 +23506,7 @@
         <v>2947</v>
       </c>
       <c r="K456" t="n">
-        <v>-12.97709923664122</v>
+        <v>-14.66666666666667</v>
       </c>
       <c r="L456" t="n">
         <v>3229.2</v>
@@ -23535,7 +23557,7 @@
         <v>2953</v>
       </c>
       <c r="K457" t="n">
-        <v>-17.64705882352941</v>
+        <v>-20.98765432098765</v>
       </c>
       <c r="L457" t="n">
         <v>3227.5</v>
@@ -23586,7 +23608,7 @@
         <v>2957</v>
       </c>
       <c r="K458" t="n">
-        <v>-15.94202898550724</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L458" t="n">
         <v>3226.2</v>
@@ -23637,7 +23659,7 @@
         <v>2968</v>
       </c>
       <c r="K459" t="n">
-        <v>-6.756756756756757</v>
+        <v>14.63414634146341</v>
       </c>
       <c r="L459" t="n">
         <v>3226.1</v>
@@ -23688,7 +23710,7 @@
         <v>2970</v>
       </c>
       <c r="K460" t="n">
-        <v>0.7299270072992701</v>
+        <v>20.51282051282051</v>
       </c>
       <c r="L460" t="n">
         <v>3227.1</v>
@@ -23739,7 +23761,7 @@
         <v>2970</v>
       </c>
       <c r="K461" t="n">
-        <v>-5.426356589147287</v>
+        <v>40.29850746268657</v>
       </c>
       <c r="L461" t="n">
         <v>3228.7</v>
@@ -23790,7 +23812,7 @@
         <v>2973</v>
       </c>
       <c r="K462" t="n">
-        <v>3.225806451612903</v>
+        <v>61.29032258064516</v>
       </c>
       <c r="L462" t="n">
         <v>3231.7</v>
@@ -23841,7 +23863,7 @@
         <v>2983</v>
       </c>
       <c r="K463" t="n">
-        <v>18.4</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L463" t="n">
         <v>3236.5</v>
@@ -23892,7 +23914,7 @@
         <v>3011</v>
       </c>
       <c r="K464" t="n">
-        <v>-3.267973856209151</v>
+        <v>25</v>
       </c>
       <c r="L464" t="n">
         <v>3238.5</v>
@@ -23943,7 +23965,7 @@
         <v>3029</v>
       </c>
       <c r="K465" t="n">
-        <v>-21.25</v>
+        <v>-31.70731707317073</v>
       </c>
       <c r="L465" t="n">
         <v>3239.1</v>
@@ -23994,7 +24016,7 @@
         <v>3032</v>
       </c>
       <c r="K466" t="n">
-        <v>-19.01840490797546</v>
+        <v>-21.51898734177215</v>
       </c>
       <c r="L466" t="n">
         <v>3236.8</v>
@@ -24045,7 +24067,7 @@
         <v>3052</v>
       </c>
       <c r="K467" t="n">
-        <v>-30</v>
+        <v>-43.15789473684211</v>
       </c>
       <c r="L467" t="n">
         <v>3233.1</v>
@@ -24096,7 +24118,7 @@
         <v>3052</v>
       </c>
       <c r="K468" t="n">
-        <v>-30</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L468" t="n">
         <v>3229</v>
@@ -24147,7 +24169,7 @@
         <v>3054</v>
       </c>
       <c r="K469" t="n">
-        <v>-28.1767955801105</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L469" t="n">
         <v>3224</v>
@@ -24198,7 +24220,7 @@
         <v>3074</v>
       </c>
       <c r="K470" t="n">
-        <v>-9.574468085106384</v>
+        <v>-26.92307692307692</v>
       </c>
       <c r="L470" t="n">
         <v>3221.2</v>
@@ -24249,7 +24271,7 @@
         <v>3092</v>
       </c>
       <c r="K471" t="n">
-        <v>-15</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L471" t="n">
         <v>3216.6</v>
@@ -24300,7 +24322,7 @@
         <v>3099</v>
       </c>
       <c r="K472" t="n">
-        <v>-13.26530612244898</v>
+        <v>-56.89655172413794</v>
       </c>
       <c r="L472" t="n">
         <v>3211</v>
@@ -24351,7 +24373,7 @@
         <v>3100</v>
       </c>
       <c r="K473" t="n">
-        <v>-8.994708994708994</v>
+        <v>-41.57303370786517</v>
       </c>
       <c r="L473" t="n">
         <v>3204.5</v>
@@ -24402,7 +24424,7 @@
         <v>3104</v>
       </c>
       <c r="K474" t="n">
-        <v>-6.735751295336788</v>
+        <v>-20</v>
       </c>
       <c r="L474" t="n">
         <v>3201.2</v>
@@ -24453,7 +24475,7 @@
         <v>3109</v>
       </c>
       <c r="K475" t="n">
-        <v>-2.061855670103093</v>
+        <v>-16.88311688311688</v>
       </c>
       <c r="L475" t="n">
         <v>3200.2</v>
@@ -24504,7 +24526,7 @@
         <v>3138</v>
       </c>
       <c r="K476" t="n">
-        <v>-34.03141361256544</v>
+        <v>-25.58139534883721</v>
       </c>
       <c r="L476" t="n">
         <v>3196</v>
@@ -24555,7 +24577,7 @@
         <v>3150</v>
       </c>
       <c r="K477" t="n">
-        <v>-36.04060913705584</v>
+        <v>-34.69387755102041</v>
       </c>
       <c r="L477" t="n">
         <v>3192.6</v>
@@ -24606,7 +24628,7 @@
         <v>3163</v>
       </c>
       <c r="K478" t="n">
-        <v>-30.09708737864078</v>
+        <v>-21.10091743119266</v>
       </c>
       <c r="L478" t="n">
         <v>3190.5</v>
@@ -24657,7 +24679,7 @@
         <v>3180</v>
       </c>
       <c r="K479" t="n">
-        <v>-26.41509433962264</v>
+        <v>-24.52830188679245</v>
       </c>
       <c r="L479" t="n">
         <v>3189.9</v>
@@ -24708,7 +24730,7 @@
         <v>3181</v>
       </c>
       <c r="K480" t="n">
-        <v>-26.06635071090048</v>
+        <v>-10.1123595505618</v>
       </c>
       <c r="L480" t="n">
         <v>3187.2</v>
@@ -24759,7 +24781,7 @@
         <v>3185</v>
       </c>
       <c r="K481" t="n">
-        <v>-27.44186046511628</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L481" t="n">
         <v>3185.9</v>
@@ -24810,7 +24832,7 @@
         <v>3186</v>
       </c>
       <c r="K482" t="n">
-        <v>-28.63849765258216</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L482" t="n">
         <v>3185.4</v>
@@ -24861,7 +24883,7 @@
         <v>3188</v>
       </c>
       <c r="K483" t="n">
-        <v>-33.65853658536586</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L483" t="n">
         <v>3185</v>
@@ -24912,7 +24934,7 @@
         <v>3189</v>
       </c>
       <c r="K484" t="n">
-        <v>-23.59550561797753</v>
+        <v>-17.5</v>
       </c>
       <c r="L484" t="n">
         <v>3184.1</v>
@@ -24963,7 +24985,7 @@
         <v>3202</v>
       </c>
       <c r="K485" t="n">
-        <v>-21.38728323699422</v>
+        <v>3.125</v>
       </c>
       <c r="L485" t="n">
         <v>3181.4</v>
@@ -25014,7 +25036,7 @@
         <v>3223</v>
       </c>
       <c r="K486" t="n">
-        <v>-31.93717277486911</v>
+        <v>-9.58904109589041</v>
       </c>
       <c r="L486" t="n">
         <v>3179.5</v>
@@ -25065,7 +25087,7 @@
         <v>3249</v>
       </c>
       <c r="K487" t="n">
-        <v>-34.01015228426396</v>
+        <v>-53.48837209302325</v>
       </c>
       <c r="L487" t="n">
         <v>3176.2</v>
@@ -25116,7 +25138,7 @@
         <v>3253</v>
       </c>
       <c r="K488" t="n">
-        <v>-31.34328358208955</v>
+        <v>-80.82191780821918</v>
       </c>
       <c r="L488" t="n">
         <v>3172</v>
@@ -25167,7 +25189,7 @@
         <v>3275</v>
       </c>
       <c r="K489" t="n">
-        <v>-39.36651583710407</v>
+        <v>-85.1063829787234</v>
       </c>
       <c r="L489" t="n">
         <v>3163.9</v>
@@ -25218,7 +25240,7 @@
         <v>3288</v>
       </c>
       <c r="K490" t="n">
-        <v>-43.92523364485982</v>
+        <v>-61.16504854368932</v>
       </c>
       <c r="L490" t="n">
         <v>3157.2</v>
@@ -25269,7 +25291,7 @@
         <v>3292</v>
       </c>
       <c r="K491" t="n">
-        <v>-40</v>
+        <v>-64.15094339622641</v>
       </c>
       <c r="L491" t="n">
         <v>3150.5</v>
@@ -25320,7 +25342,7 @@
         <v>3331</v>
       </c>
       <c r="K492" t="n">
-        <v>-14.6551724137931</v>
+        <v>-21.67832167832168</v>
       </c>
       <c r="L492" t="n">
         <v>3147.6</v>
@@ -25371,7 +25393,7 @@
         <v>3334</v>
       </c>
       <c r="K493" t="n">
-        <v>-13.67521367521368</v>
+        <v>-18.62068965517242</v>
       </c>
       <c r="L493" t="n">
         <v>3144.8</v>
@@ -25422,7 +25444,7 @@
         <v>3337</v>
       </c>
       <c r="K494" t="n">
-        <v>-16.7381974248927</v>
+        <v>-12.59259259259259</v>
       </c>
       <c r="L494" t="n">
         <v>3141.8</v>
@@ -25473,7 +25495,7 @@
         <v>3337</v>
       </c>
       <c r="K495" t="n">
-        <v>-19.29824561403509</v>
+        <v>3.508771929824561</v>
       </c>
       <c r="L495" t="n">
         <v>3140.1</v>
@@ -25524,7 +25546,7 @@
         <v>3338</v>
       </c>
       <c r="K496" t="n">
-        <v>-7.000000000000001</v>
+        <v>34.83146067415731</v>
       </c>
       <c r="L496" t="n">
         <v>3140.6</v>
@@ -25575,7 +25597,7 @@
         <v>3346</v>
       </c>
       <c r="K497" t="n">
-        <v>-5.102040816326531</v>
+        <v>20.43010752688172</v>
       </c>
       <c r="L497" t="n">
         <v>3142.9</v>
@@ -25626,7 +25648,7 @@
         <v>3351</v>
       </c>
       <c r="K498" t="n">
-        <v>-9.574468085106384</v>
+        <v>60.52631578947368</v>
       </c>
       <c r="L498" t="n">
         <v>3145.3</v>
@@ -25677,7 +25699,7 @@
         <v>3356</v>
       </c>
       <c r="K499" t="n">
-        <v>-17.04545454545454</v>
+        <v>55.88235294117647</v>
       </c>
       <c r="L499" t="n">
         <v>3150.4</v>
@@ -25728,7 +25750,7 @@
         <v>3384</v>
       </c>
       <c r="K500" t="n">
-        <v>-0.4926108374384237</v>
+        <v>76.08695652173914</v>
       </c>
       <c r="L500" t="n">
         <v>3157</v>
@@ -25779,7 +25801,7 @@
         <v>3406</v>
       </c>
       <c r="K501" t="n">
-        <v>-8.597285067873303</v>
+        <v>12</v>
       </c>
       <c r="L501" t="n">
         <v>3161.8</v>
@@ -25830,7 +25852,7 @@
         <v>3408</v>
       </c>
       <c r="K502" t="n">
-        <v>-8.108108108108109</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="L502" t="n">
         <v>3162.9</v>
@@ -25881,7 +25903,7 @@
         <v>3416</v>
       </c>
       <c r="K503" t="n">
-        <v>-5.263157894736842</v>
+        <v>24.05063291139241</v>
       </c>
       <c r="L503" t="n">
         <v>3164.5</v>
@@ -25932,7 +25954,7 @@
         <v>3416</v>
       </c>
       <c r="K504" t="n">
-        <v>-4.845814977973569</v>
+        <v>24.05063291139241</v>
       </c>
       <c r="L504" t="n">
         <v>3166.4</v>
@@ -25983,7 +26005,7 @@
         <v>3416</v>
       </c>
       <c r="K505" t="n">
-        <v>0.9345794392523363</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L505" t="n">
         <v>3168.3</v>
@@ -26034,7 +26056,7 @@
         <v>3445</v>
       </c>
       <c r="K506" t="n">
-        <v>-2.702702702702703</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L506" t="n">
         <v>3167.2</v>
@@ -26085,7 +26107,7 @@
         <v>3461</v>
       </c>
       <c r="K507" t="n">
-        <v>16.9811320754717</v>
+        <v>7.272727272727272</v>
       </c>
       <c r="L507" t="n">
         <v>3168.5</v>
@@ -26136,7 +26158,7 @@
         <v>3490</v>
       </c>
       <c r="K508" t="n">
-        <v>1.265822784810127</v>
+        <v>-19.40298507462687</v>
       </c>
       <c r="L508" t="n">
         <v>3166.4</v>
@@ -26187,7 +26209,7 @@
         <v>3494</v>
       </c>
       <c r="K509" t="n">
-        <v>13.24200913242009</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L509" t="n">
         <v>3164.2</v>
@@ -26238,7 +26260,7 @@
         <v>3507</v>
       </c>
       <c r="K510" t="n">
-        <v>13.24200913242009</v>
+        <v>-14.85148514851485</v>
       </c>
       <c r="L510" t="n">
         <v>3160.5</v>
@@ -26289,7 +26311,7 @@
         <v>3510</v>
       </c>
       <c r="K511" t="n">
-        <v>13.76146788990826</v>
+        <v>-19.6078431372549</v>
       </c>
       <c r="L511" t="n">
         <v>3158.7</v>
@@ -26340,7 +26362,7 @@
         <v>3519</v>
       </c>
       <c r="K512" t="n">
-        <v>-9.574468085106384</v>
+        <v>-35.92233009708738</v>
       </c>
       <c r="L512" t="n">
         <v>3155.8</v>
@@ -26391,7 +26413,7 @@
         <v>3524</v>
       </c>
       <c r="K513" t="n">
-        <v>-13.68421052631579</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L513" t="n">
         <v>3151.6</v>
@@ -26442,7 +26464,7 @@
         <v>3529</v>
       </c>
       <c r="K514" t="n">
-        <v>-9.375</v>
+        <v>-32.74336283185841</v>
       </c>
       <c r="L514" t="n">
         <v>3147.9</v>
@@ -26493,7 +26515,7 @@
         <v>3559</v>
       </c>
       <c r="K515" t="n">
-        <v>-21.62162162162162</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L515" t="n">
         <v>3141.2</v>
@@ -26544,7 +26566,7 @@
         <v>3569</v>
       </c>
       <c r="K516" t="n">
-        <v>-25.54112554112554</v>
+        <v>-59.25925925925925</v>
       </c>
       <c r="L516" t="n">
         <v>3136.4</v>
@@ -26595,7 +26617,7 @@
         <v>3578</v>
       </c>
       <c r="K517" t="n">
-        <v>-25.86206896551724</v>
+        <v>-50</v>
       </c>
       <c r="L517" t="n">
         <v>3129.1</v>
@@ -26646,7 +26668,7 @@
         <v>3606</v>
       </c>
       <c r="K518" t="n">
-        <v>-36.47058823529412</v>
+        <v>-67.85714285714286</v>
       </c>
       <c r="L518" t="n">
         <v>3121.9</v>
@@ -26697,7 +26719,7 @@
         <v>3616</v>
       </c>
       <c r="K519" t="n">
-        <v>-33.84615384615385</v>
+        <v>-72.47706422018348</v>
       </c>
       <c r="L519" t="n">
         <v>3115.3</v>
@@ -26748,7 +26770,7 @@
         <v>3653</v>
       </c>
       <c r="K520" t="n">
-        <v>-29.36802973977695</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L520" t="n">
         <v>3111.1</v>
@@ -26799,7 +26821,7 @@
         <v>3662</v>
       </c>
       <c r="K521" t="n">
-        <v>-18.75</v>
+        <v>-14.68531468531468</v>
       </c>
       <c r="L521" t="n">
         <v>3108.1</v>
@@ -26850,7 +26872,7 @@
         <v>3665</v>
       </c>
       <c r="K522" t="n">
-        <v>-20.62256809338521</v>
+        <v>-13.47517730496454</v>
       </c>
       <c r="L522" t="n">
         <v>3105.7</v>
@@ -26901,7 +26923,7 @@
         <v>3678</v>
       </c>
       <c r="K523" t="n">
-        <v>-28.24427480916031</v>
+        <v>-24.83221476510067</v>
       </c>
       <c r="L523" t="n">
         <v>3102.5</v>
@@ -26952,7 +26974,7 @@
         <v>3681</v>
       </c>
       <c r="K524" t="n">
-        <v>-29.0566037735849</v>
+        <v>-8.196721311475409</v>
       </c>
       <c r="L524" t="n">
         <v>3098.5</v>
@@ -27003,7 +27025,7 @@
         <v>3681</v>
       </c>
       <c r="K525" t="n">
-        <v>-29.0566037735849</v>
+        <v>0</v>
       </c>
       <c r="L525" t="n">
         <v>3097.5</v>
@@ -27054,7 +27076,7 @@
         <v>3685</v>
       </c>
       <c r="K526" t="n">
-        <v>-18.33333333333333</v>
+        <v>12.14953271028037</v>
       </c>
       <c r="L526" t="n">
         <v>3097.9</v>
@@ -27105,7 +27127,7 @@
         <v>3690</v>
       </c>
       <c r="K527" t="n">
-        <v>-24.0174672489083</v>
+        <v>54.76190476190477</v>
       </c>
       <c r="L527" t="n">
         <v>3099.7</v>
@@ -27156,7 +27178,7 @@
         <v>3695</v>
       </c>
       <c r="K528" t="n">
-        <v>-15.12195121951219</v>
+        <v>39.24050632911392</v>
       </c>
       <c r="L528" t="n">
         <v>3103.8</v>
@@ -27207,7 +27229,7 @@
         <v>3700</v>
       </c>
       <c r="K529" t="n">
-        <v>-14.5631067961165</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L529" t="n">
         <v>3107.4</v>
@@ -27258,7 +27280,7 @@
         <v>3702</v>
       </c>
       <c r="K530" t="n">
-        <v>-21.02564102564103</v>
+        <v>-20</v>
       </c>
       <c r="L530" t="n">
         <v>3107.5</v>
@@ -27309,7 +27331,7 @@
         <v>3705</v>
       </c>
       <c r="K531" t="n">
-        <v>-21.02564102564103</v>
+        <v>-20</v>
       </c>
       <c r="L531" t="n">
         <v>3106.4</v>
@@ -27360,7 +27382,7 @@
         <v>3713</v>
       </c>
       <c r="K532" t="n">
-        <v>-12.37113402061856</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="L532" t="n">
         <v>3106.4</v>
@@ -27411,7 +27433,7 @@
         <v>3722</v>
       </c>
       <c r="K533" t="n">
-        <v>-14.14141414141414</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="L533" t="n">
         <v>3106.8</v>
@@ -27462,7 +27484,7 @@
         <v>3723</v>
       </c>
       <c r="K534" t="n">
-        <v>-16.49484536082474</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="L534" t="n">
         <v>3107.6</v>
@@ -27513,7 +27535,7 @@
         <v>3728</v>
       </c>
       <c r="K535" t="n">
-        <v>-4.142011834319527</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L535" t="n">
         <v>3107.9</v>
@@ -27564,7 +27586,7 @@
         <v>3766</v>
       </c>
       <c r="K536" t="n">
-        <v>-17.76649746192894</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L536" t="n">
         <v>3104</v>
@@ -27615,7 +27637,7 @@
         <v>3804</v>
       </c>
       <c r="K537" t="n">
-        <v>5.309734513274337</v>
+        <v>-0.9174311926605505</v>
       </c>
       <c r="L537" t="n">
         <v>3103.4</v>
@@ -27666,7 +27688,7 @@
         <v>3806</v>
       </c>
       <c r="K538" t="n">
-        <v>19</v>
+        <v>-7.547169811320755</v>
       </c>
       <c r="L538" t="n">
         <v>3103.1</v>
@@ -27717,7 +27739,7 @@
         <v>3819</v>
       </c>
       <c r="K539" t="n">
-        <v>7.389162561576355</v>
+        <v>-19.65811965811966</v>
       </c>
       <c r="L539" t="n">
         <v>3101</v>
@@ -27768,7 +27790,7 @@
         <v>3837</v>
       </c>
       <c r="K540" t="n">
-        <v>-21.73913043478261</v>
+        <v>-28.78787878787879</v>
       </c>
       <c r="L540" t="n">
         <v>3096.9</v>
@@ -27819,7 +27841,7 @@
         <v>3848</v>
       </c>
       <c r="K541" t="n">
-        <v>-32.25806451612903</v>
+        <v>-42.22222222222222</v>
       </c>
       <c r="L541" t="n">
         <v>3092</v>
@@ -27870,7 +27892,7 @@
         <v>3851</v>
       </c>
       <c r="K542" t="n">
-        <v>-29.03225806451613</v>
+        <v>-34.88372093023256</v>
       </c>
       <c r="L542" t="n">
         <v>3086.6</v>
@@ -27921,7 +27943,7 @@
         <v>3862</v>
       </c>
       <c r="K543" t="n">
-        <v>-16.30434782608696</v>
+        <v>-25.17985611510791</v>
       </c>
       <c r="L543" t="n">
         <v>3083.2</v>
@@ -27972,7 +27994,7 @@
         <v>3866</v>
       </c>
       <c r="K544" t="n">
-        <v>-12.43243243243243</v>
+        <v>-18.84057971014493</v>
       </c>
       <c r="L544" t="n">
         <v>3080.1</v>
@@ -28023,7 +28045,7 @@
         <v>3874</v>
       </c>
       <c r="K545" t="n">
-        <v>-7.772020725388601</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L545" t="n">
         <v>3078.3</v>
@@ -28074,7 +28096,7 @@
         <v>3875</v>
       </c>
       <c r="K546" t="n">
-        <v>-9.473684210526317</v>
+        <v>-23.94366197183098</v>
       </c>
       <c r="L546" t="n">
         <v>3080.4</v>
@@ -28125,7 +28147,7 @@
         <v>3884</v>
       </c>
       <c r="K547" t="n">
-        <v>-16.49484536082474</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L547" t="n">
         <v>3077.8</v>
@@ -28176,7 +28198,7 @@
         <v>3892</v>
       </c>
       <c r="K548" t="n">
-        <v>-9.644670050761421</v>
+        <v>-4.10958904109589</v>
       </c>
       <c r="L548" t="n">
         <v>3076.2</v>
@@ -28227,7 +28249,7 @@
         <v>3897</v>
       </c>
       <c r="K549" t="n">
-        <v>-9.644670050761421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L549" t="n">
         <v>3076.4</v>
@@ -28278,7 +28300,7 @@
         <v>3898</v>
       </c>
       <c r="K550" t="n">
-        <v>-10.20408163265306</v>
+        <v>64</v>
       </c>
       <c r="L550" t="n">
         <v>3078.5</v>
@@ -28329,7 +28351,7 @@
         <v>3898</v>
       </c>
       <c r="K551" t="n">
-        <v>-8.808290155440414</v>
+        <v>61.70212765957447</v>
       </c>
       <c r="L551" t="n">
         <v>3081.7</v>
@@ -28380,7 +28402,7 @@
         <v>3910</v>
       </c>
       <c r="K552" t="n">
-        <v>-6.598984771573605</v>
+        <v>62.5</v>
       </c>
       <c r="L552" t="n">
         <v>3085.8</v>
@@ -28431,7 +28453,7 @@
         <v>3930</v>
       </c>
       <c r="K553" t="n">
-        <v>7.692307692307693</v>
+        <v>71.875</v>
       </c>
       <c r="L553" t="n">
         <v>3090.8</v>
@@ -28482,7 +28504,7 @@
         <v>3945</v>
       </c>
       <c r="K554" t="n">
-        <v>13.51351351351351</v>
+        <v>74.64788732394366</v>
       </c>
       <c r="L554" t="n">
         <v>3096.9</v>
@@ -28533,7 +28555,7 @@
         <v>3947</v>
       </c>
       <c r="K555" t="n">
-        <v>15.06849315068493</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="L555" t="n">
         <v>3102</v>
@@ -28584,7 +28606,7 @@
         <v>3960</v>
       </c>
       <c r="K556" t="n">
-        <v>29.89690721649485</v>
+        <v>60.52631578947368</v>
       </c>
       <c r="L556" t="n">
         <v>3105.7</v>
@@ -28635,7 +28657,7 @@
         <v>3977</v>
       </c>
       <c r="K557" t="n">
-        <v>21.38728323699422</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L557" t="n">
         <v>3112</v>
@@ -28686,7 +28708,7 @@
         <v>3980</v>
       </c>
       <c r="K558" t="n">
-        <v>20.68965517241379</v>
+        <v>56.62650602409639</v>
       </c>
       <c r="L558" t="n">
         <v>3117.2</v>
@@ -28737,7 +28759,7 @@
         <v>3980</v>
       </c>
       <c r="K559" t="n">
-        <v>30.43478260869566</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="L559" t="n">
         <v>3121.9</v>
@@ -28788,7 +28810,7 @@
         <v>3981</v>
       </c>
       <c r="K560" t="n">
-        <v>47.22222222222222</v>
+        <v>56.62650602409639</v>
       </c>
       <c r="L560" t="n">
         <v>3126.6</v>
@@ -28839,7 +28861,7 @@
         <v>3984</v>
       </c>
       <c r="K561" t="n">
-        <v>60.29411764705882</v>
+        <v>51.35135135135135</v>
       </c>
       <c r="L561" t="n">
         <v>3131.6</v>
@@ -28890,7 +28912,7 @@
         <v>3985</v>
       </c>
       <c r="K562" t="n">
-        <v>58.2089552238806</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="L562" t="n">
         <v>3135.3</v>
@@ -28941,7 +28963,7 @@
         <v>3986</v>
       </c>
       <c r="K563" t="n">
-        <v>53.2258064516129</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L563" t="n">
         <v>3136.9</v>
@@ -28992,7 +29014,7 @@
         <v>3987</v>
       </c>
       <c r="K564" t="n">
-        <v>50.41322314049587</v>
+        <v>5</v>
       </c>
       <c r="L564" t="n">
         <v>3136.9</v>
@@ -29043,7 +29065,7 @@
         <v>3995</v>
       </c>
       <c r="K565" t="n">
-        <v>50.41322314049587</v>
+        <v>65.71428571428571</v>
       </c>
       <c r="L565" t="n">
         <v>3137.9</v>
@@ -29094,7 +29116,7 @@
         <v>4005</v>
       </c>
       <c r="K566" t="n">
-        <v>38.46153846153847</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L566" t="n">
         <v>3139.2</v>
@@ -29145,7 +29167,7 @@
         <v>4006</v>
       </c>
       <c r="K567" t="n">
-        <v>47.54098360655738</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L567" t="n">
         <v>3138.7</v>
@@ -29196,7 +29218,7 @@
         <v>4007</v>
       </c>
       <c r="K568" t="n">
-        <v>42.60869565217391</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L568" t="n">
         <v>3138.4</v>
@@ -29247,7 +29269,7 @@
         <v>4010</v>
       </c>
       <c r="K569" t="n">
-        <v>36.28318584070797</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L569" t="n">
         <v>3137.8</v>
@@ -29298,7 +29320,7 @@
         <v>4010</v>
       </c>
       <c r="K570" t="n">
-        <v>35.71428571428572</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L570" t="n">
         <v>3137.1</v>
@@ -29349,7 +29371,7 @@
         <v>4011</v>
       </c>
       <c r="K571" t="n">
-        <v>34.51327433628318</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L571" t="n">
         <v>3136</v>
@@ -29400,7 +29422,7 @@
         <v>4013</v>
       </c>
       <c r="K572" t="n">
-        <v>24.27184466019418</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L572" t="n">
         <v>3134.8</v>
@@ -29451,7 +29473,7 @@
         <v>4014</v>
       </c>
       <c r="K573" t="n">
-        <v>4.761904761904762</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L573" t="n">
         <v>3133.6</v>
@@ -29502,7 +29524,7 @@
         <v>4014</v>
       </c>
       <c r="K574" t="n">
-        <v>-15.94202898550724</v>
+        <v>-100</v>
       </c>
       <c r="L574" t="n">
         <v>3132.5</v>
@@ -29553,7 +29575,7 @@
         <v>4015</v>
       </c>
       <c r="K575" t="n">
-        <v>-14.70588235294118</v>
+        <v>-100</v>
       </c>
       <c r="L575" t="n">
         <v>3130.5</v>
@@ -29604,7 +29626,7 @@
         <v>4015</v>
       </c>
       <c r="K576" t="n">
-        <v>5.454545454545454</v>
+        <v>-100</v>
       </c>
       <c r="L576" t="n">
         <v>3129.5</v>
@@ -29655,7 +29677,7 @@
         <v>4017</v>
       </c>
       <c r="K577" t="n">
-        <v>-40</v>
+        <v>-100</v>
       </c>
       <c r="L577" t="n">
         <v>3128.4</v>
@@ -29706,7 +29728,7 @@
         <v>4019</v>
       </c>
       <c r="K578" t="n">
-        <v>-38.46153846153847</v>
+        <v>-100</v>
       </c>
       <c r="L578" t="n">
         <v>3127.2</v>
@@ -29757,7 +29779,7 @@
         <v>4041</v>
       </c>
       <c r="K579" t="n">
-        <v>-60.65573770491803</v>
+        <v>-100</v>
       </c>
       <c r="L579" t="n">
         <v>3124.1</v>
@@ -29808,7 +29830,7 @@
         <v>4045</v>
       </c>
       <c r="K580" t="n">
-        <v>-65.625</v>
+        <v>-100</v>
       </c>
       <c r="L580" t="n">
         <v>3120.6</v>
@@ -29859,7 +29881,7 @@
         <v>4047</v>
       </c>
       <c r="K581" t="n">
-        <v>-74.60317460317461</v>
+        <v>-100</v>
       </c>
       <c r="L581" t="n">
         <v>3117</v>
@@ -29910,7 +29932,7 @@
         <v>4048</v>
       </c>
       <c r="K582" t="n">
-        <v>-74.60317460317461</v>
+        <v>-100</v>
       </c>
       <c r="L582" t="n">
         <v>3113.5</v>
@@ -29961,7 +29983,7 @@
         <v>4048</v>
       </c>
       <c r="K583" t="n">
-        <v>-74.19354838709677</v>
+        <v>-100</v>
       </c>
       <c r="L583" t="n">
         <v>3110.1</v>
@@ -30012,7 +30034,7 @@
         <v>4049</v>
       </c>
       <c r="K584" t="n">
-        <v>-74.19354838709677</v>
+        <v>-100</v>
       </c>
       <c r="L584" t="n">
         <v>3106.6</v>
@@ -30114,7 +30136,7 @@
         <v>4070</v>
       </c>
       <c r="K586" t="n">
-        <v>-38.46153846153847</v>
+        <v>-24.52830188679245</v>
       </c>
       <c r="L586" t="n">
         <v>3101.6</v>
@@ -30165,7 +30187,7 @@
         <v>4082</v>
       </c>
       <c r="K587" t="n">
-        <v>-47.36842105263158</v>
+        <v>-36.50793650793651</v>
       </c>
       <c r="L587" t="n">
         <v>3099.1</v>
@@ -30216,7 +30238,7 @@
         <v>4082</v>
       </c>
       <c r="K588" t="n">
-        <v>-46.66666666666666</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L588" t="n">
         <v>3096.8</v>
@@ -30267,7 +30289,7 @@
         <v>4082</v>
       </c>
       <c r="K589" t="n">
-        <v>-44.44444444444444</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L589" t="n">
         <v>3096.7</v>
@@ -30318,7 +30340,7 @@
         <v>4101</v>
       </c>
       <c r="K590" t="n">
-        <v>-14.28571428571428</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L590" t="n">
         <v>3098.9</v>
@@ -30369,7 +30391,7 @@
         <v>4110</v>
       </c>
       <c r="K591" t="n">
-        <v>-3.03030303030303</v>
+        <v>54.83870967741935</v>
       </c>
       <c r="L591" t="n">
         <v>3102.2</v>
@@ -30420,7 +30442,7 @@
         <v>4111</v>
       </c>
       <c r="K592" t="n">
-        <v>-2.040816326530612</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L592" t="n">
         <v>3105.5</v>
@@ -30471,7 +30493,7 @@
         <v>4139</v>
       </c>
       <c r="K593" t="n">
-        <v>-23.2</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L593" t="n">
         <v>3106</v>
@@ -30522,7 +30544,7 @@
         <v>4140</v>
       </c>
       <c r="K594" t="n">
-        <v>-22.22222222222222</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="L594" t="n">
         <v>3106.7</v>
@@ -30573,7 +30595,7 @@
         <v>4149</v>
       </c>
       <c r="K595" t="n">
-        <v>-13.43283582089552</v>
+        <v>-3.79746835443038</v>
       </c>
       <c r="L595" t="n">
         <v>3108.4</v>
@@ -30624,7 +30646,7 @@
         <v>4150</v>
       </c>
       <c r="K596" t="n">
-        <v>-12.59259259259259</v>
+        <v>14.70588235294118</v>
       </c>
       <c r="L596" t="n">
         <v>3108.2</v>
@@ -30675,7 +30697,7 @@
         <v>4151</v>
       </c>
       <c r="K597" t="n">
-        <v>-10.44776119402985</v>
+        <v>15.94202898550724</v>
       </c>
       <c r="L597" t="n">
         <v>3109.3</v>
@@ -30726,7 +30748,7 @@
         <v>4151</v>
       </c>
       <c r="K598" t="n">
-        <v>-9.090909090909092</v>
+        <v>15.94202898550724</v>
       </c>
       <c r="L598" t="n">
         <v>3110.4</v>
@@ -30777,7 +30799,7 @@
         <v>4151</v>
       </c>
       <c r="K599" t="n">
-        <v>9.090909090909092</v>
+        <v>-16</v>
       </c>
       <c r="L599" t="n">
         <v>3111.5</v>
@@ -30828,7 +30850,7 @@
         <v>4151</v>
       </c>
       <c r="K600" t="n">
-        <v>13.20754716981132</v>
+        <v>-41.46341463414634</v>
       </c>
       <c r="L600" t="n">
         <v>3110.7</v>
@@ -30879,7 +30901,7 @@
         <v>4151</v>
       </c>
       <c r="K601" t="n">
-        <v>15.38461538461539</v>
+        <v>-40</v>
       </c>
       <c r="L601" t="n">
         <v>3109</v>
@@ -30930,7 +30952,7 @@
         <v>4155</v>
       </c>
       <c r="K602" t="n">
-        <v>12.14953271028037</v>
+        <v>50</v>
       </c>
       <c r="L602" t="n">
         <v>3107</v>
@@ -30981,7 +31003,7 @@
         <v>4155</v>
       </c>
       <c r="K603" t="n">
-        <v>12.14953271028037</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L603" t="n">
         <v>3107.8</v>
@@ -31032,7 +31054,7 @@
         <v>4160</v>
       </c>
       <c r="K604" t="n">
-        <v>8.108108108108109</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L604" t="n">
         <v>3108</v>
@@ -31083,7 +31105,7 @@
         <v>4166</v>
       </c>
       <c r="K605" t="n">
-        <v>3.448275862068965</v>
+        <v>-87.5</v>
       </c>
       <c r="L605" t="n">
         <v>3106.7</v>
@@ -31134,7 +31156,7 @@
         <v>4171</v>
       </c>
       <c r="K606" t="n">
-        <v>-20.79207920792079</v>
+        <v>-100</v>
       </c>
       <c r="L606" t="n">
         <v>3104.8</v>
@@ -31185,7 +31207,7 @@
         <v>4171</v>
       </c>
       <c r="K607" t="n">
-        <v>-10.1123595505618</v>
+        <v>-100</v>
       </c>
       <c r="L607" t="n">
         <v>3102.8</v>
@@ -31236,7 +31258,7 @@
         <v>4171</v>
       </c>
       <c r="K608" t="n">
-        <v>-10.1123595505618</v>
+        <v>-100</v>
       </c>
       <c r="L608" t="n">
         <v>3100.8</v>
@@ -31287,7 +31309,7 @@
         <v>4176</v>
       </c>
       <c r="K609" t="n">
-        <v>-4.25531914893617</v>
+        <v>-60</v>
       </c>
       <c r="L609" t="n">
         <v>3099.3</v>
@@ -31338,7 +31360,7 @@
         <v>4178</v>
       </c>
       <c r="K610" t="n">
-        <v>-27.27272727272727</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L610" t="n">
         <v>3098</v>
@@ -31389,7 +31411,7 @@
         <v>4189</v>
       </c>
       <c r="K611" t="n">
-        <v>-51.89873417721519</v>
+        <v>-58.82352941176471</v>
       </c>
       <c r="L611" t="n">
         <v>3095.6</v>
@@ -31440,7 +31462,7 @@
         <v>4207</v>
       </c>
       <c r="K612" t="n">
-        <v>-60.41666666666666</v>
+        <v>-73.07692307692307</v>
       </c>
       <c r="L612" t="n">
         <v>3091.8</v>
@@ -31491,7 +31513,7 @@
         <v>4209</v>
       </c>
       <c r="K613" t="n">
-        <v>-40</v>
+        <v>-63.26530612244898</v>
       </c>
       <c r="L613" t="n">
         <v>3088.2</v>
@@ -31542,7 +31564,7 @@
         <v>4228</v>
       </c>
       <c r="K614" t="n">
-        <v>-11.36363636363636</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L614" t="n">
         <v>3087</v>
@@ -31593,7 +31615,7 @@
         <v>4229</v>
       </c>
       <c r="K615" t="n">
-        <v>-22.5</v>
+        <v>0</v>
       </c>
       <c r="L615" t="n">
         <v>3086.5</v>
@@ -31644,7 +31666,7 @@
         <v>4235</v>
       </c>
       <c r="K616" t="n">
-        <v>-29.41176470588236</v>
+        <v>-9.375</v>
       </c>
       <c r="L616" t="n">
         <v>3085.9</v>
@@ -31695,7 +31717,7 @@
         <v>4238</v>
       </c>
       <c r="K617" t="n">
-        <v>-33.33333333333333</v>
+        <v>-13.43283582089552</v>
       </c>
       <c r="L617" t="n">
         <v>3085</v>
@@ -31746,7 +31768,7 @@
         <v>4251</v>
       </c>
       <c r="K618" t="n">
-        <v>-16</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="L618" t="n">
         <v>3085.4</v>
@@ -31797,7 +31819,7 @@
         <v>4266</v>
       </c>
       <c r="K619" t="n">
-        <v>-26.95652173913043</v>
+        <v>-20.45454545454546</v>
       </c>
       <c r="L619" t="n">
         <v>3083.8</v>
@@ -31848,7 +31870,7 @@
         <v>4276</v>
       </c>
       <c r="K620" t="n">
-        <v>-16.8</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L620" t="n">
         <v>3083</v>
@@ -31899,7 +31921,7 @@
         <v>4284</v>
       </c>
       <c r="K621" t="n">
-        <v>-21.80451127819549</v>
+        <v>16.88311688311688</v>
       </c>
       <c r="L621" t="n">
         <v>3082.5</v>
@@ -31950,7 +31972,7 @@
         <v>4285</v>
       </c>
       <c r="K622" t="n">
-        <v>-18.46153846153846</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L622" t="n">
         <v>3083.9</v>
@@ -32001,7 +32023,7 @@
         <v>4285</v>
       </c>
       <c r="K623" t="n">
-        <v>-18.46153846153846</v>
+        <v>-12.28070175438596</v>
       </c>
       <c r="L623" t="n">
         <v>3085.1</v>
@@ -32052,7 +32074,7 @@
         <v>4293</v>
       </c>
       <c r="K624" t="n">
-        <v>-8.270676691729323</v>
+        <v>0</v>
       </c>
       <c r="L624" t="n">
         <v>3085.2</v>
@@ -32103,7 +32125,7 @@
         <v>4293</v>
       </c>
       <c r="K625" t="n">
-        <v>-3.937007874015748</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L625" t="n">
         <v>3085.2</v>
@@ -32154,7 +32176,7 @@
         <v>4301</v>
       </c>
       <c r="K626" t="n">
-        <v>-6.153846153846154</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="L626" t="n">
         <v>3085</v>
@@ -32205,7 +32227,7 @@
         <v>4308</v>
       </c>
       <c r="K627" t="n">
-        <v>-0.7299270072992701</v>
+        <v>-8.771929824561402</v>
       </c>
       <c r="L627" t="n">
         <v>3085.8</v>
@@ -32256,7 +32278,7 @@
         <v>4312</v>
       </c>
       <c r="K628" t="n">
-        <v>-3.546099290780142</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L628" t="n">
         <v>3084.9</v>
@@ -32307,7 +32329,7 @@
         <v>4313</v>
       </c>
       <c r="K629" t="n">
-        <v>-6.569343065693431</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L629" t="n">
         <v>3085.6</v>
@@ -32358,7 +32380,7 @@
         <v>4315</v>
       </c>
       <c r="K630" t="n">
-        <v>-6.569343065693431</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L630" t="n">
         <v>3085.5</v>
@@ -32409,7 +32431,7 @@
         <v>4331</v>
       </c>
       <c r="K631" t="n">
-        <v>12.67605633802817</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L631" t="n">
         <v>3087.8</v>
@@ -32460,7 +32482,7 @@
         <v>4343</v>
       </c>
       <c r="K632" t="n">
-        <v>17.64705882352941</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L632" t="n">
         <v>3088.8</v>
@@ -32511,7 +32533,7 @@
         <v>4343</v>
       </c>
       <c r="K633" t="n">
-        <v>16.41791044776119</v>
+        <v>4</v>
       </c>
       <c r="L633" t="n">
         <v>3089.8</v>
@@ -32562,7 +32584,7 @@
         <v>4343</v>
       </c>
       <c r="K634" t="n">
-        <v>2.608695652173913</v>
+        <v>4</v>
       </c>
       <c r="L634" t="n">
         <v>3090</v>
@@ -32613,7 +32635,7 @@
         <v>4352</v>
       </c>
       <c r="K635" t="n">
-        <v>8.943089430894309</v>
+        <v>37.25490196078432</v>
       </c>
       <c r="L635" t="n">
         <v>3091.1</v>
@@ -32664,7 +32686,7 @@
         <v>4352</v>
       </c>
       <c r="K636" t="n">
-        <v>14.52991452991453</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L636" t="n">
         <v>3093</v>
@@ -32715,7 +32737,7 @@
         <v>4359</v>
       </c>
       <c r="K637" t="n">
-        <v>22.31404958677686</v>
+        <v>48.93617021276596</v>
       </c>
       <c r="L637" t="n">
         <v>3094.9</v>
@@ -32766,7 +32788,7 @@
         <v>4376</v>
       </c>
       <c r="K638" t="n">
-        <v>24.8</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L638" t="n">
         <v>3098.9</v>
@@ -32817,7 +32839,7 @@
         <v>4376</v>
       </c>
       <c r="K639" t="n">
-        <v>41.81818181818181</v>
+        <v>60.65573770491803</v>
       </c>
       <c r="L639" t="n">
         <v>3102.8</v>
@@ -32868,7 +32890,7 @@
         <v>4383</v>
       </c>
       <c r="K640" t="n">
-        <v>40.18691588785047</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L640" t="n">
         <v>3107.2</v>
@@ -32919,7 +32941,7 @@
         <v>4384</v>
       </c>
       <c r="K641" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="L641" t="n">
         <v>3110.1</v>
@@ -32970,7 +32992,7 @@
         <v>4399</v>
       </c>
       <c r="K642" t="n">
-        <v>57.89473684210527</v>
+        <v>100</v>
       </c>
       <c r="L642" t="n">
         <v>3115.7</v>
@@ -33021,7 +33043,7 @@
         <v>4400</v>
       </c>
       <c r="K643" t="n">
-        <v>56.52173913043478</v>
+        <v>96.49122807017544</v>
       </c>
       <c r="L643" t="n">
         <v>3121.2</v>
@@ -33072,7 +33094,7 @@
         <v>4400</v>
       </c>
       <c r="K644" t="n">
-        <v>53.27102803738318</v>
+        <v>95.83333333333334</v>
       </c>
       <c r="L644" t="n">
         <v>3126.7</v>
@@ -33123,7 +33145,7 @@
         <v>4401</v>
       </c>
       <c r="K645" t="n">
-        <v>53.70370370370371</v>
+        <v>95.91836734693877</v>
       </c>
       <c r="L645" t="n">
         <v>3131.4</v>
@@ -33174,7 +33196,7 @@
         <v>4401</v>
       </c>
       <c r="K646" t="n">
-        <v>66</v>
+        <v>95.23809523809523</v>
       </c>
       <c r="L646" t="n">
         <v>3136.1</v>
@@ -33225,7 +33247,7 @@
         <v>4406</v>
       </c>
       <c r="K647" t="n">
-        <v>65.30612244897959</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="L647" t="n">
         <v>3140.6</v>
@@ -33276,7 +33298,7 @@
         <v>4407</v>
       </c>
       <c r="K648" t="n">
-        <v>70.52631578947368</v>
+        <v>87.09677419354838</v>
       </c>
       <c r="L648" t="n">
         <v>3143.3</v>
@@ -33327,7 +33349,7 @@
         <v>4415</v>
       </c>
       <c r="K649" t="n">
-        <v>72.54901960784314</v>
+        <v>87.5</v>
       </c>
       <c r="L649" t="n">
         <v>3146.8</v>
@@ -33378,7 +33400,7 @@
         <v>4424</v>
       </c>
       <c r="K650" t="n">
-        <v>57.79816513761467</v>
+        <v>45</v>
       </c>
       <c r="L650" t="n">
         <v>3148.7</v>
@@ -33429,7 +33451,7 @@
         <v>4425</v>
       </c>
       <c r="K651" t="n">
-        <v>48.93617021276596</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L651" t="n">
         <v>3150.4</v>
@@ -33480,7 +33502,7 @@
         <v>4431</v>
       </c>
       <c r="K652" t="n">
-        <v>72.72727272727273</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L652" t="n">
         <v>3151.2</v>
@@ -33531,7 +33553,7 @@
         <v>4444</v>
       </c>
       <c r="K653" t="n">
-        <v>50.49504950495049</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L653" t="n">
         <v>3150.8</v>
@@ -33582,7 +33604,7 @@
         <v>4456</v>
       </c>
       <c r="K654" t="n">
-        <v>55.75221238938053</v>
+        <v>12.72727272727273</v>
       </c>
       <c r="L654" t="n">
         <v>3151.6</v>
@@ -33633,7 +33655,7 @@
         <v>4457</v>
       </c>
       <c r="K655" t="n">
-        <v>50.47619047619047</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="L655" t="n">
         <v>3152.2</v>
@@ -33684,7 +33706,7 @@
         <v>4457</v>
       </c>
       <c r="K656" t="n">
-        <v>50.47619047619047</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="L656" t="n">
         <v>3152.8</v>
@@ -33735,7 +33757,7 @@
         <v>4465</v>
       </c>
       <c r="K657" t="n">
-        <v>35.84905660377358</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L657" t="n">
         <v>3152.1</v>
@@ -33786,7 +33808,7 @@
         <v>4466</v>
       </c>
       <c r="K658" t="n">
-        <v>22.22222222222222</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L658" t="n">
         <v>3151.4</v>
@@ -33837,7 +33859,7 @@
         <v>4466</v>
       </c>
       <c r="K659" t="n">
-        <v>22.22222222222222</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L659" t="n">
         <v>3149.9</v>
@@ -33888,7 +33910,7 @@
         <v>4482</v>
       </c>
       <c r="K660" t="n">
-        <v>29.29292929292929</v>
+        <v>19.29824561403509</v>
       </c>
       <c r="L660" t="n">
         <v>3150.9</v>
@@ -33939,7 +33961,7 @@
         <v>4488</v>
       </c>
       <c r="K661" t="n">
-        <v>32.69230769230769</v>
+        <v>19.29824561403509</v>
       </c>
       <c r="L661" t="n">
         <v>3152.6</v>
@@ -33990,7 +34012,7 @@
         <v>4495</v>
       </c>
       <c r="K662" t="n">
-        <v>27.08333333333333</v>
+        <v>60.78431372549019</v>
       </c>
       <c r="L662" t="n">
         <v>3154.4</v>
@@ -34041,7 +34063,7 @@
         <v>4495</v>
       </c>
       <c r="K663" t="n">
-        <v>28.42105263157895</v>
+        <v>48.71794871794872</v>
       </c>
       <c r="L663" t="n">
         <v>3157.5</v>
@@ -34092,7 +34114,7 @@
         <v>4505</v>
       </c>
       <c r="K664" t="n">
-        <v>16.19047619047619</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="L664" t="n">
         <v>3158.4</v>
@@ -34143,7 +34165,7 @@
         <v>4513</v>
       </c>
       <c r="K665" t="n">
-        <v>21.42857142857143</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="L665" t="n">
         <v>3160.2</v>
@@ -34194,7 +34216,7 @@
         <v>4519</v>
       </c>
       <c r="K666" t="n">
-        <v>25.42372881355932</v>
+        <v>59.25925925925925</v>
       </c>
       <c r="L666" t="n">
         <v>3162.6</v>
@@ -34245,7 +34267,7 @@
         <v>4526</v>
       </c>
       <c r="K667" t="n">
-        <v>15</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="L667" t="n">
         <v>3165.1</v>
@@ -34296,7 +34318,7 @@
         <v>4533</v>
       </c>
       <c r="K668" t="n">
-        <v>9.523809523809524</v>
+        <v>28.35820895522388</v>
       </c>
       <c r="L668" t="n">
         <v>3167</v>
@@ -34347,7 +34369,7 @@
         <v>4534</v>
       </c>
       <c r="K669" t="n">
-        <v>2.521008403361344</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="L669" t="n">
         <v>3168.8</v>
@@ -34398,7 +34420,7 @@
         <v>4535</v>
       </c>
       <c r="K670" t="n">
-        <v>11.71171171171171</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="L670" t="n">
         <v>3169.1</v>
@@ -34449,7 +34471,7 @@
         <v>4543</v>
       </c>
       <c r="K671" t="n">
-        <v>18.64406779661017</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="L671" t="n">
         <v>3169.6</v>
@@ -34500,7 +34522,7 @@
         <v>4545</v>
       </c>
       <c r="K672" t="n">
-        <v>12.28070175438596</v>
+        <v>-8</v>
       </c>
       <c r="L672" t="n">
         <v>3169.2</v>
@@ -34551,7 +34573,7 @@
         <v>4547</v>
       </c>
       <c r="K673" t="n">
-        <v>28.15533980582524</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="L673" t="n">
         <v>3169</v>
@@ -34602,7 +34624,7 @@
         <v>4561</v>
       </c>
       <c r="K674" t="n">
-        <v>29.52380952380953</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="L674" t="n">
         <v>3171.2</v>
@@ -34653,7 +34675,7 @@
         <v>4564</v>
       </c>
       <c r="K675" t="n">
-        <v>27.10280373831775</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L675" t="n">
         <v>3172.3</v>
@@ -34704,7 +34726,7 @@
         <v>4568</v>
       </c>
       <c r="K676" t="n">
-        <v>29.72972972972973</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="L676" t="n">
         <v>3173.2</v>
@@ -34755,7 +34777,7 @@
         <v>4570</v>
       </c>
       <c r="K677" t="n">
-        <v>40.95238095238095</v>
+        <v>67.56756756756756</v>
       </c>
       <c r="L677" t="n">
         <v>3175</v>
@@ -34806,7 +34828,7 @@
         <v>4571</v>
       </c>
       <c r="K678" t="n">
-        <v>42.85714285714285</v>
+        <v>72.97297297297297</v>
       </c>
       <c r="L678" t="n">
         <v>3177.6</v>
@@ -34857,7 +34879,7 @@
         <v>4572</v>
       </c>
       <c r="K679" t="n">
-        <v>41.50943396226415</v>
+        <v>67.56756756756756</v>
       </c>
       <c r="L679" t="n">
         <v>3180.2</v>
@@ -34908,7 +34930,7 @@
         <v>4578</v>
       </c>
       <c r="K680" t="n">
-        <v>35.41666666666667</v>
+        <v>65.71428571428571</v>
       </c>
       <c r="L680" t="n">
         <v>3183.3</v>
@@ -34959,7 +34981,7 @@
         <v>4584</v>
       </c>
       <c r="K681" t="n">
-        <v>22.91666666666666</v>
+        <v>48.71794871794872</v>
       </c>
       <c r="L681" t="n">
         <v>3185</v>
@@ -35010,7 +35032,7 @@
         <v>4592</v>
       </c>
       <c r="K682" t="n">
-        <v>23.71134020618556</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L682" t="n">
         <v>3187.7</v>
@@ -35061,7 +35083,7 @@
         <v>4593</v>
       </c>
       <c r="K683" t="n">
-        <v>22.44897959183674</v>
+        <v>31.25</v>
       </c>
       <c r="L683" t="n">
         <v>3190.1</v>
@@ -35112,7 +35134,7 @@
         <v>4595</v>
       </c>
       <c r="K684" t="n">
-        <v>33.33333333333333</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L684" t="n">
         <v>3190.9</v>
@@ -35163,7 +35185,7 @@
         <v>4599</v>
       </c>
       <c r="K685" t="n">
-        <v>20.93023255813954</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L685" t="n">
         <v>3191.6</v>
@@ -35214,7 +35236,7 @@
         <v>4602</v>
       </c>
       <c r="K686" t="n">
-        <v>10.8433734939759</v>
+        <v>-6.25</v>
       </c>
       <c r="L686" t="n">
         <v>3191.6</v>
@@ -35265,7 +35287,7 @@
         <v>4606</v>
       </c>
       <c r="K687" t="n">
-        <v>25</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L687" t="n">
         <v>3191.8</v>
@@ -35316,7 +35338,7 @@
         <v>4612</v>
       </c>
       <c r="K688" t="n">
-        <v>41.77215189873418</v>
+        <v>20</v>
       </c>
       <c r="L688" t="n">
         <v>3192.5</v>
@@ -35367,7 +35389,7 @@
         <v>4621</v>
       </c>
       <c r="K689" t="n">
-        <v>49.42528735632184</v>
+        <v>25.58139534883721</v>
       </c>
       <c r="L689" t="n">
         <v>3194.2</v>
@@ -35418,7 +35440,7 @@
         <v>4625</v>
       </c>
       <c r="K690" t="n">
-        <v>51.11111111111111</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="L690" t="n">
         <v>3195.7</v>
@@ -35469,7 +35491,7 @@
         <v>4634</v>
       </c>
       <c r="K691" t="n">
-        <v>51.64835164835166</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L691" t="n">
         <v>3198.7</v>
@@ -35520,7 +35542,7 @@
         <v>4635</v>
       </c>
       <c r="K692" t="n">
-        <v>55.55555555555556</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L692" t="n">
         <v>3201</v>
@@ -35571,7 +35593,7 @@
         <v>4636</v>
       </c>
       <c r="K693" t="n">
-        <v>55.0561797752809</v>
+        <v>65.85365853658537</v>
       </c>
       <c r="L693" t="n">
         <v>3203.5</v>
@@ -35622,7 +35644,7 @@
         <v>4646</v>
       </c>
       <c r="K694" t="n">
-        <v>52.94117647058824</v>
+        <v>87.2340425531915</v>
       </c>
       <c r="L694" t="n">
         <v>3207.2</v>
@@ -35673,7 +35695,7 @@
         <v>4649</v>
       </c>
       <c r="K695" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L695" t="n">
         <v>3211.6</v>
@@ -35724,7 +35746,7 @@
         <v>4649</v>
       </c>
       <c r="K696" t="n">
-        <v>58.0246913580247</v>
+        <v>100</v>
       </c>
       <c r="L696" t="n">
         <v>3216.3</v>
@@ -35775,7 +35797,7 @@
         <v>4655</v>
       </c>
       <c r="K697" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L697" t="n">
         <v>3221.2</v>
@@ -35826,7 +35848,7 @@
         <v>4666</v>
       </c>
       <c r="K698" t="n">
-        <v>41.05263157894737</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="L698" t="n">
         <v>3224.4</v>
@@ -35877,7 +35899,7 @@
         <v>4671</v>
       </c>
       <c r="K699" t="n">
-        <v>45.45454545454545</v>
+        <v>52.17391304347826</v>
       </c>
       <c r="L699" t="n">
         <v>3227.2</v>
@@ -35928,7 +35950,7 @@
         <v>4682</v>
       </c>
       <c r="K700" t="n">
-        <v>26.92307692307692</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L700" t="n">
         <v>3228.5</v>
@@ -35979,7 +36001,7 @@
         <v>4695</v>
       </c>
       <c r="K701" t="n">
-        <v>42.34234234234234</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L701" t="n">
         <v>3230.2</v>
@@ -36030,7 +36052,7 @@
         <v>4700</v>
       </c>
       <c r="K702" t="n">
-        <v>31.48148148148148</v>
+        <v>15.625</v>
       </c>
       <c r="L702" t="n">
         <v>3231.3</v>
@@ -36081,7 +36103,7 @@
         <v>4704</v>
       </c>
       <c r="K703" t="n">
-        <v>35.13513513513514</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="L703" t="n">
         <v>3232.7</v>
@@ -36132,7 +36154,7 @@
         <v>4705</v>
       </c>
       <c r="K704" t="n">
-        <v>38.18181818181819</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="L704" t="n">
         <v>3233.2</v>
@@ -36183,7 +36205,7 @@
         <v>4710</v>
       </c>
       <c r="K705" t="n">
-        <v>45.94594594594595</v>
+        <v>11.47540983606557</v>
       </c>
       <c r="L705" t="n">
         <v>3233.9</v>
@@ -36234,7 +36256,7 @@
         <v>4734</v>
       </c>
       <c r="K706" t="n">
-        <v>22.72727272727273</v>
+        <v>-29.11392405063291</v>
       </c>
       <c r="L706" t="n">
         <v>3232.2</v>
@@ -36285,7 +36307,7 @@
         <v>4738</v>
       </c>
       <c r="K707" t="n">
-        <v>22.72727272727273</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L707" t="n">
         <v>3230.3</v>
@@ -36336,7 +36358,7 @@
         <v>4749</v>
       </c>
       <c r="K708" t="n">
-        <v>9.48905109489051</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L708" t="n">
         <v>3228.4</v>
@@ -36387,7 +36409,7 @@
         <v>4751</v>
       </c>
       <c r="K709" t="n">
-        <v>1.538461538461539</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L709" t="n">
         <v>3225.8</v>
@@ -36438,7 +36460,7 @@
         <v>4751</v>
       </c>
       <c r="K710" t="n">
-        <v>-1.587301587301587</v>
+        <v>-50</v>
       </c>
       <c r="L710" t="n">
         <v>3224.3</v>
@@ -36489,7 +36511,7 @@
         <v>4755</v>
       </c>
       <c r="K711" t="n">
-        <v>-12.39669421487603</v>
+        <v>-49.09090909090909</v>
       </c>
       <c r="L711" t="n">
         <v>3221.1</v>
@@ -36540,7 +36562,7 @@
         <v>4787</v>
       </c>
       <c r="K712" t="n">
-        <v>-31.57894736842105</v>
+        <v>-75.90361445783132</v>
       </c>
       <c r="L712" t="n">
         <v>3215.2</v>
@@ -36591,7 +36613,7 @@
         <v>4802</v>
       </c>
       <c r="K713" t="n">
-        <v>-20.48192771084337</v>
+        <v>-50.51546391752577</v>
       </c>
       <c r="L713" t="n">
         <v>3210.4</v>
@@ -36642,7 +36664,7 @@
         <v>4804</v>
       </c>
       <c r="K714" t="n">
-        <v>-26.58227848101265</v>
+        <v>-55.31914893617022</v>
       </c>
       <c r="L714" t="n">
         <v>3205.7</v>
@@ -36693,7 +36715,7 @@
         <v>4815</v>
       </c>
       <c r="K715" t="n">
-        <v>-20.48192771084337</v>
+        <v>-20.98765432098765</v>
       </c>
       <c r="L715" t="n">
         <v>3201.6</v>
@@ -36744,7 +36766,7 @@
         <v>4820</v>
       </c>
       <c r="K716" t="n">
-        <v>-16.95906432748538</v>
+        <v>-19.51219512195122</v>
       </c>
       <c r="L716" t="n">
         <v>3200.4</v>
@@ -36795,7 +36817,7 @@
         <v>4833</v>
       </c>
       <c r="K717" t="n">
-        <v>-26.96629213483146</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L717" t="n">
         <v>3197.5</v>
@@ -36846,7 +36868,7 @@
         <v>4835</v>
       </c>
       <c r="K718" t="n">
-        <v>-23.07692307692308</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L718" t="n">
         <v>3195.5</v>
@@ -36897,7 +36919,7 @@
         <v>4847</v>
       </c>
       <c r="K719" t="n">
-        <v>-18.18181818181818</v>
+        <v>-6.25</v>
       </c>
       <c r="L719" t="n">
         <v>3194.9</v>
@@ -36948,7 +36970,7 @@
         <v>4849</v>
       </c>
       <c r="K720" t="n">
-        <v>-11.37724550898204</v>
+        <v>0</v>
       </c>
       <c r="L720" t="n">
         <v>3194.5</v>
@@ -36999,7 +37021,7 @@
         <v>4851</v>
       </c>
       <c r="K721" t="n">
-        <v>-21.7948717948718</v>
+        <v>46.875</v>
       </c>
       <c r="L721" t="n">
         <v>3194.3</v>
@@ -37050,7 +37072,7 @@
         <v>4859</v>
       </c>
       <c r="K722" t="n">
-        <v>-23.27044025157233</v>
+        <v>12.28070175438596</v>
       </c>
       <c r="L722" t="n">
         <v>3196.5</v>
@@ -37101,7 +37123,7 @@
         <v>4861</v>
       </c>
       <c r="K723" t="n">
-        <v>-24.84076433121019</v>
+        <v>12.28070175438596</v>
       </c>
       <c r="L723" t="n">
         <v>3197.4</v>
@@ -37152,7 +37174,7 @@
         <v>4862</v>
       </c>
       <c r="K724" t="n">
-        <v>-26.11464968152866</v>
+        <v>-10.63829787234043</v>
       </c>
       <c r="L724" t="n">
         <v>3198</v>
@@ -37203,7 +37225,7 @@
         <v>4864</v>
       </c>
       <c r="K725" t="n">
-        <v>-28.57142857142857</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L725" t="n">
         <v>3197.7</v>
@@ -37254,7 +37276,7 @@
         <v>4865</v>
       </c>
       <c r="K726" t="n">
-        <v>-14.50381679389313</v>
+        <v>18.75</v>
       </c>
       <c r="L726" t="n">
         <v>3197</v>
@@ -37305,7 +37327,7 @@
         <v>4865</v>
       </c>
       <c r="K727" t="n">
-        <v>-18.11023622047244</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L727" t="n">
         <v>3197.6</v>
@@ -37356,7 +37378,7 @@
         <v>4894</v>
       </c>
       <c r="K728" t="n">
-        <v>11.72413793103448</v>
+        <v>53.19148936170212</v>
       </c>
       <c r="L728" t="n">
         <v>3201.3</v>
@@ -37407,7 +37429,7 @@
         <v>4896</v>
       </c>
       <c r="K729" t="n">
-        <v>11.72413793103448</v>
+        <v>44.68085106382978</v>
       </c>
       <c r="L729" t="n">
         <v>3203.6</v>
@@ -37458,7 +37480,7 @@
         <v>4896</v>
       </c>
       <c r="K730" t="n">
-        <v>11.72413793103448</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="L730" t="n">
         <v>3205.7</v>
@@ -37509,7 +37531,7 @@
         <v>4901</v>
       </c>
       <c r="K731" t="n">
-        <v>17.80821917808219</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L731" t="n">
         <v>3208.5</v>
@@ -37560,7 +37582,7 @@
         <v>4916</v>
       </c>
       <c r="K732" t="n">
-        <v>33.33333333333333</v>
+        <v>34.54545454545455</v>
       </c>
       <c r="L732" t="n">
         <v>3210.6</v>
@@ -37611,7 +37633,7 @@
         <v>4925</v>
       </c>
       <c r="K733" t="n">
-        <v>15.44715447154472</v>
+        <v>17.46031746031746</v>
       </c>
       <c r="L733" t="n">
         <v>3211.6</v>
@@ -37662,7 +37684,7 @@
         <v>4937</v>
       </c>
       <c r="K734" t="n">
-        <v>21.80451127819549</v>
+        <v>28.76712328767123</v>
       </c>
       <c r="L734" t="n">
         <v>3213.9</v>
@@ -37713,7 +37735,7 @@
         <v>4940</v>
       </c>
       <c r="K735" t="n">
-        <v>16.8</v>
+        <v>30.66666666666666</v>
       </c>
       <c r="L735" t="n">
         <v>3216.3</v>
@@ -37764,7 +37786,7 @@
         <v>4949</v>
       </c>
       <c r="K736" t="n">
-        <v>5.426356589147287</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L736" t="n">
         <v>3217.7</v>
@@ -37815,7 +37837,7 @@
         <v>4954</v>
       </c>
       <c r="K737" t="n">
-        <v>12.39669421487603</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L737" t="n">
         <v>3218.6</v>
@@ -37866,7 +37888,7 @@
         <v>4958</v>
       </c>
       <c r="K738" t="n">
-        <v>17.07317073170732</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L738" t="n">
         <v>3217</v>
@@ -37917,7 +37939,7 @@
         <v>4958</v>
       </c>
       <c r="K739" t="n">
-        <v>8.108108108108109</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L739" t="n">
         <v>3215.6</v>
@@ -37968,7 +37990,7 @@
         <v>4962</v>
       </c>
       <c r="K740" t="n">
-        <v>2.654867256637168</v>
+        <v>-37.70491803278689</v>
       </c>
       <c r="L740" t="n">
         <v>3213.8</v>
@@ -38019,7 +38041,7 @@
         <v>4962</v>
       </c>
       <c r="K741" t="n">
-        <v>4.504504504504505</v>
+        <v>-17.39130434782609</v>
       </c>
       <c r="L741" t="n">
         <v>3211.5</v>
@@ -38070,7 +38092,7 @@
         <v>4975</v>
       </c>
       <c r="K742" t="n">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="L742" t="n">
         <v>3209.4</v>
@@ -38121,7 +38143,7 @@
         <v>4979</v>
       </c>
       <c r="K743" t="n">
-        <v>-5.084745762711865</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L743" t="n">
         <v>3207.8</v>
@@ -38172,7 +38194,7 @@
         <v>4984</v>
       </c>
       <c r="K744" t="n">
-        <v>-8.196721311475409</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L744" t="n">
         <v>3204.5</v>
@@ -38223,7 +38245,7 @@
         <v>4991</v>
       </c>
       <c r="K745" t="n">
-        <v>-3.937007874015748</v>
+        <v>-47.61904761904761</v>
       </c>
       <c r="L745" t="n">
         <v>3201.6</v>
@@ -38274,7 +38296,7 @@
         <v>5002</v>
       </c>
       <c r="K746" t="n">
-        <v>-12.40875912408759</v>
+        <v>-54.16666666666666</v>
       </c>
       <c r="L746" t="n">
         <v>3198.5</v>
@@ -38325,7 +38347,7 @@
         <v>5005</v>
       </c>
       <c r="K747" t="n">
-        <v>-10</v>
+        <v>-57.44680851063831</v>
       </c>
       <c r="L747" t="n">
         <v>3196.2</v>
@@ -38376,7 +38398,7 @@
         <v>5018</v>
       </c>
       <c r="K748" t="n">
-        <v>-45.16129032258064</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L748" t="n">
         <v>3192.2</v>
@@ -38427,7 +38449,7 @@
         <v>5019</v>
       </c>
       <c r="K749" t="n">
-        <v>-44.71544715447154</v>
+        <v>-64.91228070175438</v>
       </c>
       <c r="L749" t="n">
         <v>3188.1</v>
@@ -38478,7 +38500,7 @@
         <v>5031</v>
       </c>
       <c r="K750" t="n">
-        <v>-31.85185185185185</v>
+        <v>-36.23188405797102</v>
       </c>
       <c r="L750" t="n">
         <v>3185.6</v>
@@ -38529,7 +38551,7 @@
         <v>5036</v>
       </c>
       <c r="K751" t="n">
-        <v>-39.25925925925926</v>
+        <v>-27.86885245901639</v>
       </c>
       <c r="L751" t="n">
         <v>3182.6</v>
@@ -38580,7 +38602,7 @@
         <v>5040</v>
       </c>
       <c r="K752" t="n">
-        <v>-33.87096774193548</v>
+        <v>-27.86885245901639</v>
       </c>
       <c r="L752" t="n">
         <v>3180.5</v>
@@ -38631,7 +38653,7 @@
         <v>5049</v>
       </c>
       <c r="K753" t="n">
-        <v>-33.87096774193548</v>
+        <v>-32.30769230769231</v>
       </c>
       <c r="L753" t="n">
         <v>3177.9</v>
@@ -38682,7 +38704,7 @@
         <v>5073</v>
       </c>
       <c r="K754" t="n">
-        <v>-57.35294117647059</v>
+        <v>-63.41463414634146</v>
       </c>
       <c r="L754" t="n">
         <v>3173.4</v>
@@ -38733,7 +38755,7 @@
         <v>5090</v>
       </c>
       <c r="K755" t="n">
-        <v>-42.66666666666667</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L755" t="n">
         <v>3169.9</v>
@@ -38784,7 +38806,7 @@
         <v>5093</v>
       </c>
       <c r="K756" t="n">
-        <v>-40.27777777777778</v>
+        <v>-34.09090909090909</v>
       </c>
       <c r="L756" t="n">
         <v>3167.2</v>
@@ -38835,7 +38857,7 @@
         <v>5095</v>
       </c>
       <c r="K757" t="n">
-        <v>-39.00709219858156</v>
+        <v>-24.67532467532467</v>
       </c>
       <c r="L757" t="n">
         <v>3164</v>
@@ -38886,7 +38908,7 @@
         <v>5095</v>
       </c>
       <c r="K758" t="n">
-        <v>-43.06569343065693</v>
+        <v>-23.68421052631579</v>
       </c>
       <c r="L758" t="n">
         <v>3162.1</v>
@@ -38937,7 +38959,7 @@
         <v>5099</v>
       </c>
       <c r="K759" t="n">
-        <v>-39.00709219858156</v>
+        <v>-38.23529411764706</v>
       </c>
       <c r="L759" t="n">
         <v>3160.7</v>
@@ -38988,7 +39010,7 @@
         <v>5103</v>
       </c>
       <c r="K760" t="n">
-        <v>-39.00709219858156</v>
+        <v>-37.3134328358209</v>
       </c>
       <c r="L760" t="n">
         <v>3157.7</v>
@@ -39039,7 +39061,7 @@
         <v>5103</v>
       </c>
       <c r="K761" t="n">
-        <v>-39.00709219858156</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L761" t="n">
         <v>3155.2</v>
@@ -39090,7 +39112,7 @@
         <v>5108</v>
       </c>
       <c r="K762" t="n">
-        <v>-27.81954887218045</v>
+        <v>-11.86440677966102</v>
       </c>
       <c r="L762" t="n">
         <v>3153.6</v>
@@ -39141,7 +39163,7 @@
         <v>5109</v>
       </c>
       <c r="K763" t="n">
-        <v>-24.61538461538462</v>
+        <v>50</v>
       </c>
       <c r="L763" t="n">
         <v>3153</v>
@@ -39192,7 +39214,7 @@
         <v>5110</v>
       </c>
       <c r="K764" t="n">
-        <v>-20.63492063492063</v>
+        <v>10</v>
       </c>
       <c r="L764" t="n">
         <v>3154.9</v>
@@ -39243,7 +39265,7 @@
         <v>5118</v>
       </c>
       <c r="K765" t="n">
-        <v>-32.28346456692913</v>
+        <v>-12</v>
       </c>
       <c r="L765" t="n">
         <v>3154.3</v>
@@ -39294,7 +39316,7 @@
         <v>5121</v>
       </c>
       <c r="K766" t="n">
-        <v>-22.6890756302521</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L766" t="n">
         <v>3154.3</v>
@@ -39345,7 +39367,7 @@
         <v>5127</v>
       </c>
       <c r="K767" t="n">
-        <v>-29.50819672131147</v>
+        <v>-12.5</v>
       </c>
       <c r="L767" t="n">
         <v>3153.9</v>
@@ -39396,7 +39418,7 @@
         <v>5149</v>
       </c>
       <c r="K768" t="n">
-        <v>-34.35114503816794</v>
+        <v>-60</v>
       </c>
       <c r="L768" t="n">
         <v>3151.3</v>
@@ -39447,7 +39469,7 @@
         <v>5159</v>
       </c>
       <c r="K769" t="n">
-        <v>-24.28571428571428</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L769" t="n">
         <v>3149.3</v>
@@ -39498,7 +39520,7 @@
         <v>5178</v>
       </c>
       <c r="K770" t="n">
-        <v>-18.36734693877551</v>
+        <v>4</v>
       </c>
       <c r="L770" t="n">
         <v>3149.6</v>
@@ -39549,7 +39571,7 @@
         <v>5180</v>
       </c>
       <c r="K771" t="n">
-        <v>-16.66666666666666</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L771" t="n">
         <v>3149.7</v>
@@ -39600,7 +39622,7 @@
         <v>5183</v>
       </c>
       <c r="K772" t="n">
-        <v>-16.08391608391608</v>
+        <v>-10.81081081081081</v>
       </c>
       <c r="L772" t="n">
         <v>3149</v>
@@ -39651,7 +39673,7 @@
         <v>5188</v>
       </c>
       <c r="K773" t="n">
-        <v>-13.66906474820144</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L773" t="n">
         <v>3147.7</v>
@@ -39702,7 +39724,7 @@
         <v>5196</v>
       </c>
       <c r="K774" t="n">
-        <v>10.56910569105691</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L774" t="n">
         <v>3147.1</v>
@@ -39753,7 +39775,7 @@
         <v>5204</v>
       </c>
       <c r="K775" t="n">
-        <v>-10.52631578947368</v>
+        <v>-10.8433734939759</v>
       </c>
       <c r="L775" t="n">
         <v>3146.5</v>
@@ -39804,7 +39826,7 @@
         <v>5204</v>
       </c>
       <c r="K776" t="n">
-        <v>-8.108108108108109</v>
+        <v>-3.896103896103896</v>
       </c>
       <c r="L776" t="n">
         <v>3145.6</v>
@@ -39855,7 +39877,7 @@
         <v>5204</v>
       </c>
       <c r="K777" t="n">
-        <v>-6.422018348623854</v>
+        <v>34.54545454545455</v>
       </c>
       <c r="L777" t="n">
         <v>3145.3</v>
@@ -39906,7 +39928,7 @@
         <v>5210</v>
       </c>
       <c r="K778" t="n">
-        <v>-0.8695652173913043</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L778" t="n">
         <v>3147.8</v>
@@ -39957,7 +39979,7 @@
         <v>5217</v>
       </c>
       <c r="K779" t="n">
-        <v>1.694915254237288</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L779" t="n">
         <v>3150</v>
@@ -40008,7 +40030,7 @@
         <v>5228</v>
       </c>
       <c r="K780" t="n">
-        <v>13.6</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L780" t="n">
         <v>3151.4</v>
@@ -40059,7 +40081,7 @@
         <v>5240</v>
       </c>
       <c r="K781" t="n">
-        <v>21.16788321167883</v>
+        <v>54.38596491228071</v>
       </c>
       <c r="L781" t="n">
         <v>3154.2</v>
@@ -40110,7 +40132,7 @@
         <v>5248</v>
       </c>
       <c r="K782" t="n">
-        <v>22.85714285714286</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L782" t="n">
         <v>3158.1</v>
@@ -40161,7 +40183,7 @@
         <v>5254</v>
       </c>
       <c r="K783" t="n">
-        <v>17.24137931034483</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L783" t="n">
         <v>3161.9</v>
@@ -40212,7 +40234,7 @@
         <v>5263</v>
       </c>
       <c r="K784" t="n">
-        <v>9.803921568627452</v>
+        <v>49.15254237288136</v>
       </c>
       <c r="L784" t="n">
         <v>3164</v>
@@ -40263,7 +40285,7 @@
         <v>5263</v>
       </c>
       <c r="K785" t="n">
-        <v>15.86206896551724</v>
+        <v>49.15254237288136</v>
       </c>
       <c r="L785" t="n">
         <v>3166.9</v>
@@ -40314,7 +40336,7 @@
         <v>5266</v>
       </c>
       <c r="K786" t="n">
-        <v>11.72413793103448</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L786" t="n">
         <v>3169.5</v>
@@ -40365,7 +40387,7 @@
         <v>5279</v>
       </c>
       <c r="K787" t="n">
-        <v>23.68421052631579</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L787" t="n">
         <v>3173.4</v>
@@ -40416,7 +40438,7 @@
         <v>5282</v>
       </c>
       <c r="K788" t="n">
-        <v>41.35338345864661</v>
+        <v>35.38461538461539</v>
       </c>
       <c r="L788" t="n">
         <v>3176.4</v>
@@ -40467,7 +40489,7 @@
         <v>5289</v>
       </c>
       <c r="K789" t="n">
-        <v>40</v>
+        <v>31.14754098360656</v>
       </c>
       <c r="L789" t="n">
         <v>3179.4</v>
@@ -40518,7 +40540,7 @@
         <v>5293</v>
       </c>
       <c r="K790" t="n">
-        <v>32.17391304347826</v>
+        <v>20.75471698113208</v>
       </c>
       <c r="L790" t="n">
         <v>3181.7</v>
@@ -40569,7 +40591,7 @@
         <v>5298</v>
       </c>
       <c r="K791" t="n">
-        <v>37.28813559322034</v>
+        <v>16</v>
       </c>
       <c r="L791" t="n">
         <v>3183.3</v>
@@ -40620,7 +40642,7 @@
         <v>5300</v>
       </c>
       <c r="K792" t="n">
-        <v>41.88034188034188</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="L792" t="n">
         <v>3184.3</v>
@@ -40671,7 +40693,7 @@
         <v>5303</v>
       </c>
       <c r="K793" t="n">
-        <v>49.56521739130435</v>
+        <v>70</v>
       </c>
       <c r="L793" t="n">
         <v>3186.2</v>
@@ -40722,7 +40744,7 @@
         <v>5303</v>
       </c>
       <c r="K794" t="n">
-        <v>45.79439252336449</v>
+        <v>70</v>
       </c>
       <c r="L794" t="n">
         <v>3189</v>
@@ -40773,7 +40795,7 @@
         <v>5312</v>
       </c>
       <c r="K795" t="n">
-        <v>61.11111111111111</v>
+        <v>86.95652173913044</v>
       </c>
       <c r="L795" t="n">
         <v>3192.7</v>
@@ -40824,7 +40846,7 @@
         <v>5314</v>
       </c>
       <c r="K796" t="n">
-        <v>58.18181818181818</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L796" t="n">
         <v>3196.5</v>
@@ -40875,7 +40897,7 @@
         <v>5314</v>
       </c>
       <c r="K797" t="n">
-        <v>58.18181818181818</v>
+        <v>87.5</v>
       </c>
       <c r="L797" t="n">
         <v>3199</v>
@@ -40926,7 +40948,7 @@
         <v>5315</v>
       </c>
       <c r="K798" t="n">
-        <v>54.28571428571428</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="L798" t="n">
         <v>3201.7</v>
@@ -40977,7 +40999,7 @@
         <v>5320</v>
       </c>
       <c r="K799" t="n">
-        <v>43.68932038834951</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L799" t="n">
         <v>3203.2</v>
@@ -41028,7 +41050,7 @@
         <v>5329</v>
       </c>
       <c r="K800" t="n">
-        <v>24.75247524752475</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L800" t="n">
         <v>3203.4</v>
@@ -41079,7 +41101,7 @@
         <v>5331</v>
       </c>
       <c r="K801" t="n">
-        <v>16.48351648351648</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L801" t="n">
         <v>3203.3</v>
@@ -41130,7 +41152,7 @@
         <v>5333</v>
       </c>
       <c r="K802" t="n">
-        <v>10.58823529411765</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L802" t="n">
         <v>3203.2</v>
@@ -41181,7 +41203,7 @@
         <v>5356</v>
       </c>
       <c r="K803" t="n">
-        <v>37.25490196078432</v>
+        <v>35.84905660377358</v>
       </c>
       <c r="L803" t="n">
         <v>3205.1</v>
@@ -41232,7 +41254,7 @@
         <v>5360</v>
       </c>
       <c r="K804" t="n">
-        <v>52.57731958762887</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="L804" t="n">
         <v>3207.4</v>
@@ -41283,7 +41305,7 @@
         <v>5369</v>
       </c>
       <c r="K805" t="n">
-        <v>39.62264150943396</v>
+        <v>12.72727272727273</v>
       </c>
       <c r="L805" t="n">
         <v>3207.9</v>
@@ -41334,7 +41356,7 @@
         <v>5372</v>
       </c>
       <c r="K806" t="n">
-        <v>45.28301886792453</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L806" t="n">
         <v>3208.9</v>
@@ -41385,7 +41407,7 @@
         <v>5378</v>
       </c>
       <c r="K807" t="n">
-        <v>41.41414141414141</v>
+        <v>26.98412698412698</v>
       </c>
       <c r="L807" t="n">
         <v>3210.5</v>
@@ -41436,7 +41458,7 @@
         <v>5388</v>
       </c>
       <c r="K808" t="n">
-        <v>32.0754716981132</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L808" t="n">
         <v>3211.2</v>
@@ -41487,7 +41509,7 @@
         <v>5390</v>
       </c>
       <c r="K809" t="n">
-        <v>24.75247524752475</v>
+        <v>31.14754098360656</v>
       </c>
       <c r="L809" t="n">
         <v>3212.2</v>
@@ -41538,7 +41560,7 @@
         <v>5391</v>
       </c>
       <c r="K810" t="n">
-        <v>20.40816326530612</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L810" t="n">
         <v>3214</v>
@@ -41589,7 +41611,7 @@
         <v>5391</v>
       </c>
       <c r="K811" t="n">
-        <v>16.12903225806452</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L811" t="n">
         <v>3215.6</v>
@@ -41640,7 +41662,7 @@
         <v>5392</v>
       </c>
       <c r="K812" t="n">
-        <v>13.04347826086956</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L812" t="n">
         <v>3216.9</v>
@@ -41691,7 +41713,7 @@
         <v>5409</v>
       </c>
       <c r="K813" t="n">
-        <v>-7.547169811320755</v>
+        <v>-63.26530612244898</v>
       </c>
       <c r="L813" t="n">
         <v>3214.2</v>
@@ -41742,7 +41764,7 @@
         <v>5416</v>
       </c>
       <c r="K814" t="n">
-        <v>-13.27433628318584</v>
+        <v>-61.70212765957447</v>
       </c>
       <c r="L814" t="n">
         <v>3210.4</v>
@@ -41793,7 +41815,7 @@
         <v>5429</v>
       </c>
       <c r="K815" t="n">
-        <v>-9.401709401709402</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L815" t="n">
         <v>3208.8</v>
@@ -41844,7 +41866,7 @@
         <v>5438</v>
       </c>
       <c r="K816" t="n">
-        <v>-14.51612903225807</v>
+        <v>-56.66666666666666</v>
       </c>
       <c r="L816" t="n">
         <v>3206</v>
@@ -41895,7 +41917,7 @@
         <v>5438</v>
       </c>
       <c r="K817" t="n">
-        <v>-14.51612903225807</v>
+        <v>-48</v>
       </c>
       <c r="L817" t="n">
         <v>3202.6</v>
@@ -41946,7 +41968,7 @@
         <v>5438</v>
       </c>
       <c r="K818" t="n">
-        <v>-13.82113821138211</v>
+        <v>-45.83333333333333</v>
       </c>
       <c r="L818" t="n">
         <v>3200.2</v>
@@ -41997,7 +42019,7 @@
         <v>5445</v>
       </c>
       <c r="K819" t="n">
-        <v>-15.2</v>
+        <v>-51.85185185185185</v>
       </c>
       <c r="L819" t="n">
         <v>3197.3</v>
@@ -42048,7 +42070,7 @@
         <v>5447</v>
       </c>
       <c r="K820" t="n">
-        <v>-6.779661016949152</v>
+        <v>-46.42857142857143</v>
       </c>
       <c r="L820" t="n">
         <v>3194.7</v>
@@ -42099,7 +42121,7 @@
         <v>5449</v>
       </c>
       <c r="K821" t="n">
-        <v>-6.779661016949152</v>
+        <v>-40.35087719298245</v>
       </c>
       <c r="L821" t="n">
         <v>3192.3</v>
@@ -42150,7 +42172,7 @@
         <v>5456</v>
       </c>
       <c r="K822" t="n">
-        <v>-2.439024390243902</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L822" t="n">
         <v>3190.7</v>
@@ -42201,7 +42223,7 @@
         <v>5461</v>
       </c>
       <c r="K823" t="n">
-        <v>-20</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="L823" t="n">
         <v>3191.3</v>
@@ -42252,7 +42274,7 @@
         <v>5466</v>
       </c>
       <c r="K824" t="n">
-        <v>-18.86792452830189</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L824" t="n">
         <v>3193.1</v>
@@ -42303,7 +42325,7 @@
         <v>5474</v>
       </c>
       <c r="K825" t="n">
-        <v>-18.09523809523809</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L825" t="n">
         <v>3192.8</v>
@@ -42354,7 +42376,7 @@
         <v>5482</v>
       </c>
       <c r="K826" t="n">
-        <v>-12.72727272727273</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="L826" t="n">
         <v>3194.2</v>
@@ -42405,7 +42427,7 @@
         <v>5487</v>
       </c>
       <c r="K827" t="n">
-        <v>-22.93577981651376</v>
+        <v>18.36734693877551</v>
       </c>
       <c r="L827" t="n">
         <v>3195.1</v>
@@ -42456,7 +42478,7 @@
         <v>5490</v>
       </c>
       <c r="K828" t="n">
-        <v>-17.64705882352941</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="L828" t="n">
         <v>3195.7</v>
@@ -42507,7 +42529,7 @@
         <v>5493</v>
       </c>
       <c r="K829" t="n">
-        <v>-12.62135922330097</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L829" t="n">
         <v>3197.3</v>
@@ -42558,7 +42580,7 @@
         <v>5506</v>
       </c>
       <c r="K830" t="n">
-        <v>0.8695652173913043</v>
+        <v>43.85964912280701</v>
       </c>
       <c r="L830" t="n">
         <v>3200</v>
@@ -42609,7 +42631,7 @@
         <v>5512</v>
       </c>
       <c r="K831" t="n">
-        <v>5.785123966942149</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L831" t="n">
         <v>3203.1</v>
@@ -42660,7 +42682,7 @@
         <v>5523</v>
       </c>
       <c r="K832" t="n">
-        <v>-2.290076335877862</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="L832" t="n">
         <v>3204.4</v>
@@ -42711,7 +42733,7 @@
         <v>5530</v>
       </c>
       <c r="K833" t="n">
-        <v>17.35537190082645</v>
+        <v>15.625</v>
       </c>
       <c r="L833" t="n">
         <v>3205.9</v>
@@ -42762,7 +42784,7 @@
         <v>5540</v>
       </c>
       <c r="K834" t="n">
-        <v>14.51612903225807</v>
+        <v>12.12121212121212</v>
       </c>
       <c r="L834" t="n">
         <v>3205.9</v>
@@ -42813,7 +42835,7 @@
         <v>5550</v>
       </c>
       <c r="K835" t="n">
-        <v>-4.132231404958678</v>
+        <v>-14.70588235294118</v>
       </c>
       <c r="L835" t="n">
         <v>3205.7</v>
@@ -42864,7 +42886,7 @@
         <v>5564</v>
       </c>
       <c r="K836" t="n">
-        <v>14.28571428571428</v>
+        <v>11.68831168831169</v>
       </c>
       <c r="L836" t="n">
         <v>3206.1</v>
@@ -42915,7 +42937,7 @@
         <v>5580</v>
       </c>
       <c r="K837" t="n">
-        <v>1.408450704225352</v>
+        <v>-4.444444444444445</v>
       </c>
       <c r="L837" t="n">
         <v>3205.4</v>
@@ -42966,7 +42988,7 @@
         <v>5582</v>
       </c>
       <c r="K838" t="n">
-        <v>2.777777777777778</v>
+        <v>-5.617977528089887</v>
       </c>
       <c r="L838" t="n">
         <v>3205.2</v>
@@ -43017,7 +43039,7 @@
         <v>5583</v>
       </c>
       <c r="K839" t="n">
-        <v>7.246376811594203</v>
+        <v>-24.67532467532467</v>
       </c>
       <c r="L839" t="n">
         <v>3204.6</v>
@@ -43068,7 +43090,7 @@
         <v>5584</v>
       </c>
       <c r="K840" t="n">
-        <v>5.109489051094891</v>
+        <v>-36.11111111111111</v>
       </c>
       <c r="L840" t="n">
         <v>3202.6</v>
@@ -43119,7 +43141,7 @@
         <v>5587</v>
       </c>
       <c r="K841" t="n">
-        <v>5.797101449275362</v>
+        <v>-18.75</v>
       </c>
       <c r="L841" t="n">
         <v>3200.3</v>
@@ -43170,7 +43192,7 @@
         <v>5589</v>
       </c>
       <c r="K842" t="n">
-        <v>2.255639097744361</v>
+        <v>-28.8135593220339</v>
       </c>
       <c r="L842" t="n">
         <v>3199.3</v>
@@ -43221,7 +43243,7 @@
         <v>5606</v>
       </c>
       <c r="K843" t="n">
-        <v>10.3448275862069</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L843" t="n">
         <v>3199.3</v>
@@ -43272,7 +43294,7 @@
         <v>5606</v>
       </c>
       <c r="K844" t="n">
-        <v>7.142857142857142</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L844" t="n">
         <v>3200.3</v>
@@ -43323,7 +43345,7 @@
         <v>5609</v>
       </c>
       <c r="K845" t="n">
-        <v>11.11111111111111</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L845" t="n">
         <v>3202</v>
@@ -43374,7 +43396,7 @@
         <v>5609</v>
       </c>
       <c r="K846" t="n">
-        <v>5.511811023622047</v>
+        <v>65.51724137931035</v>
       </c>
       <c r="L846" t="n">
         <v>3202.3</v>
@@ -43425,7 +43447,7 @@
         <v>5611</v>
       </c>
       <c r="K847" t="n">
-        <v>8.064516129032258</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L847" t="n">
         <v>3204</v>
@@ -43476,7 +43498,7 @@
         <v>5616</v>
       </c>
       <c r="K848" t="n">
-        <v>6.349206349206349</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L848" t="n">
         <v>3205</v>
@@ -43527,7 +43549,7 @@
         <v>5624</v>
       </c>
       <c r="K849" t="n">
-        <v>9.923664122137405</v>
+        <v>50</v>
       </c>
       <c r="L849" t="n">
         <v>3206.9</v>
@@ -43578,7 +43600,7 @@
         <v>5624</v>
       </c>
       <c r="K850" t="n">
-        <v>0</v>
+        <v>45.94594594594595</v>
       </c>
       <c r="L850" t="n">
         <v>3208.9</v>
@@ -43629,7 +43651,7 @@
         <v>5645</v>
       </c>
       <c r="K851" t="n">
-        <v>-20.30075187969925</v>
+        <v>-10.71428571428571</v>
       </c>
       <c r="L851" t="n">
         <v>3208.5</v>
@@ -43680,7 +43702,7 @@
         <v>5646</v>
       </c>
       <c r="K852" t="n">
-        <v>-13.82113821138211</v>
+        <v>-60</v>
       </c>
       <c r="L852" t="n">
         <v>3207.8</v>
@@ -43731,7 +43753,7 @@
         <v>5654</v>
       </c>
       <c r="K853" t="n">
-        <v>-12.90322580645161</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L853" t="n">
         <v>3206.2</v>
@@ -43782,7 +43804,7 @@
         <v>5654</v>
       </c>
       <c r="K854" t="n">
-        <v>-5.263157894736842</v>
+        <v>-28.88888888888889</v>
       </c>
       <c r="L854" t="n">
         <v>3204.6</v>
@@ -43833,7 +43855,7 @@
         <v>5655</v>
       </c>
       <c r="K855" t="n">
-        <v>4.761904761904762</v>
+        <v>-26.08695652173913</v>
       </c>
       <c r="L855" t="n">
         <v>3203.4</v>
@@ -43884,7 +43906,7 @@
         <v>5662</v>
       </c>
       <c r="K856" t="n">
-        <v>-2.040816326530612</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L856" t="n">
         <v>3202.9</v>
@@ -43935,7 +43957,7 @@
         <v>5663</v>
       </c>
       <c r="K857" t="n">
-        <v>15.66265060240964</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L857" t="n">
         <v>3202.5</v>
@@ -43986,7 +44008,7 @@
         <v>5670</v>
       </c>
       <c r="K858" t="n">
-        <v>4.545454545454546</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L858" t="n">
         <v>3201.9</v>
@@ -44037,7 +44059,7 @@
         <v>5676</v>
       </c>
       <c r="K859" t="n">
-        <v>-1.075268817204301</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L859" t="n">
         <v>3199.9</v>
@@ -44088,7 +44110,7 @@
         <v>5676</v>
       </c>
       <c r="K860" t="n">
-        <v>0</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L860" t="n">
         <v>3197.9</v>
@@ -44139,7 +44161,7 @@
         <v>5683</v>
       </c>
       <c r="K861" t="n">
-        <v>4.166666666666666</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L861" t="n">
         <v>3198.7</v>
@@ -44190,7 +44212,7 @@
         <v>5684</v>
       </c>
       <c r="K862" t="n">
-        <v>1.052631578947368</v>
+        <v>0</v>
       </c>
       <c r="L862" t="n">
         <v>3199.5</v>
@@ -44241,7 +44263,7 @@
         <v>5684</v>
       </c>
       <c r="K863" t="n">
-        <v>-20.51282051282051</v>
+        <v>0</v>
       </c>
       <c r="L863" t="n">
         <v>3199.5</v>
@@ -44292,7 +44314,7 @@
         <v>5695</v>
       </c>
       <c r="K864" t="n">
-        <v>-30.3370786516854</v>
+        <v>-30</v>
       </c>
       <c r="L864" t="n">
         <v>3198.4</v>
@@ -44343,7 +44365,7 @@
         <v>5700</v>
       </c>
       <c r="K865" t="n">
-        <v>-31.86813186813187</v>
+        <v>-63.1578947368421</v>
       </c>
       <c r="L865" t="n">
         <v>3196.7</v>
@@ -44394,7 +44416,7 @@
         <v>5700</v>
       </c>
       <c r="K866" t="n">
-        <v>-31.86813186813187</v>
+        <v>-62.16216216216216</v>
       </c>
       <c r="L866" t="n">
         <v>3194.3</v>
@@ -44445,7 +44467,7 @@
         <v>5707</v>
       </c>
       <c r="K867" t="n">
-        <v>-20.83333333333334</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L867" t="n">
         <v>3192.7</v>
@@ -44496,7 +44518,7 @@
         <v>5717</v>
       </c>
       <c r="K868" t="n">
-        <v>-24.75247524752475</v>
+        <v>-31.70731707317073</v>
       </c>
       <c r="L868" t="n">
         <v>3190.8</v>
@@ -44547,7 +44569,7 @@
         <v>5718</v>
       </c>
       <c r="K869" t="n">
-        <v>-36.17021276595745</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L869" t="n">
         <v>3189.4</v>
@@ -44598,7 +44620,7 @@
         <v>5718</v>
       </c>
       <c r="K870" t="n">
-        <v>-36.17021276595745</v>
+        <v>-60</v>
       </c>
       <c r="L870" t="n">
         <v>3188</v>
@@ -44649,7 +44671,7 @@
         <v>5718</v>
       </c>
       <c r="K871" t="n">
-        <v>-17.80821917808219</v>
+        <v>-58.82352941176471</v>
       </c>
       <c r="L871" t="n">
         <v>3185.9</v>
@@ -44700,7 +44722,7 @@
         <v>5725</v>
       </c>
       <c r="K872" t="n">
-        <v>-24.05063291139241</v>
+        <v>-65.85365853658537</v>
       </c>
       <c r="L872" t="n">
         <v>3183.2</v>
@@ -44751,7 +44773,7 @@
         <v>5732</v>
       </c>
       <c r="K873" t="n">
-        <v>-25.64102564102564</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L873" t="n">
         <v>3181.2</v>
@@ -44802,7 +44824,7 @@
         <v>5739</v>
       </c>
       <c r="K874" t="n">
-        <v>-31.76470588235294</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L874" t="n">
         <v>3179.6</v>
@@ -44853,7 +44875,7 @@
         <v>5740</v>
       </c>
       <c r="K875" t="n">
-        <v>-31.76470588235294</v>
+        <v>-25</v>
       </c>
       <c r="L875" t="n">
         <v>3178.6</v>
@@ -44904,7 +44926,7 @@
         <v>5741</v>
       </c>
       <c r="K876" t="n">
-        <v>-44.30379746835442</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L876" t="n">
         <v>3177.5</v>
@@ -44955,7 +44977,7 @@
         <v>5748</v>
       </c>
       <c r="K877" t="n">
-        <v>-48.23529411764706</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L877" t="n">
         <v>3175</v>
@@ -45006,7 +45028,7 @@
         <v>5763</v>
       </c>
       <c r="K878" t="n">
-        <v>-52.68817204301075</v>
+        <v>-64.44444444444444</v>
       </c>
       <c r="L878" t="n">
         <v>3172</v>
@@ -45057,7 +45079,7 @@
         <v>5766</v>
       </c>
       <c r="K879" t="n">
-        <v>-44.44444444444444</v>
+        <v>-54.16666666666666</v>
       </c>
       <c r="L879" t="n">
         <v>3169.4</v>
@@ -45108,7 +45130,7 @@
         <v>5769</v>
       </c>
       <c r="K880" t="n">
-        <v>-39.78494623655914</v>
+        <v>-45.09803921568628</v>
       </c>
       <c r="L880" t="n">
         <v>3167.1</v>
@@ -45159,7 +45181,7 @@
         <v>5786</v>
       </c>
       <c r="K881" t="n">
-        <v>-26.21359223300971</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="L881" t="n">
         <v>3166.5</v>
@@ -45210,7 +45232,7 @@
         <v>5787</v>
       </c>
       <c r="K882" t="n">
-        <v>-26.21359223300971</v>
+        <v>-12.72727272727273</v>
       </c>
       <c r="L882" t="n">
         <v>3166.5</v>
@@ -45261,7 +45283,7 @@
         <v>5800</v>
       </c>
       <c r="K883" t="n">
-        <v>-34.48275862068966</v>
+        <v>-21.31147540983606</v>
       </c>
       <c r="L883" t="n">
         <v>3164.5</v>
@@ -45312,7 +45334,7 @@
         <v>5802</v>
       </c>
       <c r="K884" t="n">
-        <v>-25.23364485981308</v>
+        <v>-19.35483870967742</v>
       </c>
       <c r="L884" t="n">
         <v>3163.4</v>
@@ -45363,7 +45385,7 @@
         <v>5809</v>
       </c>
       <c r="K885" t="n">
-        <v>-13.76146788990826</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L885" t="n">
         <v>3162.9</v>
@@ -45414,7 +45436,7 @@
         <v>5812</v>
       </c>
       <c r="K886" t="n">
-        <v>-10.71428571428571</v>
+        <v>9.375</v>
       </c>
       <c r="L886" t="n">
         <v>3162.8</v>
@@ -45465,7 +45487,7 @@
         <v>5817</v>
       </c>
       <c r="K887" t="n">
-        <v>-21.81818181818182</v>
+        <v>29.62962962962963</v>
       </c>
       <c r="L887" t="n">
         <v>3162.9</v>
@@ -45516,7 +45538,7 @@
         <v>5821</v>
       </c>
       <c r="K888" t="n">
-        <v>-9.615384615384617</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="L888" t="n">
         <v>3164.9</v>
@@ -45567,7 +45589,7 @@
         <v>5843</v>
       </c>
       <c r="K889" t="n">
-        <v>10.4</v>
+        <v>48.64864864864865</v>
       </c>
       <c r="L889" t="n">
         <v>3168.8</v>
@@ -45618,7 +45640,7 @@
         <v>5859</v>
       </c>
       <c r="K890" t="n">
-        <v>-2.127659574468085</v>
+        <v>4.10958904109589</v>
       </c>
       <c r="L890" t="n">
         <v>3170.8</v>
@@ -45669,7 +45691,7 @@
         <v>5864</v>
       </c>
       <c r="K891" t="n">
-        <v>1.36986301369863</v>
+        <v>11.68831168831169</v>
       </c>
       <c r="L891" t="n">
         <v>3171.6</v>
@@ -45720,7 +45742,7 @@
         <v>5870</v>
       </c>
       <c r="K892" t="n">
-        <v>2.068965517241379</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="L892" t="n">
         <v>3171.9</v>
@@ -45771,7 +45793,7 @@
         <v>5872</v>
       </c>
       <c r="K893" t="n">
-        <v>-4.285714285714286</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="L893" t="n">
         <v>3173.3</v>
@@ -45822,7 +45844,7 @@
         <v>5879</v>
       </c>
       <c r="K894" t="n">
-        <v>-4.285714285714286</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L894" t="n">
         <v>3173.8</v>
@@ -45873,7 +45895,7 @@
         <v>5883</v>
       </c>
       <c r="K895" t="n">
-        <v>-2.097902097902098</v>
+        <v>-1.408450704225352</v>
       </c>
       <c r="L895" t="n">
         <v>3174</v>
@@ -45924,7 +45946,7 @@
         <v>5896</v>
       </c>
       <c r="K896" t="n">
-        <v>7.096774193548387</v>
+        <v>21.51898734177215</v>
       </c>
       <c r="L896" t="n">
         <v>3175.2</v>
@@ -45975,7 +45997,7 @@
         <v>5905</v>
       </c>
       <c r="K897" t="n">
-        <v>5.732484076433122</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L897" t="n">
         <v>3176</v>
@@ -46026,7 +46048,7 @@
         <v>5907</v>
       </c>
       <c r="K898" t="n">
-        <v>15.27777777777778</v>
+        <v>-31.25</v>
       </c>
       <c r="L898" t="n">
         <v>3176.2</v>
@@ -46077,7 +46099,7 @@
         <v>5907</v>
       </c>
       <c r="K899" t="n">
-        <v>13.47517730496454</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L899" t="n">
         <v>3174.2</v>

--- a/BackTest/2019-10-11 BackTest LINK.xlsx
+++ b/BackTest/2019-10-11 BackTest LINK.xlsx
@@ -451,17 +451,13 @@
         <v>3019.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>3001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3001</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>3019.016666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>3002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3001</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>3018.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>3002</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3001</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>3018.216666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>3003</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3003</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>3017.85</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>3003</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>3017.333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>3003</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,22 +661,14 @@
         <v>3016.583333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>3001</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -744,22 +696,14 @@
         <v>3016</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>3009</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -787,22 +731,14 @@
         <v>3015.616666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>3011</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -830,22 +766,14 @@
         <v>3015.583333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>3013</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -873,22 +801,14 @@
         <v>3015.616666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>3018</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -916,22 +836,14 @@
         <v>3015.716666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>3019</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -959,22 +871,14 @@
         <v>3015.716666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>3021</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1002,22 +906,14 @@
         <v>3016.083333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>3024</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1045,22 +941,14 @@
         <v>3016.466666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>3040</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1088,22 +976,14 @@
         <v>3016.9</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>3041</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1131,22 +1011,14 @@
         <v>3017.283333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>3044</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1174,22 +1046,14 @@
         <v>3017.416666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>3041</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1217,22 +1081,14 @@
         <v>3017.666666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>3036</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1260,22 +1116,14 @@
         <v>3018.016666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>3036</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1303,22 +1151,14 @@
         <v>3018.75</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>3044</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1346,22 +1186,14 @@
         <v>3019.6</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>3046</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1389,22 +1221,14 @@
         <v>3020.483333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>3050</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1432,22 +1256,14 @@
         <v>3020.766666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>3046</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1481,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1522,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1563,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1604,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1645,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1686,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1727,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1768,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1809,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1850,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1891,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1932,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1973,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2014,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2055,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2096,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2137,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2178,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2219,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2260,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2301,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2342,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2383,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2424,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2465,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2506,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2547,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2588,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2629,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2670,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2711,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2752,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2793,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2834,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2875,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2916,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2957,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2998,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3036,17 +2624,11 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3077,17 +2659,11 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3118,17 +2694,11 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3162,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3200,17 +2764,11 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3241,17 +2799,11 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3285,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3323,19 +2869,13 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>3003</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>1.060601065601066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3364,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3399,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3434,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3469,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3504,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3574,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -6861,13 +6401,17 @@
         <v>3175.016666666667</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3142</v>
+      </c>
+      <c r="K172" t="n">
+        <v>3142</v>
+      </c>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
@@ -6902,8 +6446,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>3142</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6937,8 +6487,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>3142</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -14319,7 +13875,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
@@ -14354,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
@@ -19916,13 +19472,17 @@
         <v>3122.216666666667</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
       </c>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>3077</v>
+      </c>
+      <c r="K545" t="n">
+        <v>3077</v>
+      </c>
       <c r="L545" t="inlineStr"/>
       <c r="M545" t="n">
         <v>1</v>
@@ -19951,14 +19511,22 @@
         <v>3121.083333333333</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
       </c>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>3085</v>
+      </c>
+      <c r="K546" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19986,14 +19554,22 @@
         <v>3120.233333333333</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
       </c>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>3086</v>
+      </c>
+      <c r="K547" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20021,14 +19597,22 @@
         <v>3119.45</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
       </c>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>3077</v>
+      </c>
+      <c r="K548" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20056,14 +19640,22 @@
         <v>3119.116666666667</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
       </c>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>3085</v>
+      </c>
+      <c r="K549" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20091,14 +19683,22 @@
         <v>3118.583333333333</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
       </c>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>3090</v>
+      </c>
+      <c r="K550" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20126,14 +19726,22 @@
         <v>3118.116666666667</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
       </c>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>3091</v>
+      </c>
+      <c r="K551" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20161,14 +19769,22 @@
         <v>3117.2</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
       </c>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>3091</v>
+      </c>
+      <c r="K552" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20196,14 +19812,22 @@
         <v>3116.566666666667</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
       </c>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>3103</v>
+      </c>
+      <c r="K553" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20237,8 +19861,14 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20272,8 +19902,14 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20307,8 +19943,14 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20342,8 +19984,14 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20377,8 +20025,14 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20412,8 +20066,14 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20447,8 +20107,14 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20482,8 +20148,14 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20517,8 +20189,14 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20552,8 +20230,14 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20587,8 +20271,14 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20622,8 +20312,14 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20657,8 +20353,14 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20692,8 +20394,14 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20727,8 +20435,14 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20762,8 +20476,14 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20797,8 +20517,14 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20832,8 +20558,14 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20867,8 +20599,14 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -20902,8 +20640,14 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -20937,8 +20681,14 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -20972,8 +20722,14 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="K575" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21007,8 +20763,14 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="K576" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21042,8 +20804,14 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="K577" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21077,8 +20845,14 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="K578" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21112,8 +20886,14 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="K579" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21147,8 +20927,14 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="K580" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21182,8 +20968,14 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="K581" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21217,8 +21009,14 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="K582" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21252,8 +21050,14 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="K583" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21287,8 +21091,14 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="K584" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21322,8 +21132,14 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="K585" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21357,8 +21173,14 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="K586" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21392,8 +21214,14 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="K587" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21427,8 +21255,14 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="K588" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21462,8 +21296,14 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="K589" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21497,8 +21337,14 @@
         <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="K590" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21532,8 +21378,14 @@
         <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="K591" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21567,8 +21419,14 @@
         <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="K592" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21602,8 +21460,14 @@
         <v>0</v>
       </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="K593" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21637,8 +21501,14 @@
         <v>0</v>
       </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="K594" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21672,8 +21542,14 @@
         <v>0</v>
       </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="K595" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21707,8 +21583,14 @@
         <v>0</v>
       </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="K596" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -21742,8 +21624,14 @@
         <v>0</v>
       </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="K597" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -21777,8 +21665,14 @@
         <v>0</v>
       </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="K598" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -21812,8 +21706,14 @@
         <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="K599" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -21847,8 +21747,14 @@
         <v>0</v>
       </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="K600" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -21882,8 +21788,14 @@
         <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="K601" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -21917,8 +21829,14 @@
         <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="K602" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -21952,8 +21870,14 @@
         <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="K603" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -21987,8 +21911,14 @@
         <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="K604" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -22022,8 +21952,14 @@
         <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="K605" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22057,8 +21993,14 @@
         <v>0</v>
       </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="K606" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22092,8 +22034,14 @@
         <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="K607" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22127,8 +22075,14 @@
         <v>0</v>
       </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="K608" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22162,8 +22116,14 @@
         <v>0</v>
       </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="K609" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22197,8 +22157,14 @@
         <v>0</v>
       </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="K610" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22232,8 +22198,14 @@
         <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="K611" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -22267,8 +22239,14 @@
         <v>0</v>
       </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="K612" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -22302,8 +22280,14 @@
         <v>0</v>
       </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="K613" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -22337,8 +22321,14 @@
         <v>0</v>
       </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="K614" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -22372,8 +22362,14 @@
         <v>0</v>
       </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="K615" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -22401,14 +22397,22 @@
         <v>3111.533333333333</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
       </c>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>3090</v>
+      </c>
+      <c r="K616" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -22442,8 +22446,14 @@
         <v>0</v>
       </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="K617" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22477,8 +22487,14 @@
         <v>0</v>
       </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="K618" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -22512,8 +22528,14 @@
         <v>0</v>
       </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="K619" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -22547,8 +22569,14 @@
         <v>0</v>
       </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="K620" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -22582,8 +22610,14 @@
         <v>0</v>
       </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="K621" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -22617,8 +22651,14 @@
         <v>0</v>
       </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="K622" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -22652,8 +22692,14 @@
         <v>0</v>
       </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="K623" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -22687,8 +22733,14 @@
         <v>0</v>
       </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="K624" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -22722,8 +22774,14 @@
         <v>0</v>
       </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="K625" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -22757,8 +22815,14 @@
         <v>0</v>
       </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="K626" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -22792,8 +22856,14 @@
         <v>0</v>
       </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="K627" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -22827,8 +22897,14 @@
         <v>0</v>
       </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="K628" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -22862,8 +22938,14 @@
         <v>0</v>
       </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="K629" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -22897,8 +22979,14 @@
         <v>0</v>
       </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="K630" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -22932,8 +23020,14 @@
         <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="K631" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -22967,8 +23061,14 @@
         <v>0</v>
       </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="K632" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -23002,8 +23102,14 @@
         <v>0</v>
       </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="K633" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -23037,8 +23143,14 @@
         <v>0</v>
       </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="K634" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23072,8 +23184,14 @@
         <v>0</v>
       </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="K635" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23107,8 +23225,14 @@
         <v>0</v>
       </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="K636" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23142,8 +23266,14 @@
         <v>0</v>
       </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="K637" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23177,8 +23307,14 @@
         <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="K638" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23212,8 +23348,14 @@
         <v>0</v>
       </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="K639" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23247,8 +23389,14 @@
         <v>0</v>
       </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="K640" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23282,8 +23430,14 @@
         <v>0</v>
       </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="K641" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23317,8 +23471,14 @@
         <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="K642" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -23352,8 +23512,14 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="K643" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -23387,8 +23553,14 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="K644" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -23422,8 +23594,14 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="K645" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -23457,8 +23635,14 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="K646" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23492,8 +23676,14 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="K647" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -23527,8 +23717,14 @@
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="K648" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -23562,8 +23758,14 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="K649" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -23597,8 +23799,14 @@
         <v>0</v>
       </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="K650" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -23632,8 +23840,14 @@
         <v>0</v>
       </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="K651" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -23667,8 +23881,14 @@
         <v>0</v>
       </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="K652" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -23702,8 +23922,14 @@
         <v>0</v>
       </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="K653" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -23737,8 +23963,14 @@
         <v>0</v>
       </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="K654" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -23772,8 +24004,14 @@
         <v>0</v>
       </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="K655" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -23807,8 +24045,14 @@
         <v>0</v>
       </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="K656" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -23842,8 +24086,14 @@
         <v>0</v>
       </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="K657" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -23877,8 +24127,14 @@
         <v>0</v>
       </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="K658" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -23912,8 +24168,14 @@
         <v>0</v>
       </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="K659" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -23947,8 +24209,14 @@
         <v>0</v>
       </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="K660" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -23982,8 +24250,14 @@
         <v>0</v>
       </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="K661" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -24017,8 +24291,14 @@
         <v>0</v>
       </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="K662" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -24052,8 +24332,14 @@
         <v>0</v>
       </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="K663" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -24087,8 +24373,14 @@
         <v>0</v>
       </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="K664" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -24122,8 +24414,14 @@
         <v>0</v>
       </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="K665" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -24157,8 +24455,14 @@
         <v>0</v>
       </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="K666" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -24192,8 +24496,14 @@
         <v>0</v>
       </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="K667" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24227,8 +24537,14 @@
         <v>0</v>
       </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="K668" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -24262,8 +24578,14 @@
         <v>0</v>
       </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="K669" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -24297,8 +24619,14 @@
         <v>0</v>
       </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="K670" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -24332,8 +24660,14 @@
         <v>0</v>
       </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="K671" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -24367,8 +24701,14 @@
         <v>0</v>
       </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="K672" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -24402,8 +24742,14 @@
         <v>0</v>
       </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="K673" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -24437,8 +24783,14 @@
         <v>0</v>
       </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="K674" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -24472,8 +24824,14 @@
         <v>0</v>
       </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="K675" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -24507,8 +24865,14 @@
         <v>0</v>
       </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="K676" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -24542,8 +24906,14 @@
         <v>0</v>
       </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="K677" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -24577,8 +24947,14 @@
         <v>0</v>
       </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="K678" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -24612,8 +24988,14 @@
         <v>0</v>
       </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="K679" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -24647,8 +25029,14 @@
         <v>0</v>
       </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="K680" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -24682,8 +25070,14 @@
         <v>0</v>
       </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="K681" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -24717,8 +25111,14 @@
         <v>0</v>
       </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="K682" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -24752,8 +25152,14 @@
         <v>0</v>
       </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="K683" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -24787,8 +25193,14 @@
         <v>0</v>
       </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="K684" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -24822,8 +25234,14 @@
         <v>0</v>
       </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="K685" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -24857,8 +25275,14 @@
         <v>0</v>
       </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="K686" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -24892,8 +25316,14 @@
         <v>0</v>
       </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="K687" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -24927,8 +25357,14 @@
         <v>0</v>
       </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="K688" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -24962,8 +25398,14 @@
         <v>0</v>
       </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="K689" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -24997,8 +25439,14 @@
         <v>0</v>
       </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="K690" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -25032,8 +25480,14 @@
         <v>0</v>
       </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="K691" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -25067,8 +25521,14 @@
         <v>0</v>
       </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="K692" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -25102,8 +25562,14 @@
         <v>0</v>
       </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="K693" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -25134,11 +25600,17 @@
         <v>0</v>
       </c>
       <c r="I694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="K694" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -25169,11 +25641,17 @@
         <v>0</v>
       </c>
       <c r="I695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="K695" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -25204,11 +25682,17 @@
         <v>0</v>
       </c>
       <c r="I696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="K696" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -25239,11 +25723,17 @@
         <v>0</v>
       </c>
       <c r="I697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="K697" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -25277,8 +25767,14 @@
         <v>0</v>
       </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="K698" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -25312,8 +25808,14 @@
         <v>0</v>
       </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="K699" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -25347,8 +25849,14 @@
         <v>0</v>
       </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="K700" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -25382,8 +25890,14 @@
         <v>0</v>
       </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="K701" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -25417,8 +25931,14 @@
         <v>0</v>
       </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="K702" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -25452,8 +25972,14 @@
         <v>0</v>
       </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="K703" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -25487,8 +26013,14 @@
         <v>0</v>
       </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="K704" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -25522,8 +26054,14 @@
         <v>0</v>
       </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="K705" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -25557,8 +26095,14 @@
         <v>0</v>
       </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="K706" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -25592,8 +26136,14 @@
         <v>0</v>
       </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="K707" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -25627,8 +26177,14 @@
         <v>0</v>
       </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="K708" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -25662,8 +26218,14 @@
         <v>0</v>
       </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="K709" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -25697,8 +26259,14 @@
         <v>0</v>
       </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="K710" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -25732,8 +26300,14 @@
         <v>0</v>
       </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="K711" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -25767,8 +26341,14 @@
         <v>0</v>
       </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="K712" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -25802,8 +26382,14 @@
         <v>0</v>
       </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="K713" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -25837,8 +26423,14 @@
         <v>0</v>
       </c>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="K714" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -25872,8 +26464,14 @@
         <v>0</v>
       </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="K715" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -25907,8 +26505,14 @@
         <v>0</v>
       </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="K716" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -25942,8 +26546,14 @@
         <v>0</v>
       </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="K717" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -25977,8 +26587,14 @@
         <v>0</v>
       </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="K718" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -26012,8 +26628,14 @@
         <v>0</v>
       </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="K719" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -26047,8 +26669,14 @@
         <v>0</v>
       </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="K720" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -26082,8 +26710,14 @@
         <v>0</v>
       </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="K721" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -26117,8 +26751,14 @@
         <v>0</v>
       </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="K722" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -26152,8 +26792,14 @@
         <v>0</v>
       </c>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="K723" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -26187,8 +26833,14 @@
         <v>0</v>
       </c>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="K724" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -26222,8 +26874,14 @@
         <v>0</v>
       </c>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="K725" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -26257,8 +26915,14 @@
         <v>0</v>
       </c>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="K726" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -26292,8 +26956,14 @@
         <v>0</v>
       </c>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="K727" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -26327,8 +26997,14 @@
         <v>0</v>
       </c>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="K728" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -26362,8 +27038,14 @@
         <v>0</v>
       </c>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="K729" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -26397,8 +27079,14 @@
         <v>0</v>
       </c>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="K730" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -26432,8 +27120,14 @@
         <v>0</v>
       </c>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="K731" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -26467,8 +27161,14 @@
         <v>0</v>
       </c>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="K732" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -26502,8 +27202,14 @@
         <v>0</v>
       </c>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr"/>
+      <c r="K733" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -26537,8 +27243,14 @@
         <v>0</v>
       </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr"/>
+      <c r="K734" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -26572,8 +27284,14 @@
         <v>0</v>
       </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr"/>
+      <c r="K735" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -26607,8 +27325,14 @@
         <v>0</v>
       </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="K736" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -26642,8 +27366,14 @@
         <v>0</v>
       </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="K737" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -26677,8 +27407,14 @@
         <v>0</v>
       </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="K738" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -26712,8 +27448,14 @@
         <v>0</v>
       </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="K739" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -26747,8 +27489,14 @@
         <v>0</v>
       </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="K740" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -26782,8 +27530,14 @@
         <v>0</v>
       </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="K741" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -26817,8 +27571,14 @@
         <v>0</v>
       </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="K742" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -26852,8 +27612,14 @@
         <v>0</v>
       </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="K743" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -26887,8 +27653,14 @@
         <v>0</v>
       </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="K744" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -26922,8 +27694,14 @@
         <v>0</v>
       </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="K745" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -26957,8 +27735,14 @@
         <v>0</v>
       </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="K746" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -26992,8 +27776,14 @@
         <v>0</v>
       </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="K747" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -27027,8 +27817,14 @@
         <v>0</v>
       </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="K748" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -27062,8 +27858,14 @@
         <v>0</v>
       </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="K749" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -27097,8 +27899,14 @@
         <v>0</v>
       </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="K750" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -27132,8 +27940,14 @@
         <v>0</v>
       </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="K751" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -27167,8 +27981,14 @@
         <v>0</v>
       </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="K752" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -27202,8 +28022,14 @@
         <v>0</v>
       </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="K753" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -27237,8 +28063,14 @@
         <v>0</v>
       </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="K754" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -27272,8 +28104,14 @@
         <v>0</v>
       </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="K755" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -27307,8 +28145,14 @@
         <v>0</v>
       </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="K756" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -27342,8 +28186,14 @@
         <v>0</v>
       </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="K757" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -27377,8 +28227,14 @@
         <v>0</v>
       </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="K758" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -27412,8 +28268,14 @@
         <v>0</v>
       </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="K759" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -27447,8 +28309,14 @@
         <v>0</v>
       </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="K760" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -27482,8 +28350,14 @@
         <v>0</v>
       </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="K761" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -27517,8 +28391,14 @@
         <v>0</v>
       </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="K762" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -27552,8 +28432,14 @@
         <v>0</v>
       </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="K763" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -27587,8 +28473,14 @@
         <v>0</v>
       </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="K764" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -27622,8 +28514,14 @@
         <v>0</v>
       </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="K765" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -27657,8 +28555,14 @@
         <v>0</v>
       </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="K766" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -27692,8 +28596,14 @@
         <v>0</v>
       </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="K767" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -27727,8 +28637,14 @@
         <v>0</v>
       </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
+      <c r="K768" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -27762,8 +28678,14 @@
         <v>0</v>
       </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
+      <c r="K769" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -27797,8 +28719,14 @@
         <v>0</v>
       </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="K770" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -27832,8 +28760,14 @@
         <v>0</v>
       </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr"/>
+      <c r="K771" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -27867,8 +28801,14 @@
         <v>0</v>
       </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr"/>
+      <c r="K772" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -27902,8 +28842,14 @@
         <v>0</v>
       </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr"/>
+      <c r="K773" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -27937,8 +28883,14 @@
         <v>0</v>
       </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr"/>
+      <c r="K774" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M774" t="n">
         <v>1</v>
       </c>
@@ -27972,8 +28924,14 @@
         <v>0</v>
       </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr"/>
+      <c r="K775" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M775" t="n">
         <v>1</v>
       </c>
@@ -28007,8 +28965,14 @@
         <v>0</v>
       </c>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr"/>
+      <c r="K776" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M776" t="n">
         <v>1</v>
       </c>
@@ -28042,8 +29006,14 @@
         <v>0</v>
       </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr"/>
+      <c r="K777" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M777" t="n">
         <v>1</v>
       </c>
@@ -28077,8 +29047,14 @@
         <v>0</v>
       </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr"/>
+      <c r="K778" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -28112,8 +29088,14 @@
         <v>0</v>
       </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr"/>
+      <c r="K779" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -28147,8 +29129,14 @@
         <v>0</v>
       </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr"/>
+      <c r="K780" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -28182,8 +29170,14 @@
         <v>0</v>
       </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr"/>
+      <c r="K781" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -28217,8 +29211,14 @@
         <v>0</v>
       </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr"/>
+      <c r="K782" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -28252,8 +29252,14 @@
         <v>0</v>
       </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr"/>
+      <c r="K783" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -28287,8 +29293,14 @@
         <v>0</v>
       </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr"/>
+      <c r="K784" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -28322,8 +29334,14 @@
         <v>0</v>
       </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr"/>
+      <c r="K785" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -28357,8 +29375,14 @@
         <v>0</v>
       </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr"/>
+      <c r="K786" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -28392,8 +29416,14 @@
         <v>0</v>
       </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
-      <c r="L787" t="inlineStr"/>
+      <c r="K787" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M787" t="n">
         <v>1</v>
       </c>
@@ -28427,8 +29457,14 @@
         <v>0</v>
       </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr"/>
+      <c r="K788" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -28462,8 +29498,14 @@
         <v>0</v>
       </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr"/>
+      <c r="K789" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -28497,8 +29539,14 @@
         <v>0</v>
       </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr"/>
+      <c r="K790" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M790" t="n">
         <v>1</v>
       </c>
@@ -28532,8 +29580,14 @@
         <v>0</v>
       </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr"/>
+      <c r="K791" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -28567,8 +29621,14 @@
         <v>0</v>
       </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr"/>
+      <c r="K792" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M792" t="n">
         <v>1</v>
       </c>
@@ -28602,8 +29662,14 @@
         <v>0</v>
       </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
-      <c r="L793" t="inlineStr"/>
+      <c r="K793" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M793" t="n">
         <v>1</v>
       </c>
@@ -28637,8 +29703,14 @@
         <v>0</v>
       </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr"/>
+      <c r="K794" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M794" t="n">
         <v>1</v>
       </c>
@@ -28672,8 +29744,14 @@
         <v>0</v>
       </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr"/>
+      <c r="K795" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M795" t="n">
         <v>1</v>
       </c>
@@ -28707,8 +29785,14 @@
         <v>0</v>
       </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
-      <c r="L796" t="inlineStr"/>
+      <c r="K796" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M796" t="n">
         <v>1</v>
       </c>
@@ -28742,8 +29826,14 @@
         <v>0</v>
       </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr"/>
+      <c r="K797" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M797" t="n">
         <v>1</v>
       </c>
@@ -28777,8 +29867,14 @@
         <v>0</v>
       </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
-      <c r="L798" t="inlineStr"/>
+      <c r="K798" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -28812,8 +29908,14 @@
         <v>0</v>
       </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
-      <c r="L799" t="inlineStr"/>
+      <c r="K799" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M799" t="n">
         <v>1</v>
       </c>
@@ -28847,8 +29949,14 @@
         <v>0</v>
       </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
-      <c r="L800" t="inlineStr"/>
+      <c r="K800" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M800" t="n">
         <v>1</v>
       </c>
@@ -28882,8 +29990,14 @@
         <v>0</v>
       </c>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
-      <c r="L801" t="inlineStr"/>
+      <c r="K801" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M801" t="n">
         <v>1</v>
       </c>
@@ -28917,8 +30031,14 @@
         <v>0</v>
       </c>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
-      <c r="L802" t="inlineStr"/>
+      <c r="K802" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M802" t="n">
         <v>1</v>
       </c>
@@ -28952,8 +30072,14 @@
         <v>0</v>
       </c>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
-      <c r="L803" t="inlineStr"/>
+      <c r="K803" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -28987,8 +30113,14 @@
         <v>0</v>
       </c>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
-      <c r="L804" t="inlineStr"/>
+      <c r="K804" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -29022,8 +30154,14 @@
         <v>0</v>
       </c>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
-      <c r="L805" t="inlineStr"/>
+      <c r="K805" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M805" t="n">
         <v>1</v>
       </c>
@@ -29057,8 +30195,14 @@
         <v>0</v>
       </c>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
-      <c r="L806" t="inlineStr"/>
+      <c r="K806" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M806" t="n">
         <v>1</v>
       </c>
@@ -29092,8 +30236,14 @@
         <v>0</v>
       </c>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
-      <c r="L807" t="inlineStr"/>
+      <c r="K807" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M807" t="n">
         <v>1</v>
       </c>
@@ -29127,8 +30277,14 @@
         <v>0</v>
       </c>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
-      <c r="L808" t="inlineStr"/>
+      <c r="K808" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M808" t="n">
         <v>1</v>
       </c>
@@ -29162,8 +30318,14 @@
         <v>0</v>
       </c>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr"/>
+      <c r="K809" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -29197,8 +30359,14 @@
         <v>0</v>
       </c>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr"/>
+      <c r="K810" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -29232,8 +30400,14 @@
         <v>0</v>
       </c>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr"/>
+      <c r="K811" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -29267,8 +30441,14 @@
         <v>0</v>
       </c>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr"/>
+      <c r="K812" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M812" t="n">
         <v>1</v>
       </c>
@@ -29302,8 +30482,14 @@
         <v>0</v>
       </c>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
-      <c r="L813" t="inlineStr"/>
+      <c r="K813" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M813" t="n">
         <v>1</v>
       </c>
@@ -29337,8 +30523,14 @@
         <v>0</v>
       </c>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
-      <c r="L814" t="inlineStr"/>
+      <c r="K814" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M814" t="n">
         <v>1</v>
       </c>
@@ -29372,8 +30564,14 @@
         <v>0</v>
       </c>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
-      <c r="L815" t="inlineStr"/>
+      <c r="K815" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M815" t="n">
         <v>1</v>
       </c>
@@ -29407,8 +30605,14 @@
         <v>0</v>
       </c>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
-      <c r="L816" t="inlineStr"/>
+      <c r="K816" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M816" t="n">
         <v>1</v>
       </c>
@@ -29442,8 +30646,14 @@
         <v>0</v>
       </c>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr"/>
+      <c r="K817" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M817" t="n">
         <v>1</v>
       </c>
@@ -29477,8 +30687,14 @@
         <v>0</v>
       </c>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
-      <c r="L818" t="inlineStr"/>
+      <c r="K818" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M818" t="n">
         <v>1</v>
       </c>
@@ -29512,8 +30728,14 @@
         <v>0</v>
       </c>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
-      <c r="L819" t="inlineStr"/>
+      <c r="K819" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M819" t="n">
         <v>1</v>
       </c>
@@ -29547,8 +30769,14 @@
         <v>0</v>
       </c>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
-      <c r="L820" t="inlineStr"/>
+      <c r="K820" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M820" t="n">
         <v>1</v>
       </c>
@@ -29582,8 +30810,14 @@
         <v>0</v>
       </c>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
-      <c r="L821" t="inlineStr"/>
+      <c r="K821" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M821" t="n">
         <v>1</v>
       </c>
@@ -29617,8 +30851,14 @@
         <v>0</v>
       </c>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
-      <c r="L822" t="inlineStr"/>
+      <c r="K822" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M822" t="n">
         <v>1</v>
       </c>
@@ -29652,8 +30892,14 @@
         <v>0</v>
       </c>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
-      <c r="L823" t="inlineStr"/>
+      <c r="K823" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M823" t="n">
         <v>1</v>
       </c>
@@ -29687,8 +30933,14 @@
         <v>0</v>
       </c>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
-      <c r="L824" t="inlineStr"/>
+      <c r="K824" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M824" t="n">
         <v>1</v>
       </c>
@@ -29722,8 +30974,14 @@
         <v>0</v>
       </c>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
-      <c r="L825" t="inlineStr"/>
+      <c r="K825" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M825" t="n">
         <v>1</v>
       </c>
@@ -29757,8 +31015,14 @@
         <v>0</v>
       </c>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
-      <c r="L826" t="inlineStr"/>
+      <c r="K826" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M826" t="n">
         <v>1</v>
       </c>
@@ -29792,8 +31056,14 @@
         <v>0</v>
       </c>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
-      <c r="L827" t="inlineStr"/>
+      <c r="K827" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M827" t="n">
         <v>1</v>
       </c>
@@ -29827,8 +31097,14 @@
         <v>0</v>
       </c>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
-      <c r="L828" t="inlineStr"/>
+      <c r="K828" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M828" t="n">
         <v>1</v>
       </c>
@@ -29862,8 +31138,14 @@
         <v>0</v>
       </c>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
-      <c r="L829" t="inlineStr"/>
+      <c r="K829" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M829" t="n">
         <v>1</v>
       </c>
@@ -29897,8 +31179,14 @@
         <v>0</v>
       </c>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
-      <c r="L830" t="inlineStr"/>
+      <c r="K830" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M830" t="n">
         <v>1</v>
       </c>
@@ -29932,8 +31220,14 @@
         <v>0</v>
       </c>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
-      <c r="L831" t="inlineStr"/>
+      <c r="K831" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M831" t="n">
         <v>1</v>
       </c>
@@ -29967,8 +31261,14 @@
         <v>0</v>
       </c>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
-      <c r="L832" t="inlineStr"/>
+      <c r="K832" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M832" t="n">
         <v>1</v>
       </c>
@@ -30002,8 +31302,14 @@
         <v>0</v>
       </c>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
-      <c r="L833" t="inlineStr"/>
+      <c r="K833" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M833" t="n">
         <v>1</v>
       </c>
@@ -30037,8 +31343,14 @@
         <v>0</v>
       </c>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
-      <c r="L834" t="inlineStr"/>
+      <c r="K834" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M834" t="n">
         <v>1</v>
       </c>
@@ -30072,8 +31384,14 @@
         <v>0</v>
       </c>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
-      <c r="L835" t="inlineStr"/>
+      <c r="K835" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M835" t="n">
         <v>1</v>
       </c>
@@ -30107,8 +31425,14 @@
         <v>0</v>
       </c>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
-      <c r="L836" t="inlineStr"/>
+      <c r="K836" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M836" t="n">
         <v>1</v>
       </c>
@@ -30142,8 +31466,14 @@
         <v>0</v>
       </c>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
-      <c r="L837" t="inlineStr"/>
+      <c r="K837" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M837" t="n">
         <v>1</v>
       </c>
@@ -30177,8 +31507,14 @@
         <v>0</v>
       </c>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
-      <c r="L838" t="inlineStr"/>
+      <c r="K838" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M838" t="n">
         <v>1</v>
       </c>
@@ -30212,8 +31548,14 @@
         <v>0</v>
       </c>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
-      <c r="L839" t="inlineStr"/>
+      <c r="K839" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M839" t="n">
         <v>1</v>
       </c>
@@ -30247,8 +31589,14 @@
         <v>0</v>
       </c>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
-      <c r="L840" t="inlineStr"/>
+      <c r="K840" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M840" t="n">
         <v>1</v>
       </c>
@@ -30282,8 +31630,14 @@
         <v>0</v>
       </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
-      <c r="L841" t="inlineStr"/>
+      <c r="K841" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M841" t="n">
         <v>1</v>
       </c>
@@ -30317,8 +31671,14 @@
         <v>0</v>
       </c>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
-      <c r="L842" t="inlineStr"/>
+      <c r="K842" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M842" t="n">
         <v>1</v>
       </c>
@@ -30352,8 +31712,14 @@
         <v>0</v>
       </c>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
-      <c r="L843" t="inlineStr"/>
+      <c r="K843" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M843" t="n">
         <v>1</v>
       </c>
@@ -30387,8 +31753,14 @@
         <v>0</v>
       </c>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
-      <c r="L844" t="inlineStr"/>
+      <c r="K844" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M844" t="n">
         <v>1</v>
       </c>
@@ -30422,8 +31794,14 @@
         <v>0</v>
       </c>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
-      <c r="L845" t="inlineStr"/>
+      <c r="K845" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M845" t="n">
         <v>1</v>
       </c>
@@ -30457,8 +31835,14 @@
         <v>0</v>
       </c>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
-      <c r="L846" t="inlineStr"/>
+      <c r="K846" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M846" t="n">
         <v>1</v>
       </c>
@@ -30492,8 +31876,14 @@
         <v>0</v>
       </c>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
-      <c r="L847" t="inlineStr"/>
+      <c r="K847" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M847" t="n">
         <v>1</v>
       </c>
@@ -30527,8 +31917,14 @@
         <v>0</v>
       </c>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
-      <c r="L848" t="inlineStr"/>
+      <c r="K848" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M848" t="n">
         <v>1</v>
       </c>
@@ -30562,8 +31958,14 @@
         <v>0</v>
       </c>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
-      <c r="L849" t="inlineStr"/>
+      <c r="K849" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M849" t="n">
         <v>1</v>
       </c>
@@ -30597,8 +31999,14 @@
         <v>0</v>
       </c>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
-      <c r="L850" t="inlineStr"/>
+      <c r="K850" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M850" t="n">
         <v>1</v>
       </c>
@@ -30632,8 +32040,14 @@
         <v>0</v>
       </c>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
-      <c r="L851" t="inlineStr"/>
+      <c r="K851" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M851" t="n">
         <v>1</v>
       </c>
@@ -30667,8 +32081,14 @@
         <v>0</v>
       </c>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
-      <c r="L852" t="inlineStr"/>
+      <c r="K852" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M852" t="n">
         <v>1</v>
       </c>
@@ -30702,8 +32122,14 @@
         <v>0</v>
       </c>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
-      <c r="L853" t="inlineStr"/>
+      <c r="K853" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M853" t="n">
         <v>1</v>
       </c>
@@ -30737,8 +32163,14 @@
         <v>0</v>
       </c>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
-      <c r="L854" t="inlineStr"/>
+      <c r="K854" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M854" t="n">
         <v>1</v>
       </c>
@@ -30772,8 +32204,14 @@
         <v>0</v>
       </c>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
-      <c r="L855" t="inlineStr"/>
+      <c r="K855" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M855" t="n">
         <v>1</v>
       </c>
@@ -30807,8 +32245,14 @@
         <v>0</v>
       </c>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
-      <c r="L856" t="inlineStr"/>
+      <c r="K856" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M856" t="n">
         <v>1</v>
       </c>
@@ -30842,8 +32286,14 @@
         <v>0</v>
       </c>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
-      <c r="L857" t="inlineStr"/>
+      <c r="K857" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M857" t="n">
         <v>1</v>
       </c>
@@ -30877,8 +32327,14 @@
         <v>0</v>
       </c>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
-      <c r="L858" t="inlineStr"/>
+      <c r="K858" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M858" t="n">
         <v>1</v>
       </c>
@@ -30912,8 +32368,14 @@
         <v>0</v>
       </c>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
-      <c r="L859" t="inlineStr"/>
+      <c r="K859" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M859" t="n">
         <v>1</v>
       </c>
@@ -30947,8 +32409,14 @@
         <v>0</v>
       </c>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
-      <c r="L860" t="inlineStr"/>
+      <c r="K860" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M860" t="n">
         <v>1</v>
       </c>
@@ -30982,8 +32450,14 @@
         <v>0</v>
       </c>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
-      <c r="L861" t="inlineStr"/>
+      <c r="K861" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M861" t="n">
         <v>1</v>
       </c>
@@ -31017,8 +32491,14 @@
         <v>0</v>
       </c>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
-      <c r="L862" t="inlineStr"/>
+      <c r="K862" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M862" t="n">
         <v>1</v>
       </c>
@@ -31052,8 +32532,14 @@
         <v>0</v>
       </c>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
-      <c r="L863" t="inlineStr"/>
+      <c r="K863" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M863" t="n">
         <v>1</v>
       </c>
@@ -31087,8 +32573,14 @@
         <v>0</v>
       </c>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
-      <c r="L864" t="inlineStr"/>
+      <c r="K864" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M864" t="n">
         <v>1</v>
       </c>
@@ -31122,8 +32614,14 @@
         <v>0</v>
       </c>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
-      <c r="L865" t="inlineStr"/>
+      <c r="K865" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M865" t="n">
         <v>1</v>
       </c>
@@ -31157,8 +32655,14 @@
         <v>0</v>
       </c>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
-      <c r="L866" t="inlineStr"/>
+      <c r="K866" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M866" t="n">
         <v>1</v>
       </c>
@@ -31192,8 +32696,14 @@
         <v>0</v>
       </c>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
-      <c r="L867" t="inlineStr"/>
+      <c r="K867" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M867" t="n">
         <v>1</v>
       </c>
@@ -31227,8 +32737,14 @@
         <v>0</v>
       </c>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
-      <c r="L868" t="inlineStr"/>
+      <c r="K868" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M868" t="n">
         <v>1</v>
       </c>
@@ -31262,8 +32778,14 @@
         <v>0</v>
       </c>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
-      <c r="L869" t="inlineStr"/>
+      <c r="K869" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M869" t="n">
         <v>1</v>
       </c>
@@ -31297,8 +32819,14 @@
         <v>0</v>
       </c>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
-      <c r="L870" t="inlineStr"/>
+      <c r="K870" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M870" t="n">
         <v>1</v>
       </c>
@@ -31332,8 +32860,14 @@
         <v>0</v>
       </c>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
-      <c r="L871" t="inlineStr"/>
+      <c r="K871" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M871" t="n">
         <v>1</v>
       </c>
@@ -31367,8 +32901,14 @@
         <v>0</v>
       </c>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
-      <c r="L872" t="inlineStr"/>
+      <c r="K872" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M872" t="n">
         <v>1</v>
       </c>
@@ -31402,8 +32942,14 @@
         <v>0</v>
       </c>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
-      <c r="L873" t="inlineStr"/>
+      <c r="K873" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M873" t="n">
         <v>1</v>
       </c>
@@ -31437,8 +32983,14 @@
         <v>0</v>
       </c>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
-      <c r="L874" t="inlineStr"/>
+      <c r="K874" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M874" t="n">
         <v>1</v>
       </c>
@@ -31472,8 +33024,14 @@
         <v>0</v>
       </c>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
-      <c r="L875" t="inlineStr"/>
+      <c r="K875" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M875" t="n">
         <v>1</v>
       </c>
@@ -31507,8 +33065,14 @@
         <v>0</v>
       </c>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
-      <c r="L876" t="inlineStr"/>
+      <c r="K876" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M876" t="n">
         <v>1</v>
       </c>
@@ -31542,8 +33106,14 @@
         <v>0</v>
       </c>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
-      <c r="L877" t="inlineStr"/>
+      <c r="K877" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M877" t="n">
         <v>1</v>
       </c>
@@ -31577,8 +33147,14 @@
         <v>0</v>
       </c>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
-      <c r="L878" t="inlineStr"/>
+      <c r="K878" t="n">
+        <v>3077</v>
+      </c>
+      <c r="L878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M878" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-11 BackTest LINK.xlsx
+++ b/BackTest/2019-10-11 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -679,11 +679,9 @@
         <v>15163.57236728662</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -1139,11 +1137,9 @@
         <v>14672.58446728662</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1593,11 +1589,9 @@
         <v>72884.94546728663</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1632,11 +1626,9 @@
         <v>72897.66936728662</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1671,11 +1663,9 @@
         <v>72795.66946728663</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1710,11 +1700,9 @@
         <v>68065.66946728663</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1749,11 +1737,9 @@
         <v>68665.66946728663</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1788,11 +1774,9 @@
         <v>68619.94596728664</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1827,11 +1811,9 @@
         <v>68762.80696728664</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1866,11 +1848,9 @@
         <v>67860.80696728664</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1905,11 +1885,9 @@
         <v>67860.80696728664</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1944,11 +1922,9 @@
         <v>68194.76916728663</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1983,11 +1959,9 @@
         <v>68194.76916728663</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2022,11 +1996,9 @@
         <v>68865.52036728663</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2061,11 +2033,9 @@
         <v>72561.16146728663</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2100,11 +2070,9 @@
         <v>82901.85156728662</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2139,11 +2107,9 @@
         <v>83064.22106728662</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2178,11 +2144,9 @@
         <v>82929.42106728662</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2217,11 +2181,9 @@
         <v>82862.02106728662</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2256,11 +2218,9 @@
         <v>82776.63336728662</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2332,11 +2292,9 @@
         <v>82782.99256728662</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3026</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2408,11 +2366,9 @@
         <v>83223.27526728662</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2706,11 +2662,9 @@
         <v>79045.53946728661</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2782,11 +2736,9 @@
         <v>79354.33946728661</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2895,11 +2847,9 @@
         <v>76240.35196728661</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2934,11 +2884,9 @@
         <v>76286.81896728661</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2973,11 +2921,9 @@
         <v>76441.81896728661</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -3012,11 +2958,9 @@
         <v>77536.32656728661</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3088,11 +3032,9 @@
         <v>77535.9265672866</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -4903,18 +4845,16 @@
         <v>84830.69116016819</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
@@ -4940,15 +4880,11 @@
         <v>84931.09026016819</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4977,15 +4913,11 @@
         <v>90692.17766016819</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5014,15 +4946,11 @@
         <v>88725.08166016819</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5051,15 +4979,11 @@
         <v>89075.25596016819</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5088,15 +5012,11 @@
         <v>92067.18096016819</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5125,15 +5045,11 @@
         <v>89027.94716016819</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5162,15 +5078,11 @@
         <v>88922.40346016819</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5199,15 +5111,11 @@
         <v>89201.2607601682</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5236,15 +5144,11 @@
         <v>88945.7761601682</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5273,15 +5177,11 @@
         <v>88183.12746016819</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5310,15 +5210,11 @@
         <v>90797.0739601682</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5347,15 +5243,11 @@
         <v>90825.95956016819</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5384,15 +5276,11 @@
         <v>90825.95956016819</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5421,15 +5309,11 @@
         <v>90824.95956016819</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5462,11 +5346,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5499,11 +5379,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5532,15 +5408,11 @@
         <v>90694.23436016819</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5569,15 +5441,11 @@
         <v>91342.34396016819</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5610,11 +5478,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5647,11 +5511,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5680,15 +5540,11 @@
         <v>89113.0610601682</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5721,11 +5577,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5758,11 +5610,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5791,15 +5639,11 @@
         <v>88083.08116016819</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5828,15 +5672,11 @@
         <v>88048.2099601682</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5865,15 +5705,11 @@
         <v>88082.4752601682</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5902,15 +5738,11 @@
         <v>87359.43226016819</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5939,15 +5771,11 @@
         <v>88670.7420601682</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5976,15 +5804,11 @@
         <v>88759.98916016819</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6013,15 +5837,11 @@
         <v>88668.86476016819</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6050,15 +5870,11 @@
         <v>88980.82056016818</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6087,15 +5903,11 @@
         <v>88970.01066016819</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6124,15 +5936,11 @@
         <v>90116.97716016819</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6161,15 +5969,11 @@
         <v>90116.97716016819</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6202,11 +6006,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6239,11 +6039,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6276,11 +6072,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6313,11 +6105,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6350,11 +6138,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6387,11 +6171,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6204,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6461,11 +6237,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6498,11 +6270,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6535,11 +6303,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6572,11 +6336,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6609,11 +6369,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6642,16 +6398,14 @@
         <v>81271.06116016819</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
       <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -6677,7 +6431,7 @@
         <v>81271.06116016819</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6710,7 +6464,7 @@
         <v>80981.10226016819</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6743,7 +6497,7 @@
         <v>80981.10226016819</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6776,7 +6530,7 @@
         <v>80315.2010601682</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6809,7 +6563,7 @@
         <v>80338.5635601682</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6842,7 +6596,7 @@
         <v>80557.9942601682</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6875,7 +6629,7 @@
         <v>80490.5942601682</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6908,7 +6662,7 @@
         <v>81122.51536016821</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6941,7 +6695,7 @@
         <v>81410.72886016821</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6974,7 +6728,7 @@
         <v>81410.72886016821</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7172,7 +6926,7 @@
         <v>81652.16336016821</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7304,7 +7058,7 @@
         <v>81269.64696016822</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7370,7 +7124,7 @@
         <v>83091.79796016822</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7502,7 +7256,7 @@
         <v>80454.86086016822</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7535,7 +7289,7 @@
         <v>80091.82166016822</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7568,7 +7322,7 @@
         <v>77440.56466016822</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7601,7 +7355,7 @@
         <v>76737.48296016823</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7634,7 +7388,7 @@
         <v>76961.26956016824</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7667,7 +7421,7 @@
         <v>77214.30636016824</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7700,7 +7454,7 @@
         <v>78811.66786016824</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7733,7 +7487,7 @@
         <v>78811.66786016824</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7766,7 +7520,7 @@
         <v>78811.66786016824</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7799,7 +7553,7 @@
         <v>76851.24226016823</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7832,7 +7586,7 @@
         <v>73958.00046016823</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7865,7 +7619,7 @@
         <v>69108.68998304507</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7898,7 +7652,7 @@
         <v>70172.01078304507</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7931,7 +7685,7 @@
         <v>72042.26948304508</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7964,7 +7718,7 @@
         <v>71898.29708304508</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7997,7 +7751,7 @@
         <v>69414.87398304508</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8030,7 +7784,7 @@
         <v>68869.56318304507</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8063,7 +7817,7 @@
         <v>68556.92918304507</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8096,7 +7850,7 @@
         <v>68620.12638304506</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8129,7 +7883,7 @@
         <v>69339.65284928912</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -11297,7 +11051,7 @@
         <v>85397.97121047263</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11330,7 +11084,7 @@
         <v>84424.41791047264</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -15554,7 +15308,7 @@
         <v>56113.24354228817</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15587,7 +15341,7 @@
         <v>56113.24354228817</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15620,7 +15374,7 @@
         <v>55971.97944228817</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15653,7 +15407,7 @@
         <v>62156.79744228817</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15686,7 +15440,7 @@
         <v>64883.39394228817</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15719,7 +15473,7 @@
         <v>76038.18724228817</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15752,7 +15506,7 @@
         <v>69372.51524228817</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15785,7 +15539,7 @@
         <v>66676.58254228816</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15818,7 +15572,7 @@
         <v>68877.4398573939</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15851,7 +15605,7 @@
         <v>70139.56163125444</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15884,7 +15638,7 @@
         <v>68487.55967471958</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15917,7 +15671,7 @@
         <v>67317.81707471958</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15950,7 +15704,7 @@
         <v>67948.57096282639</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15983,7 +15737,7 @@
         <v>66337.85156282638</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16016,7 +15770,7 @@
         <v>65798.17636282639</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16049,7 +15803,7 @@
         <v>65798.17636282639</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16082,7 +15836,7 @@
         <v>65892.72916282639</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16115,7 +15869,7 @@
         <v>64156.0599628264</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16148,7 +15902,7 @@
         <v>61701.6033628264</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16181,7 +15935,7 @@
         <v>44216.2894628264</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16214,7 +15968,7 @@
         <v>50937.1943628264</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16247,7 +16001,7 @@
         <v>44404.9884628264</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16280,7 +16034,7 @@
         <v>43335.2855628264</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16313,7 +16067,7 @@
         <v>43798.2410628264</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16346,7 +16100,7 @@
         <v>43798.2410628264</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16379,7 +16133,7 @@
         <v>43100.6388628264</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16412,7 +16166,7 @@
         <v>43295.93846282639</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16445,7 +16199,7 @@
         <v>43296.93846282639</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16478,7 +16232,7 @@
         <v>38620.95356282639</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16511,7 +16265,7 @@
         <v>39048.52866282639</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16544,7 +16298,7 @@
         <v>40286.59986282639</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16577,7 +16331,7 @@
         <v>40501.88346282639</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16610,7 +16364,7 @@
         <v>40208.57906282639</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16643,7 +16397,7 @@
         <v>40291.51886282639</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16676,7 +16430,7 @@
         <v>39372.1267628264</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16709,7 +16463,7 @@
         <v>38409.74172605181</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16742,7 +16496,7 @@
         <v>38409.74172605181</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16775,7 +16529,7 @@
         <v>38916.2250260518</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16808,7 +16562,7 @@
         <v>38366.6188260518</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16841,7 +16595,7 @@
         <v>33895.3386260518</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16874,7 +16628,7 @@
         <v>34474.2060260518</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16907,7 +16661,7 @@
         <v>34570.0384260518</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16940,7 +16694,7 @@
         <v>34606.0384260518</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16973,7 +16727,7 @@
         <v>34605.0384260518</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17006,7 +16760,7 @@
         <v>34525.83352605181</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17039,7 +16793,7 @@
         <v>34525.83352605181</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17072,7 +16826,7 @@
         <v>34525.83352605181</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17105,7 +16859,7 @@
         <v>32984.89572605181</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17138,7 +16892,7 @@
         <v>32148.81972605181</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17171,7 +16925,7 @@
         <v>32330.25702605181</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17204,7 +16958,7 @@
         <v>32330.25702605181</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17237,7 +16991,7 @@
         <v>34418.4773260518</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17270,7 +17024,7 @@
         <v>36144.5272260518</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17303,7 +17057,7 @@
         <v>36755.8967260518</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17336,7 +17090,7 @@
         <v>36814.1752260518</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17369,7 +17123,7 @@
         <v>36814.1752260518</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17402,7 +17156,7 @@
         <v>36815.1752260518</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17435,7 +17189,7 @@
         <v>37267.5669260518</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -25355,7 +25109,7 @@
         <v>91573.11701636411</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25388,7 +25142,7 @@
         <v>96215.52760503329</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25421,7 +25175,7 @@
         <v>97821.4849470211</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25850,7 +25604,7 @@
         <v>99313.0887444664</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25883,7 +25637,7 @@
         <v>105268.5326444664</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25916,7 +25670,7 @@
         <v>105850.4972444664</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25949,7 +25703,7 @@
         <v>107843.8783444664</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25982,7 +25736,7 @@
         <v>108173.1289444664</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26015,7 +25769,7 @@
         <v>108619.4018438793</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26048,7 +25802,7 @@
         <v>108619.4018438793</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26081,7 +25835,7 @@
         <v>112129.2420882206</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26114,7 +25868,7 @@
         <v>110065.3329774015</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26147,7 +25901,7 @@
         <v>110474.3329774015</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26180,7 +25934,7 @@
         <v>108059.8933774015</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26213,7 +25967,7 @@
         <v>108175.7771774015</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26246,7 +26000,7 @@
         <v>107905.3849774015</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26279,7 +26033,7 @@
         <v>110378.0021774015</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26312,7 +26066,7 @@
         <v>112056.4820774015</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26345,7 +26099,7 @@
         <v>113301.6456774015</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26378,7 +26132,7 @@
         <v>109446.5088774015</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26411,7 +26165,7 @@
         <v>109954.5988774015</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -26444,7 +26198,7 @@
         <v>108378.8021774015</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -26477,7 +26231,7 @@
         <v>98042.77097740147</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26510,7 +26264,7 @@
         <v>98042.77097740147</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26543,7 +26297,7 @@
         <v>97919.23427740147</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -26576,7 +26330,7 @@
         <v>92443.03565448349</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26609,7 +26363,7 @@
         <v>93032.4833544835</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26642,7 +26396,7 @@
         <v>94428.80925448349</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26675,7 +26429,7 @@
         <v>97289.9459544835</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26708,7 +26462,7 @@
         <v>98777.6417697721</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26741,7 +26495,7 @@
         <v>98718.27516977211</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26774,7 +26528,7 @@
         <v>98559.06626977211</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26807,7 +26561,7 @@
         <v>98678.65595996575</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26840,7 +26594,7 @@
         <v>102068.8699555921</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26873,7 +26627,7 @@
         <v>100260.0949555921</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26906,7 +26660,7 @@
         <v>100132.0949555921</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26939,7 +26693,7 @@
         <v>100197.0949555921</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26972,7 +26726,7 @@
         <v>100165.0949555921</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27005,7 +26759,7 @@
         <v>100663.6809555921</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27038,7 +26792,7 @@
         <v>100778.2809555921</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27071,7 +26825,7 @@
         <v>100778.2809555921</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27104,7 +26858,7 @@
         <v>102268.8908555921</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27137,7 +26891,7 @@
         <v>100987.0038555921</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27170,7 +26924,7 @@
         <v>100987.0038555921</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27203,7 +26957,7 @@
         <v>101097.1074555921</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27566,7 +27320,7 @@
         <v>101500.2417555921</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27599,7 +27353,7 @@
         <v>101440.2417555921</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27632,7 +27386,7 @@
         <v>98837.56085559212</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27665,7 +27419,7 @@
         <v>98840.62485559212</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27698,7 +27452,7 @@
         <v>97635.05785559212</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27731,7 +27485,7 @@
         <v>97730.95785559212</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27764,7 +27518,7 @@
         <v>95872.71925559212</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27797,7 +27551,7 @@
         <v>92220.16855559213</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27830,7 +27584,7 @@
         <v>92502.25635559212</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27863,7 +27617,7 @@
         <v>92375.85695559213</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27896,7 +27650,7 @@
         <v>92313.14515559212</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27929,7 +27683,7 @@
         <v>89077.11385559212</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27962,7 +27716,7 @@
         <v>87708.27345559212</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27995,7 +27749,7 @@
         <v>87746.16305559211</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28028,7 +27782,7 @@
         <v>87531.19125559212</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28061,7 +27815,7 @@
         <v>87505.96765559212</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28094,7 +27848,7 @@
         <v>87505.96765559212</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28127,7 +27881,7 @@
         <v>87553.84975559212</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -28160,7 +27914,7 @@
         <v>85258.26805559213</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28193,7 +27947,7 @@
         <v>85258.26805559213</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -28226,7 +27980,7 @@
         <v>87569.04265559213</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28259,7 +28013,7 @@
         <v>88476.67035559213</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28292,7 +28046,7 @@
         <v>88489.08055559213</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28325,7 +28079,7 @@
         <v>87802.80995559212</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28358,7 +28112,7 @@
         <v>87817.43725559211</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28391,7 +28145,7 @@
         <v>87216.25935559212</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28424,7 +28178,7 @@
         <v>85829.74025559211</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28457,7 +28211,7 @@
         <v>86068.17965559212</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -28490,7 +28244,7 @@
         <v>86213.27485559211</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -28523,7 +28277,7 @@
         <v>86177.73065559211</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -28556,7 +28310,7 @@
         <v>85254.05235559211</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -28589,7 +28343,7 @@
         <v>84700.6882555921</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28622,7 +28376,7 @@
         <v>85614.5037555921</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -28655,7 +28409,7 @@
         <v>84840.7530555921</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -28688,7 +28442,7 @@
         <v>84840.7530555921</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -28721,7 +28475,7 @@
         <v>84840.7530555921</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28754,7 +28508,7 @@
         <v>88917.4262555921</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28787,7 +28541,7 @@
         <v>88922.4262555921</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28820,7 +28574,7 @@
         <v>89454.7262555921</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29744,7 +29498,7 @@
         <v>94855.66705559213</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29777,7 +29531,7 @@
         <v>94829.84655559213</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29810,7 +29564,7 @@
         <v>94673.09565559213</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29843,7 +29597,7 @@
         <v>94673.09565559213</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29876,7 +29630,7 @@
         <v>94517.86365559213</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29909,7 +29663,7 @@
         <v>92798.28405559213</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29942,7 +29696,7 @@
         <v>91382.37555559212</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29975,7 +29729,7 @@
         <v>92495.41525559212</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30008,7 +29762,7 @@
         <v>92407.11525559211</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30041,7 +29795,7 @@
         <v>92407.11525559211</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -30074,7 +29828,7 @@
         <v>92407.11525559211</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -30107,7 +29861,7 @@
         <v>92385.01525559211</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -30140,7 +29894,7 @@
         <v>92683.09045559212</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30173,7 +29927,7 @@
         <v>92816.19735559211</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30206,7 +29960,7 @@
         <v>93252.09875559212</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30239,7 +29993,7 @@
         <v>94970.58785559212</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30272,7 +30026,7 @@
         <v>97000.56375559213</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -30305,7 +30059,7 @@
         <v>96127.00075559213</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -30338,7 +30092,7 @@
         <v>101116.7102555921</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -30371,7 +30125,7 @@
         <v>99461.50865559213</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -30404,7 +30158,7 @@
         <v>99298.50865559213</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -30437,7 +30191,7 @@
         <v>101302.2963555921</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -30470,7 +30224,7 @@
         <v>102145.8429555921</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -30503,7 +30257,7 @@
         <v>102150.0094555921</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -30536,7 +30290,7 @@
         <v>100075.2564555921</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -30569,7 +30323,7 @@
         <v>101362.1385555921</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -30602,7 +30356,7 @@
         <v>101039.5538555921</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -30635,7 +30389,7 @@
         <v>96430.81695559213</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -30668,7 +30422,7 @@
         <v>98445.58595559213</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -30701,7 +30455,7 @@
         <v>98300.37695559213</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -30734,7 +30488,7 @@
         <v>98369.67695559213</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30767,7 +30521,7 @@
         <v>98090.29445559213</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30800,7 +30554,7 @@
         <v>97817.03495559213</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30833,7 +30587,7 @@
         <v>97822.98695559213</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30866,7 +30620,7 @@
         <v>98144.18005559214</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30899,7 +30653,7 @@
         <v>98532.85725559214</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30932,7 +30686,7 @@
         <v>98532.85725559214</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30965,7 +30719,7 @@
         <v>98485.05725559214</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30998,7 +30752,7 @@
         <v>98485.05725559214</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -31031,7 +30785,7 @@
         <v>97335.32585559213</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -31064,7 +30818,7 @@
         <v>96935.53405559213</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -31097,7 +30851,7 @@
         <v>97353.54972465531</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -31130,7 +30884,7 @@
         <v>97353.54972465531</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -31163,7 +30917,7 @@
         <v>95122.57502465531</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -31196,7 +30950,7 @@
         <v>92068.09742465531</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31229,7 +30983,7 @@
         <v>92078.40362465532</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31262,7 +31016,7 @@
         <v>92078.40362465532</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -31295,7 +31049,7 @@
         <v>92096.92392465532</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -31328,7 +31082,7 @@
         <v>92160.16462465531</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -31361,7 +31115,7 @@
         <v>92155.55362465531</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -31394,7 +31148,7 @@
         <v>91827.7937246553</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -31427,7 +31181,7 @@
         <v>91790.09372465531</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -31460,7 +31214,7 @@
         <v>91790.09372465531</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -31493,7 +31247,7 @@
         <v>93315.09372465531</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -31526,7 +31280,7 @@
         <v>93260.41452465531</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -31559,7 +31313,7 @@
         <v>93260.41452465531</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -31592,7 +31346,7 @@
         <v>88233.27422465531</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -31625,7 +31379,7 @@
         <v>88225.31622465531</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -31658,7 +31412,7 @@
         <v>88225.31622465531</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -31691,7 +31445,7 @@
         <v>95054.90652465531</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -31724,7 +31478,7 @@
         <v>95044.9183246553</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31757,7 +31511,7 @@
         <v>94684.3099246553</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31790,7 +31544,7 @@
         <v>94684.3099246553</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31823,7 +31577,7 @@
         <v>94684.3099246553</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31856,7 +31610,7 @@
         <v>93160.8025246553</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31889,7 +31643,7 @@
         <v>93323.6861246553</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31922,7 +31676,7 @@
         <v>92788.6861246553</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31955,7 +31709,7 @@
         <v>95805.2210246553</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31988,7 +31742,7 @@
         <v>94172.4038246553</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32021,7 +31775,7 @@
         <v>93268.9060246553</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32054,7 +31808,7 @@
         <v>92870.7811246553</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32087,7 +31841,7 @@
         <v>93032.53492465531</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -32120,7 +31874,7 @@
         <v>93041.93572465531</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -32153,7 +31907,7 @@
         <v>96639.7661139399</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -32186,7 +31940,7 @@
         <v>94760.7943139399</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -32219,7 +31973,7 @@
         <v>93437.9031139399</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -32252,7 +32006,7 @@
         <v>94915.47001393991</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -32285,7 +32039,7 @@
         <v>94938.0146139399</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -32318,7 +32072,7 @@
         <v>95988.8595139399</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -32351,7 +32105,7 @@
         <v>95247.5210139399</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -32384,7 +32138,7 @@
         <v>95322.3675139399</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -32395,6 +32149,6 @@
       <c r="M947" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-11 BackTest LINK.xlsx
+++ b/BackTest/2019-10-11 BackTest LINK.xlsx
@@ -679,9 +679,11 @@
         <v>15163.57236728662</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3046</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -827,9 +829,11 @@
         <v>15081.68076728662</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3017</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -1098,11 +1102,9 @@
         <v>14788.33586728662</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -4845,16 +4847,18 @@
         <v>84830.69116016819</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
       <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
@@ -4880,11 +4884,15 @@
         <v>84931.09026016819</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4913,11 +4921,15 @@
         <v>90692.17766016819</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4946,11 +4958,15 @@
         <v>88725.08166016819</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4979,11 +4995,15 @@
         <v>89075.25596016819</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5012,11 +5032,15 @@
         <v>92067.18096016819</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5045,11 +5069,15 @@
         <v>89027.94716016819</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5078,11 +5106,15 @@
         <v>88922.40346016819</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5111,11 +5143,15 @@
         <v>89201.2607601682</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5144,11 +5180,15 @@
         <v>88945.7761601682</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5177,11 +5217,15 @@
         <v>88183.12746016819</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5210,11 +5254,15 @@
         <v>90797.0739601682</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5243,11 +5291,15 @@
         <v>90825.95956016819</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5276,11 +5328,15 @@
         <v>90825.95956016819</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5309,11 +5365,15 @@
         <v>90824.95956016819</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5346,7 +5406,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5379,7 +5443,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5408,11 +5476,15 @@
         <v>90694.23436016819</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5441,11 +5513,15 @@
         <v>91342.34396016819</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5478,7 +5554,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5511,7 +5591,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5540,11 +5624,15 @@
         <v>89113.0610601682</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5577,7 +5665,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5610,7 +5702,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5639,11 +5735,15 @@
         <v>88083.08116016819</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5672,11 +5772,15 @@
         <v>88048.2099601682</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5705,11 +5809,15 @@
         <v>88082.4752601682</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5738,11 +5846,15 @@
         <v>87359.43226016819</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5771,11 +5883,15 @@
         <v>88670.7420601682</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5804,11 +5920,15 @@
         <v>88759.98916016819</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5837,11 +5957,15 @@
         <v>88668.86476016819</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5870,11 +5994,15 @@
         <v>88980.82056016818</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5903,11 +6031,15 @@
         <v>88970.01066016819</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5936,11 +6068,15 @@
         <v>90116.97716016819</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5969,11 +6105,15 @@
         <v>90116.97716016819</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6006,7 +6146,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6039,7 +6183,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6072,7 +6220,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6105,7 +6257,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6138,7 +6294,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6171,7 +6331,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6204,7 +6368,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6237,7 +6405,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6270,7 +6442,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6479,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6336,7 +6516,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6369,7 +6553,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6402,7 +6590,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6435,7 +6627,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6468,7 +6664,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6501,7 +6701,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6534,7 +6738,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6567,7 +6775,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6600,7 +6812,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6633,7 +6849,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6666,7 +6886,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6699,7 +6923,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6732,7 +6960,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6765,7 +6997,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6798,7 +7034,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6831,7 +7071,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6864,7 +7108,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6897,7 +7145,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6930,7 +7182,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6963,7 +7219,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6996,7 +7256,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7029,7 +7293,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7062,7 +7330,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7095,7 +7367,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7128,7 +7404,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7161,7 +7441,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7194,7 +7478,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7227,7 +7515,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7260,7 +7552,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7293,7 +7589,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7326,7 +7626,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7359,7 +7663,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7392,7 +7700,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7425,7 +7737,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +7774,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7491,7 +7811,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7524,7 +7848,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7557,7 +7885,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7590,7 +7922,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7623,7 +7959,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7656,7 +7996,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7689,7 +8033,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7722,7 +8070,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7755,7 +8107,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7788,7 +8144,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7821,7 +8181,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7854,7 +8218,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7887,7 +8255,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7920,7 +8292,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7953,7 +8329,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7986,7 +8366,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8019,7 +8403,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8052,7 +8440,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8085,7 +8477,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8118,7 +8514,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8151,7 +8551,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8184,7 +8588,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8217,7 +8625,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8250,7 +8662,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8283,7 +8699,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8316,7 +8736,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8349,7 +8773,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8382,7 +8810,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8415,7 +8847,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8448,7 +8884,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8481,7 +8921,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8514,7 +8958,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8547,7 +8995,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8580,7 +9032,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8613,7 +9069,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8646,7 +9106,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8679,7 +9143,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8712,7 +9180,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8745,7 +9217,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8778,7 +9254,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8811,7 +9291,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8844,7 +9328,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8877,7 +9365,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8910,7 +9402,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8943,7 +9439,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8976,7 +9476,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9009,7 +9513,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9042,7 +9550,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9075,7 +9587,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9108,7 +9624,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9141,7 +9661,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9174,7 +9698,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9207,7 +9735,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9240,7 +9772,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9273,7 +9809,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9306,7 +9846,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9339,7 +9883,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9372,7 +9920,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9405,7 +9957,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9438,7 +9994,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9471,7 +10031,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9504,7 +10068,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9537,7 +10105,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9570,7 +10142,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9603,7 +10179,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9636,7 +10216,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9669,7 +10253,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9702,7 +10290,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9735,7 +10327,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9768,7 +10364,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9801,7 +10401,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9834,7 +10438,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9867,7 +10475,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9900,7 +10512,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9933,7 +10549,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9966,7 +10586,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9999,7 +10623,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10032,7 +10660,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10065,7 +10697,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10098,7 +10734,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10131,7 +10771,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10164,7 +10808,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10197,7 +10845,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10230,7 +10882,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10263,7 +10919,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10296,7 +10956,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10329,7 +10993,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10362,7 +11030,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10395,7 +11067,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10428,7 +11104,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10461,7 +11141,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10494,7 +11178,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10527,7 +11215,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10560,7 +11252,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10593,7 +11289,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10626,7 +11326,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10659,7 +11363,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10692,7 +11400,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10725,7 +11437,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10758,7 +11474,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10791,7 +11511,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10824,7 +11548,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10857,7 +11585,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10890,7 +11622,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10923,7 +11659,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10956,7 +11696,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10989,7 +11733,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11022,7 +11770,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11051,11 +11803,15 @@
         <v>85397.97121047263</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11084,11 +11840,15 @@
         <v>84424.41791047264</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11121,7 +11881,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11154,7 +11918,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11187,7 +11955,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11220,7 +11992,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11253,7 +12029,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11286,7 +12066,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11319,7 +12103,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11352,7 +12140,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11385,7 +12177,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11418,7 +12214,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11451,7 +12251,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11484,7 +12288,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11517,7 +12325,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11550,7 +12362,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11583,7 +12399,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11616,7 +12436,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11649,7 +12473,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11682,7 +12510,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11715,7 +12547,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11748,7 +12584,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11781,7 +12621,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11814,7 +12658,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11847,7 +12695,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11880,7 +12732,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11913,7 +12769,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11946,7 +12806,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11979,7 +12843,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12012,7 +12880,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12045,7 +12917,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12078,7 +12954,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12111,7 +12991,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12144,7 +13028,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12177,7 +13065,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12210,7 +13102,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12243,7 +13139,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12276,7 +13176,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12309,7 +13213,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12342,7 +13250,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12375,7 +13287,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12408,7 +13324,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12441,7 +13361,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12474,7 +13398,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12507,7 +13435,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12540,7 +13472,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12573,7 +13509,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12606,7 +13546,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12639,7 +13583,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12672,7 +13620,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12705,7 +13657,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12738,7 +13694,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12771,7 +13731,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12804,7 +13768,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12837,7 +13805,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12870,7 +13842,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12903,7 +13879,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12936,7 +13916,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12969,7 +13953,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13002,7 +13990,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13035,7 +14027,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13068,7 +14064,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13101,7 +14101,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13134,7 +14138,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13167,7 +14175,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13200,7 +14212,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13233,7 +14249,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13266,7 +14286,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13299,7 +14323,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13332,7 +14360,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13365,7 +14397,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13398,7 +14434,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13431,7 +14471,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13464,7 +14508,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13497,7 +14545,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13530,7 +14582,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13563,7 +14619,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13596,7 +14656,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13629,7 +14693,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13662,7 +14730,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13695,7 +14767,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13728,7 +14804,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13761,7 +14841,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13794,7 +14878,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13827,7 +14915,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13860,7 +14952,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13893,7 +14989,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13926,7 +15026,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13959,7 +15063,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13992,7 +15100,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14025,7 +15137,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14058,7 +15174,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14091,7 +15211,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14124,7 +15248,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14157,7 +15285,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14190,7 +15322,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14223,7 +15359,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14256,7 +15396,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14289,7 +15433,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14322,7 +15470,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14355,7 +15507,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14388,7 +15544,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14421,7 +15581,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14454,7 +15618,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14487,7 +15655,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14520,7 +15692,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14553,7 +15729,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14586,7 +15766,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14619,7 +15803,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14652,7 +15840,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14685,7 +15877,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14718,7 +15914,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14751,7 +15951,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14784,7 +15988,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14817,7 +16025,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14850,7 +16062,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14883,7 +16099,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14916,7 +16136,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14949,7 +16173,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14982,7 +16210,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15015,7 +16247,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15048,7 +16284,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15081,7 +16321,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15114,7 +16358,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15147,7 +16395,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15180,7 +16432,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15213,7 +16469,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15246,7 +16506,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15279,7 +16543,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15312,7 +16580,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15345,7 +16617,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15378,7 +16654,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15411,7 +16691,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15444,7 +16728,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15473,14 +16761,16 @@
         <v>76038.18724228817</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="n">
-        <v>1</v>
-      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="inlineStr"/>
     </row>
     <row r="443">
@@ -15506,7 +16796,7 @@
         <v>69372.51524228817</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15539,7 +16829,7 @@
         <v>66676.58254228816</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15572,7 +16862,7 @@
         <v>68877.4398573939</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15605,7 +16895,7 @@
         <v>70139.56163125444</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15638,7 +16928,7 @@
         <v>68487.55967471958</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15671,7 +16961,7 @@
         <v>67317.81707471958</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15704,7 +16994,7 @@
         <v>67948.57096282639</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15737,7 +17027,7 @@
         <v>66337.85156282638</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15770,7 +17060,7 @@
         <v>65798.17636282639</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15803,7 +17093,7 @@
         <v>65798.17636282639</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15836,7 +17126,7 @@
         <v>65892.72916282639</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15869,7 +17159,7 @@
         <v>64156.0599628264</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15902,7 +17192,7 @@
         <v>61701.6033628264</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15935,7 +17225,7 @@
         <v>44216.2894628264</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -25109,7 +26399,7 @@
         <v>91573.11701636411</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25142,7 +26432,7 @@
         <v>96215.52760503329</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25175,7 +26465,7 @@
         <v>97821.4849470211</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
